--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="852">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3111,6 +3111,13 @@
   </si>
   <si>
     <t>B144821492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655274</t>
+  </si>
+  <si>
+    <t>E197031667</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3609,10 +3616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L368"/>
+  <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F370" sqref="F370"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3623,7 +3630,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="8" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="28.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
@@ -11401,6 +11408,29 @@
         <v>276</v>
       </c>
       <c r="J368" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>910000372</v>
+      </c>
+      <c r="C369" t="s">
+        <v>850</v>
+      </c>
+      <c r="E369">
+        <v>246790</v>
+      </c>
+      <c r="F369" t="s">
+        <v>851</v>
+      </c>
+      <c r="G369" t="s">
+        <v>55</v>
+      </c>
+      <c r="H369" t="s">
+        <v>276</v>
+      </c>
+      <c r="J369" t="s">
         <v>781</v>
       </c>
     </row>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="舊註冊流程" sheetId="2" r:id="rId2"/>
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
     <sheet name="特別設定" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="956">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3118,6 +3122,496 @@
   </si>
   <si>
     <t>E197031667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655275</t>
+  </si>
+  <si>
+    <t>B118350066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B110718333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655277</t>
+  </si>
+  <si>
+    <t>E177266520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655278</t>
+  </si>
+  <si>
+    <t>E147026938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icash_20240220_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B185952970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655280</t>
+  </si>
+  <si>
+    <t>BA22170207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">系統變更需求單
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>權限審查</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>機密等級:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>內部使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <t>公開</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>機密</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>填單日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請單位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求類別</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>想在現有系統中增加新功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(S)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>資料查詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(F)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統部
+聯絡窗口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在現有系統中進行功能調整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(S)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>資料更正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(D)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OPENPOINT點數活動建置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(D)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>特約機構問題處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(H)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統環境</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV開發</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT系統整合測試</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT用戶驗收測試</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>內部使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-Mail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyFlow</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請項目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤銷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請內容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號名稱:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸屬群組:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限需求說明:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請人主管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請人部門主管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統 承辦</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>承辦人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>承辦人主管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>承辦人部門主管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辦理結果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正前後對照留存於G:\需求單列表\需求單附件\(單號)
+2.附件存放路徑G:\需求單列表\需求單附件\(單號)           檢核人:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>★需求完成後，系統變更需求單請交由系統單位留存保管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>★日期一律填"西元"年，格式YYYY/MM/DD，麻煩各單位配合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok 1973/5/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655281</t>
+  </si>
+  <si>
+    <t>icashPay3.0.1(37)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A147354040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655282</t>
+  </si>
+  <si>
+    <t>D186982045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655283</t>
+  </si>
+  <si>
+    <t>D171569174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H197834241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655285</t>
+  </si>
+  <si>
+    <t>K122285463</t>
+  </si>
+  <si>
+    <t>B169528769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655287</t>
+  </si>
+  <si>
+    <t>E142290090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655288</t>
+  </si>
+  <si>
+    <t>E159945751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E184337598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3128,7 +3622,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3158,8 +3652,89 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3172,8 +3747,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -3196,11 +3777,337 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3219,6 +4126,495 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3285,13 +4681,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>174797</xdr:colOff>
+      <xdr:colOff>212897</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -3316,7 +4712,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4673600" y="0"/>
+          <a:off x="4711700" y="0"/>
+          <a:ext cx="4645197" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>543097</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309100" y="0"/>
           <a:ext cx="4645197" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3327,6 +4767,94 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="首頁"/>
+      <sheetName val="系統變更(權限審查)"/>
+      <sheetName val="系統變更(系統支援)"/>
+      <sheetName val="系統變更(系統上版)_2"/>
+      <sheetName val="FW&amp;L4"/>
+      <sheetName val="特約機構上線"/>
+      <sheetName val="ICP特店導入"/>
+      <sheetName val="帳務清分(特約機構)"/>
+      <sheetName val="帳務清分(聯名卡)"/>
+      <sheetName val="後台帳號申請"/>
+      <sheetName val="核心機房服務異動"/>
+      <sheetName val="系統變更(APP上版)"/>
+      <sheetName val="工作表1"/>
+      <sheetName val="XX系統變更(系統支援) (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="22">
+          <cell r="N22" t="str">
+            <v>v.23.4.21.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="O1" t="str">
+            <v>總經理室</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>風控單位</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>管理部</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>系統部</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>行銷部</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>顧客服務</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="O2" t="str">
+            <v>稽核室</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>法遵單位</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>財務會計</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>通路事業</v>
+          </cell>
+          <cell r="W2" t="str">
+            <v>電支業務</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>需求編號 : E2024______________</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3616,10 +5144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H383" sqref="H383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -11432,6 +12960,336 @@
       </c>
       <c r="J369" t="s">
         <v>781</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>910000373</v>
+      </c>
+      <c r="C370" t="s">
+        <v>852</v>
+      </c>
+      <c r="E370">
+        <v>246790</v>
+      </c>
+      <c r="F370" t="s">
+        <v>853</v>
+      </c>
+      <c r="I370" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>910000374</v>
+      </c>
+      <c r="C371" t="s">
+        <v>855</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E371">
+        <v>246790</v>
+      </c>
+      <c r="F371" t="s">
+        <v>854</v>
+      </c>
+      <c r="I371" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>910000375</v>
+      </c>
+      <c r="C372" t="s">
+        <v>856</v>
+      </c>
+      <c r="E372">
+        <v>246790</v>
+      </c>
+      <c r="F372" t="s">
+        <v>857</v>
+      </c>
+      <c r="G372" t="s">
+        <v>858</v>
+      </c>
+      <c r="I372" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>910000376</v>
+      </c>
+      <c r="C373" t="s">
+        <v>859</v>
+      </c>
+      <c r="D373" t="s">
+        <v>930</v>
+      </c>
+      <c r="E373">
+        <v>246790</v>
+      </c>
+      <c r="F373" t="s">
+        <v>860</v>
+      </c>
+      <c r="I373" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>910000377</v>
+      </c>
+      <c r="C374" t="s">
+        <v>934</v>
+      </c>
+      <c r="D374" t="s">
+        <v>929</v>
+      </c>
+      <c r="E374">
+        <v>246790</v>
+      </c>
+      <c r="F374" t="s">
+        <v>862</v>
+      </c>
+      <c r="G374" t="s">
+        <v>55</v>
+      </c>
+      <c r="H374" t="s">
+        <v>276</v>
+      </c>
+      <c r="J374" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>910000378</v>
+      </c>
+      <c r="C375" t="s">
+        <v>863</v>
+      </c>
+      <c r="E375">
+        <v>246790</v>
+      </c>
+      <c r="F375" t="s">
+        <v>864</v>
+      </c>
+      <c r="I375" t="s">
+        <v>427</v>
+      </c>
+      <c r="J375" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>910000379</v>
+      </c>
+      <c r="C376" t="s">
+        <v>931</v>
+      </c>
+      <c r="D376" t="s">
+        <v>858</v>
+      </c>
+      <c r="E376">
+        <v>246790</v>
+      </c>
+      <c r="F376" t="s">
+        <v>933</v>
+      </c>
+      <c r="G376" t="s">
+        <v>55</v>
+      </c>
+      <c r="H376" t="s">
+        <v>276</v>
+      </c>
+      <c r="J376" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>910000380</v>
+      </c>
+      <c r="C377" t="s">
+        <v>935</v>
+      </c>
+      <c r="D377" t="s">
+        <v>937</v>
+      </c>
+      <c r="E377">
+        <v>246790</v>
+      </c>
+      <c r="F377" t="s">
+        <v>936</v>
+      </c>
+      <c r="G377" t="s">
+        <v>55</v>
+      </c>
+      <c r="H377" t="s">
+        <v>276</v>
+      </c>
+      <c r="J377" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>910000381</v>
+      </c>
+      <c r="C378" t="s">
+        <v>938</v>
+      </c>
+      <c r="D378" t="s">
+        <v>937</v>
+      </c>
+      <c r="E378">
+        <v>246790</v>
+      </c>
+      <c r="F378" t="s">
+        <v>939</v>
+      </c>
+      <c r="G378" t="s">
+        <v>55</v>
+      </c>
+      <c r="H378" t="s">
+        <v>276</v>
+      </c>
+      <c r="J378" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>910000382</v>
+      </c>
+      <c r="C379" t="s">
+        <v>940</v>
+      </c>
+      <c r="E379">
+        <v>246790</v>
+      </c>
+      <c r="F379" t="s">
+        <v>942</v>
+      </c>
+      <c r="G379" t="s">
+        <v>55</v>
+      </c>
+      <c r="H379" t="s">
+        <v>276</v>
+      </c>
+      <c r="J379" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>910000383</v>
+      </c>
+      <c r="C380" t="s">
+        <v>943</v>
+      </c>
+      <c r="E380">
+        <v>246790</v>
+      </c>
+      <c r="F380" t="s">
+        <v>944</v>
+      </c>
+      <c r="G380" t="s">
+        <v>55</v>
+      </c>
+      <c r="H380" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>910000384</v>
+      </c>
+      <c r="B381" t="s">
+        <v>947</v>
+      </c>
+      <c r="C381" t="s">
+        <v>946</v>
+      </c>
+      <c r="D381" t="s">
+        <v>948</v>
+      </c>
+      <c r="E381">
+        <v>246790</v>
+      </c>
+      <c r="F381" t="s">
+        <v>945</v>
+      </c>
+      <c r="I381" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>910000385</v>
+      </c>
+      <c r="B382" t="s">
+        <v>947</v>
+      </c>
+      <c r="C382" t="s">
+        <v>949</v>
+      </c>
+      <c r="D382" t="s">
+        <v>948</v>
+      </c>
+      <c r="E382">
+        <v>246790</v>
+      </c>
+      <c r="F382" t="s">
+        <v>950</v>
+      </c>
+      <c r="I382" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>910000386</v>
+      </c>
+      <c r="B383" t="s">
+        <v>947</v>
+      </c>
+      <c r="C383" t="s">
+        <v>951</v>
+      </c>
+      <c r="E383">
+        <v>246790</v>
+      </c>
+      <c r="F383" t="s">
+        <v>952</v>
+      </c>
+      <c r="I383" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>910000387</v>
+      </c>
+      <c r="B384" t="s">
+        <v>955</v>
+      </c>
+      <c r="C384" t="s">
+        <v>953</v>
+      </c>
+      <c r="E384">
+        <v>246790</v>
+      </c>
+      <c r="F384" t="s">
+        <v>954</v>
+      </c>
+      <c r="I384" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -11470,7 +13328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -11563,4 +13421,1741 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ35"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
+        <v>865</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="str">
+        <f>[1]工作表1!B40</f>
+        <v>需求編號 : E2024______________</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="172" t="s">
+        <v>866</v>
+      </c>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y2" s="173" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC2" s="174" t="s">
+        <v>870</v>
+      </c>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="AF2" s="173" t="s">
+        <v>871</v>
+      </c>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="AI2" s="174" t="s">
+        <v>872</v>
+      </c>
+      <c r="AJ2" s="174"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="161" t="s">
+        <v>873</v>
+      </c>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="165" t="s">
+        <v>874</v>
+      </c>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="167">
+        <f ca="1">YEAR(NOW())</f>
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="145" t="s">
+        <v>875</v>
+      </c>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="169">
+        <f ca="1">MONTH(NOW())</f>
+        <v>3</v>
+      </c>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="145" t="s">
+        <v>876</v>
+      </c>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147">
+        <f ca="1">DAY(NOW())</f>
+        <v>5</v>
+      </c>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="145" t="s">
+        <v>877</v>
+      </c>
+      <c r="AJ3" s="148"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
+        <v>878</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="G4" s="18" t="str">
+        <f>[1]工作表1!O1</f>
+        <v>總經理室</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f>[1]工作表1!Q1</f>
+        <v>風控單位</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q4" s="18" t="str">
+        <f>[1]工作表1!S1</f>
+        <v>管理部</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="V4" s="18" t="str">
+        <f>[1]工作表1!U1</f>
+        <v>系統部</v>
+      </c>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA4" s="18" t="str">
+        <f>[1]工作表1!W1</f>
+        <v>行銷部</v>
+      </c>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="AF4" s="18" t="str">
+        <f>[1]工作表1!Y1</f>
+        <v>顧客服務</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="20"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="G5" s="22" t="str">
+        <f>[1]工作表1!O2</f>
+        <v>稽核室</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="L5" s="22" t="str">
+        <f>[1]工作表1!Q2</f>
+        <v>法遵單位</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q5" s="22" t="str">
+        <f>[1]工作表1!S2</f>
+        <v>財務會計</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="V5" s="22" t="str">
+        <f>[1]工作表1!U2</f>
+        <v>通路事業</v>
+      </c>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="AA5" s="22" t="str">
+        <f>[1]工作表1!W2</f>
+        <v>電支業務</v>
+      </c>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="25"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="G6" s="152" t="s">
+        <v>881</v>
+      </c>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>882</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="153" t="s">
+        <v>883</v>
+      </c>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="28"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="G7" s="136" t="s">
+        <v>884</v>
+      </c>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>885</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="31"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="G8" s="136" t="s">
+        <v>886</v>
+      </c>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="R8" s="136" t="s">
+        <v>887</v>
+      </c>
+      <c r="S8" s="136"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="31"/>
+    </row>
+    <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="32" t="s">
+        <v>879</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="160"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="160"/>
+      <c r="AI9" s="160"/>
+      <c r="AJ9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="142" t="s">
+        <v>889</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>890</v>
+      </c>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="K10" s="128" t="s">
+        <v>891</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="R10" s="128" t="s">
+        <v>892</v>
+      </c>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="Y10" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="AD10" s="128" t="s">
+        <v>894</v>
+      </c>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="129"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>873</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>895</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="L11" s="130" t="s">
+        <v>896</v>
+      </c>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q11" s="130" t="s">
+        <v>897</v>
+      </c>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="V11" s="130" t="s">
+        <v>898</v>
+      </c>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="131" t="s">
+        <v>879</v>
+      </c>
+      <c r="AA11" s="132" t="s">
+        <v>887</v>
+      </c>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="133"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="39" t="s">
+        <v>869</v>
+      </c>
+      <c r="G12" s="119" t="s">
+        <v>899</v>
+      </c>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="L12" s="119" t="s">
+        <v>900</v>
+      </c>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q12" s="119" t="s">
+        <v>901</v>
+      </c>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="V12" s="119" t="s">
+        <v>902</v>
+      </c>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="135"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="122" t="s">
+        <v>903</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>904</v>
+      </c>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>905</v>
+      </c>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="O13" s="117" t="s">
+        <v>906</v>
+      </c>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="S13" s="117" t="s">
+        <v>887</v>
+      </c>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="118"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>907</v>
+      </c>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="K14" s="119" t="s">
+        <v>908</v>
+      </c>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="O14" s="119" t="s">
+        <v>909</v>
+      </c>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="S14" s="119" t="s">
+        <v>910</v>
+      </c>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="W14" s="119" t="s">
+        <v>887</v>
+      </c>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="121"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="95" t="s">
+        <v>911</v>
+      </c>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="104" t="s">
+        <v>912</v>
+      </c>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105" t="s">
+        <v>913</v>
+      </c>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="106"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="110"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="113"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="113"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="113"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="115"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="116"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
+        <v>915</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="80"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="83"/>
+    </row>
+    <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="86"/>
+    </row>
+    <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59" t="s">
+        <v>878</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="90" t="s">
+        <v>916</v>
+      </c>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92" t="s">
+        <v>917</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="91"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="43"/>
+    </row>
+    <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="63"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="44">
+        <v>2</v>
+      </c>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="44">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="65" t="s">
+        <v>920</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="65" t="s">
+        <v>921</v>
+      </c>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65" t="s">
+        <v>922</v>
+      </c>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="43"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="45">
+        <v>5</v>
+      </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="67" t="s">
+        <v>923</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68" t="s">
+        <v>924</v>
+      </c>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="68"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
+    </row>
+    <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>925</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="52" t="s">
+        <v>916</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="52" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="54"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="43"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="45">
+        <v>8</v>
+      </c>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="45">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="57">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="58"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>926</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="47" t="s">
+        <v>927</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="49" t="str">
+        <f>[1]首頁!N22</f>
+        <v>v.23.4.21.1</v>
+      </c>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="L16:AJ16" name="範圍4"/>
+    <protectedRange sqref="AB2 AE2 AH2 X2:X3 AC3 AG3 F3 Q6:Q8 AC6 J10 Q10 X10 AC10 Z11 U11:U12 P11:P12 K11:K12 N13:N14 R13:R14 V14 F17 F21 J13:J15 X15 F6:F14" name="權限審查"/>
+    <protectedRange sqref="T8 N9:S9 AA11 AD11 S13:AJ13 W14:AJ14" name="範圍3"/>
+    <protectedRange sqref="F4:F5 N4:N5 R4:R5 J4:K5 P4:P5 U4:U5 Z4:Z5 AE4:AE5" name="權限審查_1_1"/>
+  </protectedRanges>
+  <mergeCells count="88">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A6:E9"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="X6:AB9"/>
+    <mergeCell ref="AC6:AI9"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AJ12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AJ13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AJ14"/>
+    <mergeCell ref="A15:E20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:AJ16"/>
+    <mergeCell ref="F17:AJ20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="F21:AJ23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="N25:W26"/>
+    <mergeCell ref="Y25:AI26"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="C28:L29"/>
+    <mergeCell ref="N28:W29"/>
+    <mergeCell ref="Y28:AI29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:AJ30"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="N32:W33"/>
+    <mergeCell ref="Y32:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4237,6 +4237,366 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4246,374 +4606,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4643,19 +4643,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>377997</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="4" name="圖片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4669,7 +4669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4645197" cy="10058400"/>
+          <a:ext cx="4526280" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4681,25 +4681,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>212897</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="5" name="圖片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4712,52 +4712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4711700" y="0"/>
-          <a:ext cx="4645197" cy="10058400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>543097</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9309100" y="0"/>
-          <a:ext cx="4645197" cy="10058400"/>
+          <a:off x="4292600" y="0"/>
+          <a:ext cx="4526280" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13329,7 +13285,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13434,44 +13390,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="49" t="s">
         <v>865</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -13496,107 +13452,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="172" t="s">
+      <c r="T2" s="50" t="s">
         <v>866</v>
       </c>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
       <c r="X2" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="Y2" s="173" t="s">
+      <c r="Y2" s="51" t="s">
         <v>868</v>
       </c>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
       <c r="AB2" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="AC2" s="174" t="s">
+      <c r="AC2" s="52" t="s">
         <v>870</v>
       </c>
-      <c r="AD2" s="174"/>
+      <c r="AD2" s="52"/>
       <c r="AE2" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="51" t="s">
         <v>871</v>
       </c>
-      <c r="AG2" s="173"/>
+      <c r="AG2" s="51"/>
       <c r="AH2" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="AI2" s="174" t="s">
+      <c r="AI2" s="52" t="s">
         <v>872</v>
       </c>
-      <c r="AJ2" s="174"/>
+      <c r="AJ2" s="52"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="79" t="s">
         <v>873</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="165" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83" t="s">
         <v>874</v>
       </c>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="167">
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="85">
         <f ca="1">YEAR(NOW())</f>
         <v>2024</v>
       </c>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="145" t="s">
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="53" t="s">
         <v>875</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="169">
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="87">
         <f ca="1">MONTH(NOW())</f>
         <v>3</v>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="53" t="s">
         <v>876</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147">
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="55">
         <f ca="1">DAY(NOW())</f>
-        <v>5</v>
-      </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="53" t="s">
         <v>877</v>
       </c>
-      <c r="AJ3" s="148"/>
+      <c r="AJ3" s="56"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="57" t="s">
         <v>878</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="17" t="s">
         <v>879</v>
       </c>
@@ -13660,11 +13616,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="21" t="s">
         <v>879</v>
       </c>
@@ -13723,28 +13679,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="57" t="s">
         <v>880</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="69" t="s">
         <v>881</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
       <c r="Q6" s="18" t="s">
         <v>879</v>
       </c>
@@ -13756,43 +13712,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="153" t="s">
+      <c r="X6" s="70" t="s">
         <v>883</v>
       </c>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="155"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="156"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="78" t="s">
         <v>884</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
       <c r="Q7" s="23" t="s">
         <v>879</v>
       </c>
@@ -13804,72 +13760,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="157"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="78" t="s">
         <v>886</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
       <c r="Q8" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="R8" s="136" t="s">
+      <c r="R8" s="78" t="s">
         <v>887</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="32" t="s">
         <v>879</v>
       </c>
@@ -13882,70 +13838,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="94" t="s">
         <v>889</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="K10" s="128" t="s">
+      <c r="K10" s="97" t="s">
         <v>891</v>
       </c>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="R10" s="128" t="s">
+      <c r="R10" s="97" t="s">
         <v>892</v>
       </c>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
       <c r="X10" s="35" t="s">
         <v>869</v>
       </c>
@@ -13958,1021 +13914,1021 @@
       <c r="AC10" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="AD10" s="128" t="s">
+      <c r="AD10" s="97" t="s">
         <v>894</v>
       </c>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="129"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="98"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="37" t="s">
         <v>869</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="99" t="s">
         <v>895</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="38" t="s">
         <v>869</v>
       </c>
-      <c r="L11" s="130" t="s">
+      <c r="L11" s="99" t="s">
         <v>896</v>
       </c>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
       <c r="P11" s="38" t="s">
         <v>869</v>
       </c>
-      <c r="Q11" s="130" t="s">
+      <c r="Q11" s="99" t="s">
         <v>897</v>
       </c>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
       <c r="U11" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="V11" s="130" t="s">
+      <c r="V11" s="99" t="s">
         <v>898</v>
       </c>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="131" t="s">
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="100" t="s">
         <v>879</v>
       </c>
-      <c r="AA11" s="132" t="s">
+      <c r="AA11" s="102" t="s">
         <v>887</v>
       </c>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="133"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="103"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="39" t="s">
         <v>869</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="106" t="s">
         <v>899</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="106" t="s">
         <v>900</v>
       </c>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
       <c r="P12" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="Q12" s="119" t="s">
+      <c r="Q12" s="106" t="s">
         <v>901</v>
       </c>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
       <c r="U12" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="V12" s="119" t="s">
+      <c r="V12" s="106" t="s">
         <v>902</v>
       </c>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="135"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="105"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="107" t="s">
         <v>903</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="41" t="s">
         <v>869</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="113" t="s">
         <v>904</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="42" t="s">
         <v>869</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="113" t="s">
         <v>905</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="42" t="s">
         <v>869</v>
       </c>
-      <c r="O13" s="117" t="s">
+      <c r="O13" s="113" t="s">
         <v>906</v>
       </c>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="42" t="s">
         <v>869</v>
       </c>
-      <c r="S13" s="117" t="s">
+      <c r="S13" s="113" t="s">
         <v>887</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="118"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="114"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="106" t="s">
         <v>907</v>
       </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="K14" s="119" t="s">
+      <c r="K14" s="106" t="s">
         <v>908</v>
       </c>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
       <c r="N14" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="O14" s="119" t="s">
+      <c r="O14" s="106" t="s">
         <v>909</v>
       </c>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
       <c r="R14" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="S14" s="119" t="s">
+      <c r="S14" s="106" t="s">
         <v>910</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
       <c r="V14" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="W14" s="119" t="s">
+      <c r="W14" s="106" t="s">
         <v>887</v>
       </c>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="121"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="116"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="57" t="s">
         <v>911</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="104" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="117" t="s">
         <v>912</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105" t="s">
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118" t="s">
         <v>913</v>
       </c>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="106"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="119"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="107" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="120" t="s">
         <v>914</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="110"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="123"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="112"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
-      <c r="AJ17" s="113"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="126"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="113"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="125"/>
+      <c r="AJ18" s="126"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="112"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
-      <c r="AJ19" s="113"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="125"/>
+      <c r="AJ19" s="126"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="115"/>
-      <c r="AD20" s="115"/>
-      <c r="AE20" s="115"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="116"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="101"/>
+      <c r="AJ20" s="128"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="129" t="s">
         <v>915</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="80"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="140"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="83"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="142"/>
+      <c r="T22" s="142"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="142"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="142"/>
+      <c r="Z22" s="142"/>
+      <c r="AA22" s="142"/>
+      <c r="AB22" s="142"/>
+      <c r="AC22" s="142"/>
+      <c r="AD22" s="142"/>
+      <c r="AE22" s="142"/>
+      <c r="AF22" s="142"/>
+      <c r="AG22" s="142"/>
+      <c r="AH22" s="142"/>
+      <c r="AI22" s="142"/>
+      <c r="AJ22" s="143"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="86"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="146"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="147" t="s">
         <v>878</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="90" t="s">
+      <c r="B24" s="148"/>
+      <c r="C24" s="153" t="s">
         <v>916</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="92" t="s">
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="155" t="s">
         <v>917</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="92" t="s">
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="155" t="s">
         <v>918</v>
       </c>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="91"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="153"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="153"/>
+      <c r="AD24" s="153"/>
+      <c r="AE24" s="153"/>
+      <c r="AF24" s="153"/>
+      <c r="AG24" s="153"/>
+      <c r="AH24" s="153"/>
+      <c r="AI24" s="153"/>
+      <c r="AJ24" s="154"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="157"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="157"/>
+      <c r="AA25" s="157"/>
+      <c r="AB25" s="157"/>
+      <c r="AC25" s="157"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="157"/>
+      <c r="AH25" s="157"/>
+      <c r="AI25" s="157"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="94"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="159"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="159"/>
+      <c r="AD26" s="159"/>
+      <c r="AE26" s="159"/>
+      <c r="AF26" s="159"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="159"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="147" t="s">
         <v>919</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="163" t="s">
         <v>920</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="65" t="s">
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="163" t="s">
         <v>921</v>
       </c>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65" t="s">
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="163"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163" t="s">
         <v>922</v>
       </c>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="163"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="163"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="163"/>
+      <c r="AG27" s="163"/>
+      <c r="AH27" s="163"/>
+      <c r="AI27" s="163"/>
+      <c r="AJ27" s="163"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="157"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="157"/>
+      <c r="AB28" s="157"/>
+      <c r="AC28" s="157"/>
+      <c r="AD28" s="157"/>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="157"/>
+      <c r="AG28" s="157"/>
+      <c r="AH28" s="157"/>
+      <c r="AI28" s="157"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="166"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="166"/>
+      <c r="W29" s="166"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="166"/>
+      <c r="AA29" s="166"/>
+      <c r="AB29" s="166"/>
+      <c r="AC29" s="166"/>
+      <c r="AD29" s="166"/>
+      <c r="AE29" s="166"/>
+      <c r="AF29" s="166"/>
+      <c r="AG29" s="166"/>
+      <c r="AH29" s="166"/>
+      <c r="AI29" s="166"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="67" t="s">
+      <c r="A30" s="151"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="167" t="s">
         <v>923</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68" t="s">
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168" t="s">
         <v>924</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="68"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="168"/>
+      <c r="AF30" s="168"/>
+      <c r="AG30" s="168"/>
+      <c r="AH30" s="168"/>
+      <c r="AI30" s="168"/>
+      <c r="AJ30" s="168"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="170" t="s">
         <v>925</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="52" t="s">
+      <c r="B31" s="170"/>
+      <c r="C31" s="165" t="s">
         <v>916</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="52" t="s">
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="165" t="s">
         <v>917</v>
       </c>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="52" t="s">
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="166"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="166"/>
+      <c r="W31" s="166"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="165" t="s">
         <v>918</v>
       </c>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="54"/>
+      <c r="Z31" s="166"/>
+      <c r="AA31" s="166"/>
+      <c r="AB31" s="166"/>
+      <c r="AC31" s="166"/>
+      <c r="AD31" s="166"/>
+      <c r="AE31" s="166"/>
+      <c r="AF31" s="166"/>
+      <c r="AG31" s="166"/>
+      <c r="AH31" s="166"/>
+      <c r="AI31" s="166"/>
+      <c r="AJ31" s="172"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="166"/>
+      <c r="U33" s="166"/>
+      <c r="V33" s="166"/>
+      <c r="W33" s="166"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="57">
+      <c r="Y33" s="165"/>
+      <c r="Z33" s="166"/>
+      <c r="AA33" s="166"/>
+      <c r="AB33" s="166"/>
+      <c r="AC33" s="166"/>
+      <c r="AD33" s="166"/>
+      <c r="AE33" s="166"/>
+      <c r="AF33" s="166"/>
+      <c r="AG33" s="166"/>
+      <c r="AH33" s="166"/>
+      <c r="AI33" s="173">
         <v>10</v>
       </c>
-      <c r="AJ33" s="58"/>
+      <c r="AJ33" s="174"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -15049,13 +15005,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="49" t="str">
+      <c r="AG35" s="169" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
+      <c r="AH35" s="169"/>
+      <c r="AI35" s="169"/>
+      <c r="AJ35" s="169"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -15065,12 +15021,72 @@
     <protectedRange sqref="F4:F5 N4:N5 R4:R5 J4:K5 P4:P5 U4:U5 Z4:Z5 AE4:AE5" name="權限審查_1_1"/>
   </protectedRanges>
   <mergeCells count="88">
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="N32:W33"/>
+    <mergeCell ref="Y32:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="C28:L29"/>
+    <mergeCell ref="N28:W29"/>
+    <mergeCell ref="Y28:AI29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:AJ30"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="F21:AJ23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="N25:W26"/>
+    <mergeCell ref="Y25:AI26"/>
+    <mergeCell ref="A15:E20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:AJ16"/>
+    <mergeCell ref="F17:AJ20"/>
+    <mergeCell ref="V13:AJ13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AJ14"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AJ12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="R10:W10"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
@@ -15087,72 +15103,12 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AJ12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AJ13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AJ14"/>
-    <mergeCell ref="A15:E20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:AJ16"/>
-    <mergeCell ref="F17:AJ20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="F21:AJ23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="N25:W26"/>
-    <mergeCell ref="Y25:AI26"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="C28:L29"/>
-    <mergeCell ref="N28:W29"/>
-    <mergeCell ref="Y28:AI29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:AJ30"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="C32:L33"/>
-    <mergeCell ref="N32:W33"/>
-    <mergeCell ref="Y32:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1061">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2603,13 +2603,6 @@
   </si>
   <si>
     <t>B175073800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icp10655210</t>
-  </si>
-  <si>
-    <t>B120291438</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3612,6 +3605,387 @@
   </si>
   <si>
     <t>註冊OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外國人  舊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA10598984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B120291438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655311</t>
+  </si>
+  <si>
+    <t>B187864240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測黑名單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655312</t>
+  </si>
+  <si>
+    <t>D126297347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B181482100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試補傳身分證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655316</t>
+  </si>
+  <si>
+    <t>B170365910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655317</t>
+  </si>
+  <si>
+    <t>D117037404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試補傳身分證P55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11 or P33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655318</t>
+  </si>
+  <si>
+    <t>E120718615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655319</t>
+  </si>
+  <si>
+    <t>J116226402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655320</t>
+  </si>
+  <si>
+    <t>L197162395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655321</t>
+  </si>
+  <si>
+    <t>L137221631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L190277222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655322</t>
+  </si>
+  <si>
+    <t>L116551170</t>
+  </si>
+  <si>
+    <t>icp10655323</t>
+  </si>
+  <si>
+    <t>L198829228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655324</t>
+  </si>
+  <si>
+    <t>icp10655325</t>
+  </si>
+  <si>
+    <t>B116457240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655326</t>
+  </si>
+  <si>
+    <t>B175578640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655327</t>
+  </si>
+  <si>
+    <t>C193715357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H170916619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655329</t>
+  </si>
+  <si>
+    <t>icp10655328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B175013331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655330</t>
+  </si>
+  <si>
+    <t>B114072570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655331</t>
+  </si>
+  <si>
+    <t>B103465014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655332</t>
+  </si>
+  <si>
+    <t>B102588705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655333</t>
+  </si>
+  <si>
+    <t>C101747783</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655334</t>
+  </si>
+  <si>
+    <t>B146434415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655335</t>
+  </si>
+  <si>
+    <t>B169853490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655336</t>
+  </si>
+  <si>
+    <t>D156660278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655337</t>
+  </si>
+  <si>
+    <t>E195698262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655338</t>
+  </si>
+  <si>
+    <t>F148996501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B125135284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外國人P33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655341</t>
+  </si>
+  <si>
+    <t>GA27500317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655342</t>
+  </si>
+  <si>
+    <t>icp10655343</t>
+  </si>
+  <si>
+    <t>icp10655344</t>
+  </si>
+  <si>
+    <t>舊版APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B146836839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655345</t>
+  </si>
+  <si>
+    <t>B180270179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655346</t>
+  </si>
+  <si>
+    <t>B106802251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655347</t>
+  </si>
+  <si>
+    <t>DA83586923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655348</t>
+  </si>
+  <si>
+    <t>DA71832956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試P55補傳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655349</t>
+  </si>
+  <si>
+    <t>D163988067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655350</t>
+  </si>
+  <si>
+    <t>K162028522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655351</t>
+  </si>
+  <si>
+    <t>E170933411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655352</t>
+  </si>
+  <si>
+    <t>L111445908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655353</t>
+  </si>
+  <si>
+    <t>D133627515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655354</t>
+  </si>
+  <si>
+    <t>BA85768314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655355</t>
+  </si>
+  <si>
+    <t>C125464763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655356</t>
+  </si>
+  <si>
+    <t>N162845365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655357</t>
+  </si>
+  <si>
+    <t>D133396239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655358</t>
+  </si>
+  <si>
+    <t>icp10655359</t>
+  </si>
+  <si>
+    <t>ICP APP註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655360</t>
+  </si>
+  <si>
+    <t>G137327760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655361</t>
+  </si>
+  <si>
+    <t>icp10655362</t>
+  </si>
+  <si>
+    <t>E191065874</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4237,6 +4611,372 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4248,372 +4988,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4636,20 +5010,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4668,8 +5042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4526280" cy="10058400"/>
+          <a:off x="4521200" y="0"/>
+          <a:ext cx="13093700" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4680,20 +5054,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4712,7 +5086,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4292600" y="0"/>
+          <a:off x="0" y="12700"/>
           <a:ext cx="4526280" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5100,10 +5474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L384"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H383" sqref="H383"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F437" sqref="F437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6102,7 +6476,7 @@
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E64">
         <v>246790</v>
@@ -6279,7 +6653,7 @@
         <v>910000072</v>
       </c>
       <c r="C73" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E73">
         <v>246790</v>
@@ -11458,16 +11832,19 @@
         <v>910000308</v>
       </c>
       <c r="B305" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C305" t="s">
-        <v>708</v>
+        <v>957</v>
+      </c>
+      <c r="D305" t="s">
+        <v>961</v>
       </c>
       <c r="E305">
         <v>246790</v>
       </c>
       <c r="F305" t="s">
-        <v>709</v>
+        <v>958</v>
       </c>
       <c r="H305" t="s">
         <v>55</v>
@@ -11484,13 +11861,13 @@
         <v>910000309</v>
       </c>
       <c r="C306" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E306">
         <v>246790</v>
       </c>
       <c r="F306" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H306" t="s">
         <v>55</v>
@@ -11507,16 +11884,16 @@
         <v>910000310</v>
       </c>
       <c r="C307" t="s">
+        <v>711</v>
+      </c>
+      <c r="E307">
+        <v>246790</v>
+      </c>
+      <c r="F307" t="s">
         <v>713</v>
       </c>
-      <c r="E307">
-        <v>246790</v>
-      </c>
-      <c r="F307" t="s">
-        <v>715</v>
-      </c>
       <c r="G307" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H307" t="s">
         <v>55</v>
@@ -11533,13 +11910,13 @@
         <v>910000311</v>
       </c>
       <c r="C308" t="s">
+        <v>717</v>
+      </c>
+      <c r="E308">
+        <v>246790</v>
+      </c>
+      <c r="F308" t="s">
         <v>719</v>
-      </c>
-      <c r="E308">
-        <v>246790</v>
-      </c>
-      <c r="F308" t="s">
-        <v>721</v>
       </c>
       <c r="H308" t="s">
         <v>55</v>
@@ -11548,7 +11925,7 @@
         <v>276</v>
       </c>
       <c r="J308" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -11556,13 +11933,13 @@
         <v>910000312</v>
       </c>
       <c r="C309" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E309">
         <v>246790</v>
       </c>
       <c r="F309" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H309" t="s">
         <v>55</v>
@@ -11571,7 +11948,7 @@
         <v>276</v>
       </c>
       <c r="J309" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -11579,13 +11956,13 @@
         <v>910000313</v>
       </c>
       <c r="C310" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E310">
         <v>246790</v>
       </c>
       <c r="F310" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H310" t="s">
         <v>55</v>
@@ -11594,7 +11971,7 @@
         <v>427</v>
       </c>
       <c r="J310" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -11602,13 +11979,13 @@
         <v>910000314</v>
       </c>
       <c r="C311" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E311">
         <v>246790</v>
       </c>
       <c r="F311" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G311" t="s">
         <v>431</v>
@@ -11620,7 +11997,7 @@
         <v>427</v>
       </c>
       <c r="J311" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -11628,13 +12005,13 @@
         <v>910000315</v>
       </c>
       <c r="C312" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E312">
         <v>246790</v>
       </c>
       <c r="F312" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H312" t="s">
         <v>55</v>
@@ -11643,7 +12020,7 @@
         <v>276</v>
       </c>
       <c r="J312" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -11651,13 +12028,13 @@
         <v>910000316</v>
       </c>
       <c r="C313" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E313">
         <v>246790</v>
       </c>
       <c r="F313" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H313" t="s">
         <v>55</v>
@@ -11666,7 +12043,7 @@
         <v>276</v>
       </c>
       <c r="J313" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -11674,13 +12051,13 @@
         <v>910000317</v>
       </c>
       <c r="C314" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E314">
         <v>246790</v>
       </c>
       <c r="F314" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H314" t="s">
         <v>55</v>
@@ -11689,7 +12066,7 @@
         <v>276</v>
       </c>
       <c r="J314" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -11697,16 +12074,16 @@
         <v>910000318</v>
       </c>
       <c r="B315" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C315" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E315">
         <v>246790</v>
       </c>
       <c r="F315" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H315" t="s">
         <v>55</v>
@@ -11715,7 +12092,7 @@
         <v>276</v>
       </c>
       <c r="J315" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -11723,13 +12100,13 @@
         <v>910000319</v>
       </c>
       <c r="C316" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E316">
         <v>246790</v>
       </c>
       <c r="F316" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H316" t="s">
         <v>55</v>
@@ -11746,13 +12123,13 @@
         <v>910000320</v>
       </c>
       <c r="C317" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E317">
         <v>246790</v>
       </c>
       <c r="F317" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H317" t="s">
         <v>55</v>
@@ -11769,13 +12146,13 @@
         <v>910000321</v>
       </c>
       <c r="C318" t="s">
+        <v>737</v>
+      </c>
+      <c r="E318">
+        <v>246790</v>
+      </c>
+      <c r="F318" t="s">
         <v>739</v>
-      </c>
-      <c r="E318">
-        <v>246790</v>
-      </c>
-      <c r="F318" t="s">
-        <v>741</v>
       </c>
       <c r="H318" t="s">
         <v>55</v>
@@ -11784,7 +12161,7 @@
         <v>276</v>
       </c>
       <c r="J318" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -11792,13 +12169,13 @@
         <v>910000322</v>
       </c>
       <c r="C319" t="s">
+        <v>738</v>
+      </c>
+      <c r="E319">
+        <v>246790</v>
+      </c>
+      <c r="F319" t="s">
         <v>740</v>
-      </c>
-      <c r="E319">
-        <v>246790</v>
-      </c>
-      <c r="F319" t="s">
-        <v>742</v>
       </c>
       <c r="H319" t="s">
         <v>55</v>
@@ -11807,7 +12184,7 @@
         <v>276</v>
       </c>
       <c r="J319" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -11815,13 +12192,13 @@
         <v>910000323</v>
       </c>
       <c r="C320" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E320">
         <v>246790</v>
       </c>
       <c r="F320" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G320" t="s">
         <v>202</v>
@@ -11838,7 +12215,7 @@
         <v>910000324</v>
       </c>
       <c r="C321" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E321">
         <v>246790</v>
@@ -11858,13 +12235,13 @@
         <v>910000325</v>
       </c>
       <c r="C322" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E322">
         <v>246790</v>
       </c>
       <c r="F322" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H322" t="s">
         <v>55</v>
@@ -11873,7 +12250,7 @@
         <v>276</v>
       </c>
       <c r="J322" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -11881,13 +12258,13 @@
         <v>910000326</v>
       </c>
       <c r="C323" t="s">
+        <v>746</v>
+      </c>
+      <c r="E323">
+        <v>246790</v>
+      </c>
+      <c r="F323" t="s">
         <v>748</v>
-      </c>
-      <c r="E323">
-        <v>246790</v>
-      </c>
-      <c r="F323" t="s">
-        <v>750</v>
       </c>
       <c r="G323" t="s">
         <v>429</v>
@@ -11896,7 +12273,7 @@
         <v>427</v>
       </c>
       <c r="J323" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -11904,13 +12281,13 @@
         <v>910000327</v>
       </c>
       <c r="C324" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E324">
         <v>246790</v>
       </c>
       <c r="F324" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H324" t="s">
         <v>55</v>
@@ -11919,7 +12296,7 @@
         <v>276</v>
       </c>
       <c r="J324" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -11927,13 +12304,13 @@
         <v>910000328</v>
       </c>
       <c r="C325" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E325">
         <v>246790</v>
       </c>
       <c r="F325" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H325" t="s">
         <v>55</v>
@@ -11942,7 +12319,7 @@
         <v>427</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -11950,22 +12327,22 @@
         <v>910000329</v>
       </c>
       <c r="C326" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E326">
         <v>246790</v>
       </c>
       <c r="F326" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H326" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I326" t="s">
         <v>427</v>
       </c>
       <c r="J326" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -11973,16 +12350,16 @@
         <v>910000330</v>
       </c>
       <c r="C327" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E327">
         <v>246790</v>
       </c>
       <c r="F327" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H327" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -11990,16 +12367,16 @@
         <v>910000331</v>
       </c>
       <c r="C328" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E328">
         <v>246790</v>
       </c>
       <c r="F328" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H328" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -12007,16 +12384,16 @@
         <v>910000332</v>
       </c>
       <c r="C329" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E329">
         <v>246790</v>
       </c>
       <c r="F329" t="s">
+        <v>759</v>
+      </c>
+      <c r="H329" t="s">
         <v>761</v>
-      </c>
-      <c r="H329" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -12024,16 +12401,16 @@
         <v>910000333</v>
       </c>
       <c r="C330" t="s">
+        <v>762</v>
+      </c>
+      <c r="E330">
+        <v>246790</v>
+      </c>
+      <c r="F330" t="s">
+        <v>765</v>
+      </c>
+      <c r="H330" t="s">
         <v>764</v>
-      </c>
-      <c r="E330">
-        <v>246790</v>
-      </c>
-      <c r="F330" t="s">
-        <v>767</v>
-      </c>
-      <c r="H330" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -12041,16 +12418,16 @@
         <v>910000334</v>
       </c>
       <c r="C331" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E331">
         <v>246790</v>
       </c>
       <c r="F331" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H331" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -12058,13 +12435,13 @@
         <v>910000335</v>
       </c>
       <c r="C332" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E332">
         <v>246790</v>
       </c>
       <c r="F332" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G332" t="s">
         <v>202</v>
@@ -12073,7 +12450,7 @@
         <v>55</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -12081,13 +12458,13 @@
         <v>910000336</v>
       </c>
       <c r="C333" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E333">
         <v>246790</v>
       </c>
       <c r="F333" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H333" t="s">
         <v>55</v>
@@ -12096,7 +12473,7 @@
         <v>276</v>
       </c>
       <c r="J333" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -12104,13 +12481,13 @@
         <v>910000337</v>
       </c>
       <c r="C334" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E334">
         <v>246790</v>
       </c>
       <c r="F334" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G334" t="s">
         <v>202</v>
@@ -12119,7 +12496,7 @@
         <v>55</v>
       </c>
       <c r="J334" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -12127,13 +12504,13 @@
         <v>910000338</v>
       </c>
       <c r="C335" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E335">
         <v>246790</v>
       </c>
       <c r="F335" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G335" t="s">
         <v>55</v>
@@ -12142,7 +12519,7 @@
         <v>276</v>
       </c>
       <c r="J335" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -12150,7 +12527,7 @@
         <v>910000339</v>
       </c>
       <c r="C336" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E336">
         <v>246790</v>
@@ -12162,7 +12539,7 @@
         <v>427</v>
       </c>
       <c r="J336" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -12170,13 +12547,13 @@
         <v>910000340</v>
       </c>
       <c r="C337" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E337">
         <v>246790</v>
       </c>
       <c r="F337" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G337" t="s">
         <v>55</v>
@@ -12185,7 +12562,7 @@
         <v>276</v>
       </c>
       <c r="J337" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -12193,16 +12570,16 @@
         <v>910000341</v>
       </c>
       <c r="C338" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E338">
         <v>246790</v>
       </c>
       <c r="F338" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J338" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -12210,19 +12587,19 @@
         <v>910000342</v>
       </c>
       <c r="C339" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E339">
         <v>246790</v>
       </c>
       <c r="F339" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G339" t="s">
         <v>202</v>
       </c>
       <c r="J339" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -12230,19 +12607,19 @@
         <v>910000343</v>
       </c>
       <c r="C340" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E340">
         <v>246790</v>
       </c>
       <c r="F340" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G340" t="s">
         <v>202</v>
       </c>
       <c r="J340" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -12250,13 +12627,13 @@
         <v>910000344</v>
       </c>
       <c r="C341" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E341">
         <v>246790</v>
       </c>
       <c r="F341" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G341" t="s">
         <v>429</v>
@@ -12265,7 +12642,7 @@
         <v>427</v>
       </c>
       <c r="J341" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -12273,19 +12650,19 @@
         <v>910000345</v>
       </c>
       <c r="C342" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E342">
         <v>246790</v>
       </c>
       <c r="F342" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I342" t="s">
         <v>427</v>
       </c>
       <c r="J342" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -12293,19 +12670,19 @@
         <v>910000346</v>
       </c>
       <c r="C343" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E343">
         <v>246790</v>
       </c>
       <c r="F343" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I343" t="s">
         <v>427</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -12313,13 +12690,13 @@
         <v>910000347</v>
       </c>
       <c r="C344" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E344">
         <v>246790</v>
       </c>
       <c r="F344" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H344" t="s">
         <v>202</v>
@@ -12328,7 +12705,7 @@
         <v>55</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -12336,13 +12713,13 @@
         <v>910000348</v>
       </c>
       <c r="C345" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E345">
         <v>246790</v>
       </c>
       <c r="F345" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G345" t="s">
         <v>55</v>
@@ -12351,7 +12728,7 @@
         <v>276</v>
       </c>
       <c r="J345" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -12359,13 +12736,13 @@
         <v>910000349</v>
       </c>
       <c r="C346" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E346">
         <v>246790</v>
       </c>
       <c r="F346" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G346" t="s">
         <v>55</v>
@@ -12374,7 +12751,7 @@
         <v>276</v>
       </c>
       <c r="J346" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -12382,13 +12759,13 @@
         <v>910000350</v>
       </c>
       <c r="C347" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E347">
         <v>246790</v>
       </c>
       <c r="F347" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G347" t="s">
         <v>55</v>
@@ -12397,7 +12774,7 @@
         <v>276</v>
       </c>
       <c r="J347" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -12405,13 +12782,13 @@
         <v>910000351</v>
       </c>
       <c r="C348" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E348">
         <v>246790</v>
       </c>
       <c r="F348" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G348" t="s">
         <v>55</v>
@@ -12420,7 +12797,7 @@
         <v>276</v>
       </c>
       <c r="J348" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -12428,13 +12805,13 @@
         <v>910000352</v>
       </c>
       <c r="C349" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E349">
         <v>246790</v>
       </c>
       <c r="F349" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G349" t="s">
         <v>55</v>
@@ -12443,7 +12820,7 @@
         <v>276</v>
       </c>
       <c r="J349" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -12451,13 +12828,13 @@
         <v>910000353</v>
       </c>
       <c r="C350" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E350">
         <v>246790</v>
       </c>
       <c r="F350" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G350" t="s">
         <v>119</v>
@@ -12466,7 +12843,7 @@
         <v>276</v>
       </c>
       <c r="J350" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -12474,13 +12851,13 @@
         <v>910000354</v>
       </c>
       <c r="C351" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E351">
         <v>246790</v>
       </c>
       <c r="F351" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G351" t="s">
         <v>119</v>
@@ -12489,7 +12866,7 @@
         <v>276</v>
       </c>
       <c r="J351" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -12497,13 +12874,13 @@
         <v>910000355</v>
       </c>
       <c r="C352" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E352">
         <v>246790</v>
       </c>
       <c r="F352" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G352" t="s">
         <v>119</v>
@@ -12512,7 +12889,7 @@
         <v>276</v>
       </c>
       <c r="J352" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -12520,13 +12897,13 @@
         <v>910000356</v>
       </c>
       <c r="C353" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E353">
         <v>246790</v>
       </c>
       <c r="F353" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G353" t="s">
         <v>119</v>
@@ -12535,7 +12912,7 @@
         <v>276</v>
       </c>
       <c r="J353" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -12543,13 +12920,13 @@
         <v>910000357</v>
       </c>
       <c r="C354" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E354">
         <v>246790</v>
       </c>
       <c r="F354" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G354" t="s">
         <v>429</v>
@@ -12558,7 +12935,7 @@
         <v>427</v>
       </c>
       <c r="J354" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -12566,13 +12943,13 @@
         <v>910000358</v>
       </c>
       <c r="C355" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E355">
         <v>246790</v>
       </c>
       <c r="F355" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G355" t="s">
         <v>119</v>
@@ -12581,7 +12958,7 @@
         <v>276</v>
       </c>
       <c r="J355" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -12589,13 +12966,13 @@
         <v>910000359</v>
       </c>
       <c r="C356" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E356">
         <v>246790</v>
       </c>
       <c r="F356" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G356" t="s">
         <v>119</v>
@@ -12604,7 +12981,7 @@
         <v>276</v>
       </c>
       <c r="J356" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -12612,13 +12989,13 @@
         <v>910000360</v>
       </c>
       <c r="C357" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E357">
         <v>246790</v>
       </c>
       <c r="F357" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G357" t="s">
         <v>119</v>
@@ -12627,7 +13004,7 @@
         <v>276</v>
       </c>
       <c r="J357" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -12635,13 +13012,13 @@
         <v>910000361</v>
       </c>
       <c r="C358" t="s">
+        <v>823</v>
+      </c>
+      <c r="E358">
+        <v>246790</v>
+      </c>
+      <c r="F358" t="s">
         <v>825</v>
-      </c>
-      <c r="E358">
-        <v>246790</v>
-      </c>
-      <c r="F358" t="s">
-        <v>827</v>
       </c>
       <c r="G358" t="s">
         <v>119</v>
@@ -12650,10 +13027,10 @@
         <v>276</v>
       </c>
       <c r="I358" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J358" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -12661,13 +13038,13 @@
         <v>910000362</v>
       </c>
       <c r="C359" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E359">
         <v>246790</v>
       </c>
       <c r="F359" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G359" t="s">
         <v>119</v>
@@ -12676,10 +13053,10 @@
         <v>276</v>
       </c>
       <c r="I359" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J359" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -12687,13 +13064,13 @@
         <v>910000363</v>
       </c>
       <c r="C360" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E360">
         <v>246790</v>
       </c>
       <c r="F360" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G360" t="s">
         <v>119</v>
@@ -12702,10 +13079,10 @@
         <v>276</v>
       </c>
       <c r="I360" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J360" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -12713,13 +13090,13 @@
         <v>910000364</v>
       </c>
       <c r="C361" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E361">
         <v>246790</v>
       </c>
       <c r="F361" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G361" t="s">
         <v>55</v>
@@ -12731,7 +13108,7 @@
         <v>396</v>
       </c>
       <c r="J361" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -12739,13 +13116,13 @@
         <v>910000365</v>
       </c>
       <c r="C362" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E362">
         <v>246790</v>
       </c>
       <c r="F362" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G362" t="s">
         <v>55</v>
@@ -12757,7 +13134,7 @@
         <v>396</v>
       </c>
       <c r="J362" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -12765,13 +13142,13 @@
         <v>910000366</v>
       </c>
       <c r="C363" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E363">
         <v>246790</v>
       </c>
       <c r="F363" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G363" t="s">
         <v>55</v>
@@ -12783,7 +13160,7 @@
         <v>396</v>
       </c>
       <c r="J363" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -12791,13 +13168,13 @@
         <v>910000367</v>
       </c>
       <c r="C364" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E364">
         <v>246790</v>
       </c>
       <c r="F364" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G364" t="s">
         <v>55</v>
@@ -12809,7 +13186,7 @@
         <v>396</v>
       </c>
       <c r="J364" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -12817,7 +13194,7 @@
         <v>910000368</v>
       </c>
       <c r="C365" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E365">
         <v>246790</v>
@@ -12829,7 +13206,7 @@
         <v>276</v>
       </c>
       <c r="J365" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -12837,13 +13214,13 @@
         <v>910000369</v>
       </c>
       <c r="C366" t="s">
+        <v>841</v>
+      </c>
+      <c r="E366">
+        <v>246790</v>
+      </c>
+      <c r="F366" t="s">
         <v>843</v>
-      </c>
-      <c r="E366">
-        <v>246790</v>
-      </c>
-      <c r="F366" t="s">
-        <v>845</v>
       </c>
       <c r="G366" t="s">
         <v>55</v>
@@ -12852,7 +13229,7 @@
         <v>276</v>
       </c>
       <c r="J366" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -12860,16 +13237,16 @@
         <v>910000370</v>
       </c>
       <c r="C367" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E367">
         <v>246790</v>
       </c>
       <c r="F367" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I367" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -12877,13 +13254,13 @@
         <v>910000371</v>
       </c>
       <c r="C368" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E368">
         <v>246790</v>
       </c>
       <c r="F368" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G368" t="s">
         <v>55</v>
@@ -12892,7 +13269,7 @@
         <v>276</v>
       </c>
       <c r="J368" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -12900,13 +13277,13 @@
         <v>910000372</v>
       </c>
       <c r="C369" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E369">
         <v>246790</v>
       </c>
       <c r="F369" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G369" t="s">
         <v>55</v>
@@ -12915,7 +13292,7 @@
         <v>276</v>
       </c>
       <c r="J369" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -12923,16 +13300,16 @@
         <v>910000373</v>
       </c>
       <c r="C370" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E370">
         <v>246790</v>
       </c>
       <c r="F370" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I370" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -12940,19 +13317,19 @@
         <v>910000374</v>
       </c>
       <c r="C371" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E371">
         <v>246790</v>
       </c>
       <c r="F371" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I371" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -12960,19 +13337,19 @@
         <v>910000375</v>
       </c>
       <c r="C372" t="s">
+        <v>854</v>
+      </c>
+      <c r="E372">
+        <v>246790</v>
+      </c>
+      <c r="F372" t="s">
+        <v>855</v>
+      </c>
+      <c r="G372" t="s">
         <v>856</v>
       </c>
-      <c r="E372">
-        <v>246790</v>
-      </c>
-      <c r="F372" t="s">
-        <v>857</v>
-      </c>
-      <c r="G372" t="s">
-        <v>858</v>
-      </c>
       <c r="I372" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -12980,19 +13357,19 @@
         <v>910000376</v>
       </c>
       <c r="C373" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D373" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E373">
         <v>246790</v>
       </c>
       <c r="F373" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I373" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -13000,16 +13377,16 @@
         <v>910000377</v>
       </c>
       <c r="C374" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D374" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E374">
         <v>246790</v>
       </c>
       <c r="F374" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G374" t="s">
         <v>55</v>
@@ -13018,7 +13395,7 @@
         <v>276</v>
       </c>
       <c r="J374" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -13026,19 +13403,22 @@
         <v>910000378</v>
       </c>
       <c r="C375" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E375">
         <v>246790</v>
       </c>
       <c r="F375" t="s">
-        <v>864</v>
+        <v>862</v>
+      </c>
+      <c r="G375" s="2">
+        <v>36526</v>
       </c>
       <c r="I375" t="s">
         <v>427</v>
       </c>
       <c r="J375" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -13046,16 +13426,16 @@
         <v>910000379</v>
       </c>
       <c r="C376" t="s">
+        <v>929</v>
+      </c>
+      <c r="D376" t="s">
+        <v>856</v>
+      </c>
+      <c r="E376">
+        <v>246790</v>
+      </c>
+      <c r="F376" t="s">
         <v>931</v>
-      </c>
-      <c r="D376" t="s">
-        <v>858</v>
-      </c>
-      <c r="E376">
-        <v>246790</v>
-      </c>
-      <c r="F376" t="s">
-        <v>933</v>
       </c>
       <c r="G376" t="s">
         <v>55</v>
@@ -13064,7 +13444,7 @@
         <v>276</v>
       </c>
       <c r="J376" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -13072,16 +13452,16 @@
         <v>910000380</v>
       </c>
       <c r="C377" t="s">
+        <v>933</v>
+      </c>
+      <c r="D377" t="s">
         <v>935</v>
       </c>
-      <c r="D377" t="s">
-        <v>937</v>
-      </c>
       <c r="E377">
         <v>246790</v>
       </c>
       <c r="F377" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G377" t="s">
         <v>55</v>
@@ -13090,7 +13470,7 @@
         <v>276</v>
       </c>
       <c r="J377" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -13098,16 +13478,16 @@
         <v>910000381</v>
       </c>
       <c r="C378" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D378" t="s">
+        <v>935</v>
+      </c>
+      <c r="E378">
+        <v>246790</v>
+      </c>
+      <c r="F378" t="s">
         <v>937</v>
-      </c>
-      <c r="E378">
-        <v>246790</v>
-      </c>
-      <c r="F378" t="s">
-        <v>939</v>
       </c>
       <c r="G378" t="s">
         <v>55</v>
@@ -13116,7 +13496,7 @@
         <v>276</v>
       </c>
       <c r="J378" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -13124,13 +13504,13 @@
         <v>910000382</v>
       </c>
       <c r="C379" t="s">
+        <v>938</v>
+      </c>
+      <c r="E379">
+        <v>246790</v>
+      </c>
+      <c r="F379" t="s">
         <v>940</v>
-      </c>
-      <c r="E379">
-        <v>246790</v>
-      </c>
-      <c r="F379" t="s">
-        <v>942</v>
       </c>
       <c r="G379" t="s">
         <v>55</v>
@@ -13139,7 +13519,7 @@
         <v>276</v>
       </c>
       <c r="J379" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -13147,13 +13527,13 @@
         <v>910000383</v>
       </c>
       <c r="C380" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E380">
         <v>246790</v>
       </c>
       <c r="F380" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G380" t="s">
         <v>55</v>
@@ -13167,22 +13547,22 @@
         <v>910000384</v>
       </c>
       <c r="B381" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C381" t="s">
+        <v>944</v>
+      </c>
+      <c r="D381" t="s">
         <v>946</v>
       </c>
-      <c r="D381" t="s">
-        <v>948</v>
-      </c>
       <c r="E381">
         <v>246790</v>
       </c>
       <c r="F381" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I381" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -13190,22 +13570,22 @@
         <v>910000385</v>
       </c>
       <c r="B382" t="s">
+        <v>945</v>
+      </c>
+      <c r="C382" t="s">
         <v>947</v>
       </c>
-      <c r="C382" t="s">
-        <v>949</v>
-      </c>
       <c r="D382" t="s">
+        <v>946</v>
+      </c>
+      <c r="E382">
+        <v>246790</v>
+      </c>
+      <c r="F382" t="s">
         <v>948</v>
       </c>
-      <c r="E382">
-        <v>246790</v>
-      </c>
-      <c r="F382" t="s">
-        <v>950</v>
-      </c>
       <c r="I382" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -13213,19 +13593,19 @@
         <v>910000386</v>
       </c>
       <c r="B383" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C383" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E383">
         <v>246790</v>
       </c>
       <c r="F383" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I383" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -13233,19 +13613,779 @@
         <v>910000387</v>
       </c>
       <c r="B384" t="s">
+        <v>953</v>
+      </c>
+      <c r="C384" t="s">
+        <v>951</v>
+      </c>
+      <c r="E384">
+        <v>135790</v>
+      </c>
+      <c r="F384" t="s">
+        <v>952</v>
+      </c>
+      <c r="I384" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>910000408</v>
+      </c>
+      <c r="B385" t="s">
+        <v>954</v>
+      </c>
+      <c r="C385" t="s">
         <v>955</v>
       </c>
-      <c r="C384" t="s">
+      <c r="E385">
+        <v>246790</v>
+      </c>
+      <c r="F385" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>910000409</v>
+      </c>
+      <c r="C386" t="s">
+        <v>959</v>
+      </c>
+      <c r="F386" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>910000410</v>
+      </c>
+      <c r="B387" t="s">
         <v>953</v>
       </c>
-      <c r="E384">
-        <v>246790</v>
-      </c>
-      <c r="F384" t="s">
-        <v>954</v>
-      </c>
-      <c r="I384" t="s">
-        <v>826</v>
+      <c r="C387" t="s">
+        <v>962</v>
+      </c>
+      <c r="E387">
+        <v>246790</v>
+      </c>
+      <c r="F387" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>910000415</v>
+      </c>
+      <c r="C388" t="s">
+        <v>965</v>
+      </c>
+      <c r="E388">
+        <v>246790</v>
+      </c>
+      <c r="F388" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>910000416</v>
+      </c>
+      <c r="B389" t="s">
+        <v>966</v>
+      </c>
+      <c r="C389" t="s">
+        <v>967</v>
+      </c>
+      <c r="E389">
+        <v>246790</v>
+      </c>
+      <c r="F389" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>910000417</v>
+      </c>
+      <c r="B390" t="s">
+        <v>971</v>
+      </c>
+      <c r="C390" t="s">
+        <v>969</v>
+      </c>
+      <c r="E390">
+        <v>246790</v>
+      </c>
+      <c r="F390" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>910000418</v>
+      </c>
+      <c r="B391" t="s">
+        <v>972</v>
+      </c>
+      <c r="C391" t="s">
+        <v>973</v>
+      </c>
+      <c r="E391">
+        <v>246790</v>
+      </c>
+      <c r="F391" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>910000419</v>
+      </c>
+      <c r="C392" t="s">
+        <v>975</v>
+      </c>
+      <c r="E392">
+        <v>246790</v>
+      </c>
+      <c r="F392" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>910000420</v>
+      </c>
+      <c r="C393" t="s">
+        <v>977</v>
+      </c>
+      <c r="E393">
+        <v>246790</v>
+      </c>
+      <c r="F393" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>910000421</v>
+      </c>
+      <c r="C394" t="s">
+        <v>979</v>
+      </c>
+      <c r="E394">
+        <v>246790</v>
+      </c>
+      <c r="F394" t="s">
+        <v>980</v>
+      </c>
+      <c r="G394" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>910000422</v>
+      </c>
+      <c r="C395" t="s">
+        <v>982</v>
+      </c>
+      <c r="E395">
+        <v>246790</v>
+      </c>
+      <c r="F395" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>910000423</v>
+      </c>
+      <c r="C396" t="s">
+        <v>984</v>
+      </c>
+      <c r="E396">
+        <v>246790</v>
+      </c>
+      <c r="F396" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>910000424</v>
+      </c>
+      <c r="B397" t="s">
+        <v>972</v>
+      </c>
+      <c r="C397" t="s">
+        <v>986</v>
+      </c>
+      <c r="E397">
+        <v>246790</v>
+      </c>
+      <c r="F397" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>910000425</v>
+      </c>
+      <c r="C398" t="s">
+        <v>987</v>
+      </c>
+      <c r="E398">
+        <v>246790</v>
+      </c>
+      <c r="F398" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>910000426</v>
+      </c>
+      <c r="C399" t="s">
+        <v>989</v>
+      </c>
+      <c r="E399">
+        <v>246790</v>
+      </c>
+      <c r="F399" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>910000427</v>
+      </c>
+      <c r="C400" t="s">
+        <v>991</v>
+      </c>
+      <c r="E400">
+        <v>246790</v>
+      </c>
+      <c r="F400" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>910000428</v>
+      </c>
+      <c r="C401" t="s">
+        <v>995</v>
+      </c>
+      <c r="E401">
+        <v>246790</v>
+      </c>
+      <c r="F401" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>910000429</v>
+      </c>
+      <c r="C402" t="s">
+        <v>994</v>
+      </c>
+      <c r="E402">
+        <v>246790</v>
+      </c>
+      <c r="F402" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>910000430</v>
+      </c>
+      <c r="C403" t="s">
+        <v>997</v>
+      </c>
+      <c r="E403">
+        <v>246790</v>
+      </c>
+      <c r="F403" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>910000431</v>
+      </c>
+      <c r="C404" t="s">
+        <v>999</v>
+      </c>
+      <c r="E404">
+        <v>246790</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>910000432</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E405">
+        <v>246790</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>910000433</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E406">
+        <v>246790</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>910000434</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E407">
+        <v>246790</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>910000435</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E408">
+        <v>246790</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>910000436</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E409">
+        <v>246790</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>910000437</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E410">
+        <v>246790</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>910000439</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E411">
+        <v>246790</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>910000440</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E412">
+        <v>246790</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>910000441</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E413">
+        <v>246790</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I413" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>910000442</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E414">
+        <v>246790</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>910000443</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E415">
+        <v>246790</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>910000444</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E416">
+        <v>246790</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>910000445</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E417">
+        <v>246790</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J417" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>910000446</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E418">
+        <v>246790</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>910000447</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E419">
+        <v>246790</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I419" t="s">
+        <v>427</v>
+      </c>
+      <c r="J419" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>910000448</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E420">
+        <v>246790</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I420" t="s">
+        <v>427</v>
+      </c>
+      <c r="J420" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>910000449</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E421">
+        <v>246790</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>910000450</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E422">
+        <v>246790</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>910000451</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E423">
+        <v>246790</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>910000452</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E424">
+        <v>246790</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>910000453</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E425">
+        <v>246790</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>910000454</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E426">
+        <v>246790</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I426" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>910000455</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E427">
+        <v>246790</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>910000456</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E428">
+        <v>246790</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G428" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>910000457</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E429">
+        <v>246790</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>910000458</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E430">
+        <v>246790</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>910000459</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E431">
+        <v>246790</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>910000460</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E432">
+        <v>246790</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>910000461</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E433">
+        <v>246790</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>910000462</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E434">
+        <v>246790</v>
+      </c>
+      <c r="F434" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -13284,8 +14424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13330,7 +14470,7 @@
         <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -13350,7 +14490,7 @@
         <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -13370,7 +14510,7 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -13390,44 +14530,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>865</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
+      <c r="A1" s="171" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -13452,109 +14592,109 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="172" t="s">
+        <v>864</v>
+      </c>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y2" s="173" t="s">
         <v>866</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="16" t="s">
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="AC2" s="174" t="s">
         <v>868</v>
       </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="16" t="s">
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="AF2" s="173" t="s">
         <v>869</v>
       </c>
-      <c r="AC2" s="52" t="s">
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="AI2" s="174" t="s">
         <v>870</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="16" t="s">
-        <v>869</v>
-      </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AJ2" s="174"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="161" t="s">
         <v>871</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="16" t="s">
-        <v>869</v>
-      </c>
-      <c r="AI2" s="52" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="165" t="s">
         <v>872</v>
       </c>
-      <c r="AJ2" s="52"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
-        <v>873</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83" t="s">
-        <v>874</v>
-      </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85">
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="167">
         <f ca="1">YEAR(NOW())</f>
         <v>2024</v>
       </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="53" t="s">
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="145" t="s">
+        <v>873</v>
+      </c>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="169">
+        <f ca="1">MONTH(NOW())</f>
+        <v>4</v>
+      </c>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="145" t="s">
+        <v>874</v>
+      </c>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147">
+        <f ca="1">DAY(NOW())</f>
+        <v>30</v>
+      </c>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="145" t="s">
         <v>875</v>
       </c>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="87">
-        <f ca="1">MONTH(NOW())</f>
-        <v>3</v>
-      </c>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AJ3" s="148"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
         <v>876</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="55">
-        <f ca="1">DAY(NOW())</f>
-        <v>8</v>
-      </c>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="53" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="17" t="s">
         <v>877</v>
-      </c>
-      <c r="AJ3" s="56"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>878</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="17" t="s">
-        <v>879</v>
       </c>
       <c r="G4" s="18" t="str">
         <f>[1]工作表1!O1</f>
@@ -13564,7 +14704,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L4" s="18" t="str">
         <f>[1]工作表1!Q1</f>
@@ -13574,7 +14714,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="Q4" s="18" t="str">
         <f>[1]工作表1!S1</f>
@@ -13584,7 +14724,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="V4" s="18" t="str">
         <f>[1]工作表1!U1</f>
@@ -13594,7 +14734,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AA4" s="18" t="str">
         <f>[1]工作表1!W1</f>
@@ -13604,7 +14744,7 @@
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AF4" s="18" t="str">
         <f>[1]工作表1!Y1</f>
@@ -13616,13 +14756,13 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="21" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G5" s="22" t="str">
         <f>[1]工作表1!O2</f>
@@ -13632,7 +14772,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L5" s="22" t="str">
         <f>[1]工作表1!Q2</f>
@@ -13642,7 +14782,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q5" s="22" t="str">
         <f>[1]工作表1!S2</f>
@@ -13652,7 +14792,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="V5" s="22" t="str">
         <f>[1]工作表1!U2</f>
@@ -13662,7 +14802,7 @@
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
       <c r="Z5" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AA5" s="22" t="str">
         <f>[1]工作表1!W2</f>
@@ -13679,158 +14819,158 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="95" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="G6" s="152" t="s">
+        <v>879</v>
+      </c>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="R6" s="26" t="s">
         <v>880</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="17" t="s">
-        <v>879</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>881</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>882</v>
       </c>
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="70" t="s">
+      <c r="X6" s="153" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="28"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="G7" s="136" t="s">
+        <v>882</v>
+      </c>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="R7" s="29" t="s">
         <v>883</v>
-      </c>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="28"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>884</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="23" t="s">
-        <v>879</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>885</v>
       </c>
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="G8" s="78" t="s">
+        <v>877</v>
+      </c>
+      <c r="G8" s="136" t="s">
+        <v>884</v>
+      </c>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="R8" s="136" t="s">
+        <v>885</v>
+      </c>
+      <c r="S8" s="136"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="31"/>
+    </row>
+    <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>886</v>
-      </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="23" t="s">
-        <v>879</v>
-      </c>
-      <c r="R8" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="S8" s="78"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="31"/>
-    </row>
-    <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="32" t="s">
-        <v>879</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>888</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -13838,1101 +14978,1101 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="160"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="160"/>
+      <c r="AI9" s="160"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="142" t="s">
+        <v>887</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>888</v>
+      </c>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="K10" s="128" t="s">
         <v>889</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="G10" s="97" t="s">
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="R10" s="128" t="s">
         <v>890</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="K10" s="97" t="s">
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y10" s="36" t="s">
         <v>891</v>
-      </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="R10" s="97" t="s">
-        <v>892</v>
-      </c>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="Y10" s="36" t="s">
-        <v>893</v>
       </c>
       <c r="Z10" s="36"/>
       <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
       <c r="AC10" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="AD10" s="97" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD10" s="128" t="s">
+        <v>892</v>
+      </c>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="129"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>871</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>893</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="L11" s="130" t="s">
         <v>894</v>
       </c>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="98"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>873</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="G11" s="99" t="s">
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q11" s="130" t="s">
         <v>895</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="38" t="s">
-        <v>869</v>
-      </c>
-      <c r="L11" s="99" t="s">
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="V11" s="130" t="s">
         <v>896</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="38" t="s">
-        <v>869</v>
-      </c>
-      <c r="Q11" s="99" t="s">
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="131" t="s">
+        <v>877</v>
+      </c>
+      <c r="AA11" s="132" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="133"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="G12" s="119" t="s">
         <v>897</v>
       </c>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="38" t="s">
-        <v>879</v>
-      </c>
-      <c r="V11" s="99" t="s">
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="L12" s="119" t="s">
         <v>898</v>
       </c>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="100" t="s">
-        <v>879</v>
-      </c>
-      <c r="AA11" s="102" t="s">
-        <v>887</v>
-      </c>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="103"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="39" t="s">
-        <v>869</v>
-      </c>
-      <c r="G12" s="106" t="s">
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q12" s="119" t="s">
         <v>899</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="L12" s="106" t="s">
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="V12" s="119" t="s">
         <v>900</v>
       </c>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="Q12" s="106" t="s">
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="135"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="122" t="s">
         <v>901</v>
       </c>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="V12" s="106" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="41" t="s">
+        <v>867</v>
+      </c>
+      <c r="G13" s="117" t="s">
         <v>902</v>
       </c>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="104"/>
-      <c r="AJ12" s="105"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="107" t="s">
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="K13" s="117" t="s">
         <v>903</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="41" t="s">
-        <v>869</v>
-      </c>
-      <c r="G13" s="113" t="s">
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="O13" s="117" t="s">
         <v>904</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="42" t="s">
-        <v>869</v>
-      </c>
-      <c r="K13" s="113" t="s">
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="S13" s="117" t="s">
+        <v>885</v>
+      </c>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="118"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="G14" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="42" t="s">
-        <v>869</v>
-      </c>
-      <c r="O13" s="113" t="s">
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="K14" s="119" t="s">
         <v>906</v>
       </c>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="42" t="s">
-        <v>869</v>
-      </c>
-      <c r="S13" s="113" t="s">
-        <v>887</v>
-      </c>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="114"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="G14" s="106" t="s">
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="O14" s="119" t="s">
         <v>907</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="K14" s="106" t="s">
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="S14" s="119" t="s">
         <v>908</v>
       </c>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="O14" s="106" t="s">
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="W14" s="119" t="s">
+        <v>885</v>
+      </c>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="121"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="95" t="s">
         <v>909</v>
       </c>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="S14" s="106" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="104" t="s">
         <v>910</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="W14" s="106" t="s">
-        <v>887</v>
-      </c>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="115"/>
-      <c r="AG14" s="115"/>
-      <c r="AH14" s="115"/>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="116"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105" t="s">
         <v>911</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="117" t="s">
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="106"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="107" t="s">
         <v>912</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="110"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="113"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="113"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="113"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="115"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="116"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="119"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="120" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="80"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="83"/>
+    </row>
+    <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="86"/>
+    </row>
+    <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59" t="s">
+        <v>876</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="90" t="s">
         <v>914</v>
       </c>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="122"/>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="122"/>
-      <c r="AI16" s="122"/>
-      <c r="AJ16" s="123"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="126"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="125"/>
-      <c r="AC18" s="125"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="125"/>
-      <c r="AJ18" s="126"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="125"/>
-      <c r="AC19" s="125"/>
-      <c r="AD19" s="125"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="125"/>
-      <c r="AJ19" s="126"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="101"/>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="101"/>
-      <c r="AJ20" s="128"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="129" t="s">
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92" t="s">
         <v>915</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="139"/>
-      <c r="AJ21" s="140"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="132"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="142"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="142"/>
-      <c r="AD22" s="142"/>
-      <c r="AE22" s="142"/>
-      <c r="AF22" s="142"/>
-      <c r="AG22" s="142"/>
-      <c r="AH22" s="142"/>
-      <c r="AI22" s="142"/>
-      <c r="AJ22" s="143"/>
-    </row>
-    <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="135"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="146"/>
-    </row>
-    <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="147" t="s">
-        <v>878</v>
-      </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="153" t="s">
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92" t="s">
         <v>916</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="155" t="s">
-        <v>917</v>
-      </c>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="155" t="s">
-        <v>918</v>
-      </c>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="154"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="91"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="149"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="157"/>
-      <c r="S25" s="157"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="157"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="151"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="158"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="159"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="159"/>
-      <c r="AD26" s="159"/>
-      <c r="AE26" s="159"/>
-      <c r="AF26" s="159"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="159"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="59" t="s">
+        <v>917</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="65" t="s">
+        <v>918</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="65" t="s">
         <v>919</v>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="163" t="s">
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65" t="s">
         <v>920</v>
       </c>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="163" t="s">
-        <v>921</v>
-      </c>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163" t="s">
-        <v>922</v>
-      </c>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="163"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="163"/>
-      <c r="AE27" s="163"/>
-      <c r="AF27" s="163"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="163"/>
-      <c r="AJ27" s="163"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="149"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="157"/>
-      <c r="T28" s="157"/>
-      <c r="U28" s="157"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="157"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="157"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="157"/>
-      <c r="AD28" s="157"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="157"/>
-      <c r="AH28" s="157"/>
-      <c r="AI28" s="157"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="149"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="165"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="165"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="166"/>
-      <c r="AF29" s="166"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="166"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="151"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="167" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="67" t="s">
+        <v>921</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68" t="s">
+        <v>922</v>
+      </c>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="68"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
+    </row>
+    <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
         <v>923</v>
       </c>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168" t="s">
-        <v>924</v>
-      </c>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="168"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="168"/>
-      <c r="AH30" s="168"/>
-      <c r="AI30" s="168"/>
-      <c r="AJ30" s="168"/>
-    </row>
-    <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="170" t="s">
-        <v>925</v>
-      </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="165" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="52" t="s">
+        <v>914</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="52" t="s">
         <v>916</v>
       </c>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="165" t="s">
-        <v>917</v>
-      </c>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="165" t="s">
-        <v>918</v>
-      </c>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="166"/>
-      <c r="AF31" s="166"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="166"/>
-      <c r="AI31" s="166"/>
-      <c r="AJ31" s="172"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="54"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="171"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="157"/>
-      <c r="S32" s="157"/>
-      <c r="T32" s="157"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="171"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="165"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="165"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="166"/>
-      <c r="AF33" s="166"/>
-      <c r="AG33" s="166"/>
-      <c r="AH33" s="166"/>
-      <c r="AI33" s="173">
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="57">
         <v>10</v>
       </c>
-      <c r="AJ33" s="174"/>
+      <c r="AJ33" s="58"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -14972,7 +16112,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -15005,13 +16145,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="169" t="str">
+      <c r="AG35" s="49" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="169"/>
-      <c r="AI35" s="169"/>
-      <c r="AJ35" s="169"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -15021,72 +16161,12 @@
     <protectedRange sqref="F4:F5 N4:N5 R4:R5 J4:K5 P4:P5 U4:U5 Z4:Z5 AE4:AE5" name="權限審查_1_1"/>
   </protectedRanges>
   <mergeCells count="88">
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="C32:L33"/>
-    <mergeCell ref="N32:W33"/>
-    <mergeCell ref="Y32:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="C28:L29"/>
-    <mergeCell ref="N28:W29"/>
-    <mergeCell ref="Y28:AI29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:AJ30"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="F21:AJ23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="N25:W26"/>
-    <mergeCell ref="Y25:AI26"/>
-    <mergeCell ref="A15:E20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:AJ16"/>
-    <mergeCell ref="F17:AJ20"/>
-    <mergeCell ref="V13:AJ13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AJ14"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AJ12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
@@ -15103,12 +16183,72 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AJ12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AJ13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AJ14"/>
+    <mergeCell ref="A15:E20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:AJ16"/>
+    <mergeCell ref="F17:AJ20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="F21:AJ23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="N25:W26"/>
+    <mergeCell ref="Y25:AI26"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="C28:L29"/>
+    <mergeCell ref="N28:W29"/>
+    <mergeCell ref="Y28:AI29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:AJ30"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="N32:W33"/>
+    <mergeCell ref="Y32:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1120">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3986,6 +3986,219 @@
   </si>
   <si>
     <t>E191065874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655363</t>
+  </si>
+  <si>
+    <t>G144701712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655364</t>
+  </si>
+  <si>
+    <t>OP新註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D113951458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655365</t>
+  </si>
+  <si>
+    <t>D194395921</t>
+  </si>
+  <si>
+    <t>H134092485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655366</t>
+  </si>
+  <si>
+    <t>icp10655367</t>
+  </si>
+  <si>
+    <t>D196268221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP新註冊_iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655368</t>
+  </si>
+  <si>
+    <t>G161949387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP新註冊_iOS_身份證黑名單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655369</t>
+  </si>
+  <si>
+    <t>Aa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A105854018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655370</t>
+  </si>
+  <si>
+    <t>D102620282</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655371</t>
+  </si>
+  <si>
+    <t>B115834163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655372</t>
+  </si>
+  <si>
+    <t>OP新註冊_Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655373</t>
+  </si>
+  <si>
+    <t>J187558913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先註冊OP-&gt;再ICP-&gt;OP中的ICP-&gt;舊轉新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655374</t>
+  </si>
+  <si>
+    <t>J122291595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655375</t>
+  </si>
+  <si>
+    <t>D140470866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655376</t>
+  </si>
+  <si>
+    <t>icp10655377</t>
+  </si>
+  <si>
+    <t>B192124799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E158771211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J181095006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655378</t>
+  </si>
+  <si>
+    <t>icp10655379</t>
+  </si>
+  <si>
+    <t>Next 13  P55驗證失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C134606804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok-&gt;測試安全密碼到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok-&gt;一年未交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655380</t>
+  </si>
+  <si>
+    <t>E119483030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年 Next 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655381</t>
+  </si>
+  <si>
+    <t>OP新註冊+ICP新註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L186200526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655382</t>
+  </si>
+  <si>
+    <t>D176976384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先註冊OP-&gt;再ICP-&gt;OP中的ICP-&gt;舊轉新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655383</t>
+  </si>
+  <si>
+    <t>2.0註冊+3.0舊轉新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655384</t>
+  </si>
+  <si>
+    <t>D183475945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0註冊OK-&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4108,7 +4321,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,6 +4337,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4481,7 +4712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4611,6 +4842,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5474,16 +5710,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L434"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F437" sqref="F437"/>
+    <sheetView tabSelected="1" topLeftCell="A438" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G456" sqref="G456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
@@ -14363,7 +14599,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>910000461</v>
       </c>
@@ -14374,7 +14610,7 @@
         <v>246790</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>910000462</v>
       </c>
@@ -14386,6 +14622,425 @@
       </c>
       <c r="F434" t="s">
         <v>1060</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>910000463</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E435">
+        <v>246790</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>910000465</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>910000466</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E437">
+        <v>246790</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>910000467</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>910000468</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F439" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>910000469</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>910000450</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>910000451</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>910000452</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>910000470</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>910000471</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>910000472</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E446" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>910000473</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E447" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I447" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>910000474</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E448" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F448" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I448" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A449" s="49">
+        <v>910000475</v>
+      </c>
+      <c r="B449" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C449" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D449" s="49" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E449" s="50">
+        <v>36892</v>
+      </c>
+      <c r="F449" s="49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G449" s="49" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>910000476</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E450" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>910000477</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E451" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>910000478</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E452" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A453" s="51">
+        <v>910000479</v>
+      </c>
+      <c r="B453" s="51" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C453" s="51" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D453" s="51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E453" s="52">
+        <v>36892</v>
+      </c>
+      <c r="F453" s="51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G453" s="51" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>910000480</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C454" s="53" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E454" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F454" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>910000481</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C455" s="53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E455" s="2">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>910000482</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C456" s="53" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E456" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F456" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -14530,44 +15185,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="176" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -14592,107 +15247,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="172" t="s">
+      <c r="T2" s="177" t="s">
         <v>864</v>
       </c>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
       <c r="X2" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="Y2" s="173" t="s">
+      <c r="Y2" s="178" t="s">
         <v>866</v>
       </c>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
       <c r="AB2" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="AC2" s="174" t="s">
+      <c r="AC2" s="179" t="s">
         <v>868</v>
       </c>
-      <c r="AD2" s="174"/>
+      <c r="AD2" s="179"/>
       <c r="AE2" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="178" t="s">
         <v>869</v>
       </c>
-      <c r="AG2" s="173"/>
+      <c r="AG2" s="178"/>
       <c r="AH2" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="AI2" s="174" t="s">
+      <c r="AI2" s="179" t="s">
         <v>870</v>
       </c>
-      <c r="AJ2" s="174"/>
+      <c r="AJ2" s="179"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>871</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="165" t="s">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="170" t="s">
         <v>872</v>
       </c>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="167">
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="172">
         <f ca="1">YEAR(NOW())</f>
         <v>2024</v>
       </c>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="145" t="s">
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="150" t="s">
         <v>873</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="169">
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="174">
         <f ca="1">MONTH(NOW())</f>
-        <v>4</v>
-      </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="150" t="s">
         <v>874</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147">
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="152">
         <f ca="1">DAY(NOW())</f>
-        <v>30</v>
-      </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="150" t="s">
         <v>875</v>
       </c>
-      <c r="AJ3" s="148"/>
+      <c r="AJ3" s="153"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="100" t="s">
         <v>876</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="17" t="s">
         <v>877</v>
       </c>
@@ -14756,11 +15411,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="21" t="s">
         <v>877</v>
       </c>
@@ -14819,28 +15474,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="100" t="s">
         <v>878</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="157" t="s">
         <v>879</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
       <c r="Q6" s="18" t="s">
         <v>877</v>
       </c>
@@ -14852,43 +15507,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="153" t="s">
+      <c r="X6" s="158" t="s">
         <v>881</v>
       </c>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="155"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="156"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="161"/>
+      <c r="AI6" s="161"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="141" t="s">
         <v>882</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
       <c r="Q7" s="23" t="s">
         <v>877</v>
       </c>
@@ -14900,72 +15555,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="157"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="141" t="s">
         <v>884</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
       <c r="Q8" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="R8" s="136" t="s">
+      <c r="R8" s="141" t="s">
         <v>885</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="32" t="s">
         <v>877</v>
       </c>
@@ -14978,70 +15633,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="147" t="s">
         <v>887</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="133" t="s">
         <v>888</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="K10" s="128" t="s">
+      <c r="K10" s="133" t="s">
         <v>889</v>
       </c>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
       <c r="Q10" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="R10" s="128" t="s">
+      <c r="R10" s="133" t="s">
         <v>890</v>
       </c>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
       <c r="X10" s="35" t="s">
         <v>867</v>
       </c>
@@ -15054,1021 +15709,1021 @@
       <c r="AC10" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="AD10" s="128" t="s">
+      <c r="AD10" s="133" t="s">
         <v>892</v>
       </c>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="129"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="133"/>
+      <c r="AH10" s="133"/>
+      <c r="AI10" s="133"/>
+      <c r="AJ10" s="134"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="100" t="s">
         <v>871</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="37" t="s">
         <v>867</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="135" t="s">
         <v>893</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
       <c r="K11" s="38" t="s">
         <v>867</v>
       </c>
-      <c r="L11" s="130" t="s">
+      <c r="L11" s="135" t="s">
         <v>894</v>
       </c>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
       <c r="P11" s="38" t="s">
         <v>867</v>
       </c>
-      <c r="Q11" s="130" t="s">
+      <c r="Q11" s="135" t="s">
         <v>895</v>
       </c>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
       <c r="U11" s="38" t="s">
         <v>877</v>
       </c>
-      <c r="V11" s="130" t="s">
+      <c r="V11" s="135" t="s">
         <v>896</v>
       </c>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="131" t="s">
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="136" t="s">
         <v>877</v>
       </c>
-      <c r="AA11" s="132" t="s">
+      <c r="AA11" s="137" t="s">
         <v>885</v>
       </c>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="133"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="137"/>
+      <c r="AJ11" s="138"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="39" t="s">
         <v>867</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="124" t="s">
         <v>897</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="124" t="s">
         <v>898</v>
       </c>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
       <c r="P12" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="Q12" s="119" t="s">
+      <c r="Q12" s="124" t="s">
         <v>899</v>
       </c>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
       <c r="U12" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="V12" s="119" t="s">
+      <c r="V12" s="124" t="s">
         <v>900</v>
       </c>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="135"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="140"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="127" t="s">
         <v>901</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="122" t="s">
         <v>902</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="42" t="s">
         <v>867</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="122" t="s">
         <v>903</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
       <c r="N13" s="42" t="s">
         <v>867</v>
       </c>
-      <c r="O13" s="117" t="s">
+      <c r="O13" s="122" t="s">
         <v>904</v>
       </c>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
       <c r="R13" s="42" t="s">
         <v>867</v>
       </c>
-      <c r="S13" s="117" t="s">
+      <c r="S13" s="122" t="s">
         <v>885</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="118"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="123"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
       <c r="F14" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="124" t="s">
         <v>905</v>
       </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="K14" s="119" t="s">
+      <c r="K14" s="124" t="s">
         <v>906</v>
       </c>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="O14" s="119" t="s">
+      <c r="O14" s="124" t="s">
         <v>907</v>
       </c>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
       <c r="R14" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="S14" s="119" t="s">
+      <c r="S14" s="124" t="s">
         <v>908</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
       <c r="V14" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="W14" s="119" t="s">
+      <c r="W14" s="124" t="s">
         <v>885</v>
       </c>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="121"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="126"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="100" t="s">
         <v>909</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="104" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="109" t="s">
         <v>910</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105" t="s">
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110" t="s">
         <v>911</v>
       </c>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="106"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="111"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="107" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="112" t="s">
         <v>912</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="110"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="115"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="112"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
-      <c r="AJ17" s="113"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="118"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="113"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="118"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="112"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
-      <c r="AJ19" s="113"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="118"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="115"/>
-      <c r="AD20" s="115"/>
-      <c r="AE20" s="115"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="116"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="121"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="74" t="s">
         <v>913</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="80"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="85"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="83"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="88"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="86"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="91"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="64" t="s">
         <v>876</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="90" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="95" t="s">
         <v>914</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="92" t="s">
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97" t="s">
         <v>915</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="92" t="s">
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="97" t="s">
         <v>916</v>
       </c>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="91"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="96"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="94"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="64" t="s">
         <v>917</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="70" t="s">
         <v>918</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="65" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65" t="s">
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="67" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="72" t="s">
         <v>921</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73" t="s">
         <v>922</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="68"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="55" t="s">
         <v>923</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="52" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="57" t="s">
         <v>914</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="52" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="52" t="s">
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="54"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="59"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="57">
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="62">
         <v>10</v>
       </c>
-      <c r="AJ33" s="58"/>
+      <c r="AJ33" s="63"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -16145,13 +16800,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="49" t="str">
+      <c r="AG35" s="54" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1317">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3836,9 +3836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icp10655341</t>
-  </si>
-  <si>
     <t>GA27500317</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4220,10 +4217,6 @@
     <t>icp10655387</t>
   </si>
   <si>
-    <t>B140279447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icp10655388</t>
   </si>
   <si>
@@ -4232,10 +4225,6 @@
   </si>
   <si>
     <t>icp10655389</t>
-  </si>
-  <si>
-    <t>D120146958</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>註冊M003_01-&gt;M0007-&gt;M0010--&gt;M0004-&gt;M0006-&gt;M0019--&gt;M0002--&gt; M0021</t>
@@ -4286,10 +4275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>給cindy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>綁定發票載具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4315,6 +4300,632 @@
   <si>
     <t xml:space="preserve"> 
 H101447185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655396</t>
+  </si>
+  <si>
+    <t>B198719667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655397</t>
+  </si>
+  <si>
+    <t>B100201232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B172130924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655400</t>
+  </si>
+  <si>
+    <t>G153309271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655401</t>
+  </si>
+  <si>
+    <t>B106677114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E116779897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0註冊_iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655403</t>
+  </si>
+  <si>
+    <t>C148343169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試身份證黑名單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C114470353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655411</t>
+  </si>
+  <si>
+    <t>C105159510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655412</t>
+  </si>
+  <si>
+    <t>F275345521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法代男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年_Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F105774421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年-iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655414</t>
+  </si>
+  <si>
+    <t>B128568203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年_Android_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D120146958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0註冊_iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法代女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法代女二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D166157073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B140279447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655416</t>
+  </si>
+  <si>
+    <t>外國人註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA58828537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA54344979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655418</t>
+  </si>
+  <si>
+    <t>外國人註冊_iOS OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L809591702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新式居留證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給cindy/stephn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655420</t>
+  </si>
+  <si>
+    <t>icp10655421</t>
+  </si>
+  <si>
+    <t>E184324224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C133219129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F180715140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給設計註冊用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給設計註冊用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655423</t>
+  </si>
+  <si>
+    <t>icp10655424</t>
+  </si>
+  <si>
+    <t>G173889734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先ICP註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655425</t>
+  </si>
+  <si>
+    <t>C123312444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655426</t>
+  </si>
+  <si>
+    <t>H192817080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655427</t>
+  </si>
+  <si>
+    <t>DA61591171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外國人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655428</t>
+  </si>
+  <si>
+    <t>D118828883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655429</t>
+  </si>
+  <si>
+    <t>G178541926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655430</t>
+  </si>
+  <si>
+    <t>J174392394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655431</t>
+  </si>
+  <si>
+    <t>J159882771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年-法代未同意銀行帳戶儲值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655432</t>
+  </si>
+  <si>
+    <t>NA83781748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P33+未設定安全密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655433</t>
+  </si>
+  <si>
+    <t>A853967771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>審核OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655434</t>
+  </si>
+  <si>
+    <t>D185246184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E179994232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655436</t>
+  </si>
+  <si>
+    <t>G193036828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G135352023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655439</t>
+  </si>
+  <si>
+    <t>E107797707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655440</t>
+  </si>
+  <si>
+    <t>E144970180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655441</t>
+  </si>
+  <si>
+    <t>icp10655442</t>
+  </si>
+  <si>
+    <t>D153466198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655443</t>
+  </si>
+  <si>
+    <t>icp10655444</t>
+  </si>
+  <si>
+    <t>E131705446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655445</t>
+  </si>
+  <si>
+    <t>D106495034</t>
+  </si>
+  <si>
+    <t>icp10655446</t>
+  </si>
+  <si>
+    <t>A115020695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655447</t>
+  </si>
+  <si>
+    <t>J113110032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試相機權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655448</t>
+  </si>
+  <si>
+    <t>icp10655449</t>
+  </si>
+  <si>
+    <t>D161139379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP改電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655450</t>
+  </si>
+  <si>
+    <t>icp10655451</t>
+  </si>
+  <si>
+    <t>icp10655452</t>
+  </si>
+  <si>
+    <t>C127167123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架上版OP+ICP 註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655453</t>
+  </si>
+  <si>
+    <t>未成年註冊_Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C159710327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年註冊_iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655454</t>
+  </si>
+  <si>
+    <t>C161559816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655455</t>
+  </si>
+  <si>
+    <t>C190202684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655456</t>
+  </si>
+  <si>
+    <t>E125475106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未註冊成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655457</t>
+  </si>
+  <si>
+    <t>H170718408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655458</t>
+  </si>
+  <si>
+    <t>icp10655459</t>
+  </si>
+  <si>
+    <t>C136965557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655460</t>
+  </si>
+  <si>
+    <t>H108709722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年註冊_Android_雙父母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655461</t>
+  </si>
+  <si>
+    <t>J118492735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外國人註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655462</t>
+  </si>
+  <si>
+    <t>AD26477122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居留證/流水號F160000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC11501931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA92937319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A120419533</t>
+  </si>
+  <si>
+    <t>icp10655466</t>
+  </si>
+  <si>
+    <t>B192990695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655467</t>
+  </si>
+  <si>
+    <t>K101498639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 測試註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F111996808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年註冊_Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655469</t>
+  </si>
+  <si>
+    <t>B198052452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊_Android OP註冊+ICP註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655470</t>
+  </si>
+  <si>
+    <t>B287077463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655471</t>
+  </si>
+  <si>
+    <t>D146689074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655472</t>
+  </si>
+  <si>
+    <t>D135502968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655473</t>
+  </si>
+  <si>
+    <t>B184203389</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4475,7 +5086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -4824,11 +5435,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4963,6 +5585,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5362,16 +5994,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5381,7 +6013,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5394,8 +6026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4521200" y="0"/>
-          <a:ext cx="13093700" cy="3886200"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7543800" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5406,16 +6038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>35097</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5425,7 +6057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5438,8 +6070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12700"/>
-          <a:ext cx="4526280" cy="10058400"/>
+          <a:off x="7581900" y="101600"/>
+          <a:ext cx="4645197" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5826,10 +6458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L466"/>
+  <dimension ref="A1:L538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F466" sqref="F466"/>
+    <sheetView tabSelected="1" topLeftCell="A518" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F539" sqref="F539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14398,13 +15030,13 @@
         <v>1016</v>
       </c>
       <c r="C413" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E413">
+        <v>246790</v>
+      </c>
+      <c r="F413" t="s">
         <v>1017</v>
-      </c>
-      <c r="E413">
-        <v>246790</v>
-      </c>
-      <c r="F413" t="s">
-        <v>1018</v>
       </c>
       <c r="I413" t="s">
         <v>426</v>
@@ -14418,13 +15050,13 @@
         <v>1016</v>
       </c>
       <c r="C414" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E414">
         <v>246790</v>
       </c>
       <c r="F414" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -14432,13 +15064,13 @@
         <v>910000443</v>
       </c>
       <c r="C415" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E415">
         <v>246790</v>
       </c>
       <c r="F415" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -14446,16 +15078,16 @@
         <v>910000444</v>
       </c>
       <c r="B416" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E416">
+        <v>246790</v>
+      </c>
+      <c r="F416" t="s">
         <v>1022</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E416">
-        <v>246790</v>
-      </c>
-      <c r="F416" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
@@ -14463,13 +15095,13 @@
         <v>910000445</v>
       </c>
       <c r="C417" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E417">
+        <v>246790</v>
+      </c>
+      <c r="F417" t="s">
         <v>1024</v>
-      </c>
-      <c r="E417">
-        <v>246790</v>
-      </c>
-      <c r="F417" t="s">
-        <v>1025</v>
       </c>
       <c r="J417" t="s">
         <v>823</v>
@@ -14480,13 +15112,13 @@
         <v>910000446</v>
       </c>
       <c r="C418" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E418">
+        <v>246790</v>
+      </c>
+      <c r="F418" t="s">
         <v>1026</v>
-      </c>
-      <c r="E418">
-        <v>246790</v>
-      </c>
-      <c r="F418" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
@@ -14494,13 +15126,13 @@
         <v>910000447</v>
       </c>
       <c r="C419" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E419">
+        <v>246790</v>
+      </c>
+      <c r="F419" t="s">
         <v>1028</v>
-      </c>
-      <c r="E419">
-        <v>246790</v>
-      </c>
-      <c r="F419" t="s">
-        <v>1029</v>
       </c>
       <c r="I419" t="s">
         <v>426</v>
@@ -14514,13 +15146,13 @@
         <v>910000448</v>
       </c>
       <c r="C420" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E420">
+        <v>246790</v>
+      </c>
+      <c r="F420" t="s">
         <v>1030</v>
-      </c>
-      <c r="E420">
-        <v>246790</v>
-      </c>
-      <c r="F420" t="s">
-        <v>1031</v>
       </c>
       <c r="I420" t="s">
         <v>426</v>
@@ -14534,16 +15166,16 @@
         <v>910000449</v>
       </c>
       <c r="B421" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C421" t="s">
         <v>1032</v>
       </c>
-      <c r="C421" t="s">
+      <c r="E421">
+        <v>246790</v>
+      </c>
+      <c r="F421" t="s">
         <v>1033</v>
-      </c>
-      <c r="E421">
-        <v>246790</v>
-      </c>
-      <c r="F421" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
@@ -14551,13 +15183,13 @@
         <v>910000450</v>
       </c>
       <c r="C422" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E422">
+        <v>246790</v>
+      </c>
+      <c r="F422" t="s">
         <v>1035</v>
-      </c>
-      <c r="E422">
-        <v>246790</v>
-      </c>
-      <c r="F422" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
@@ -14565,13 +15197,13 @@
         <v>910000451</v>
       </c>
       <c r="C423" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E423">
+        <v>246790</v>
+      </c>
+      <c r="F423" t="s">
         <v>1037</v>
-      </c>
-      <c r="E423">
-        <v>246790</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
@@ -14579,13 +15211,13 @@
         <v>910000452</v>
       </c>
       <c r="C424" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E424">
+        <v>246790</v>
+      </c>
+      <c r="F424" t="s">
         <v>1039</v>
-      </c>
-      <c r="E424">
-        <v>246790</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
@@ -14593,16 +15225,16 @@
         <v>910000453</v>
       </c>
       <c r="B425" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C425" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E425">
+        <v>246790</v>
+      </c>
+      <c r="F425" t="s">
         <v>1041</v>
-      </c>
-      <c r="E425">
-        <v>246790</v>
-      </c>
-      <c r="F425" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
@@ -14610,13 +15242,13 @@
         <v>910000454</v>
       </c>
       <c r="C426" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E426">
+        <v>246790</v>
+      </c>
+      <c r="F426" t="s">
         <v>1043</v>
-      </c>
-      <c r="E426">
-        <v>246790</v>
-      </c>
-      <c r="F426" t="s">
-        <v>1044</v>
       </c>
       <c r="I426" t="s">
         <v>426</v>
@@ -14627,13 +15259,13 @@
         <v>910000455</v>
       </c>
       <c r="C427" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E427">
+        <v>246790</v>
+      </c>
+      <c r="F427" t="s">
         <v>1045</v>
-      </c>
-      <c r="E427">
-        <v>246790</v>
-      </c>
-      <c r="F427" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
@@ -14641,13 +15273,13 @@
         <v>910000456</v>
       </c>
       <c r="C428" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E428">
+        <v>246790</v>
+      </c>
+      <c r="F428" t="s">
         <v>1047</v>
-      </c>
-      <c r="E428">
-        <v>246790</v>
-      </c>
-      <c r="F428" t="s">
-        <v>1048</v>
       </c>
       <c r="G428" t="s">
         <v>92</v>
@@ -14658,16 +15290,16 @@
         <v>910000457</v>
       </c>
       <c r="B429" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C429" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E429">
+        <v>246790</v>
+      </c>
+      <c r="F429" t="s">
         <v>1049</v>
-      </c>
-      <c r="E429">
-        <v>246790</v>
-      </c>
-      <c r="F429" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -14675,13 +15307,13 @@
         <v>910000458</v>
       </c>
       <c r="C430" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E430">
         <v>246790</v>
       </c>
       <c r="F430" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -14689,16 +15321,16 @@
         <v>910000459</v>
       </c>
       <c r="B431" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C431" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E431">
         <v>246790</v>
       </c>
       <c r="F431" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
@@ -14706,13 +15338,13 @@
         <v>910000460</v>
       </c>
       <c r="C432" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E432">
+        <v>246790</v>
+      </c>
+      <c r="F432" t="s">
         <v>1055</v>
-      </c>
-      <c r="E432">
-        <v>246790</v>
-      </c>
-      <c r="F432" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -14720,7 +15352,7 @@
         <v>910000461</v>
       </c>
       <c r="C433" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E433">
         <v>246790</v>
@@ -14731,13 +15363,13 @@
         <v>910000462</v>
       </c>
       <c r="C434" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E434">
+        <v>246790</v>
+      </c>
+      <c r="F434" t="s">
         <v>1058</v>
-      </c>
-      <c r="E434">
-        <v>246790</v>
-      </c>
-      <c r="F434" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -14745,13 +15377,13 @@
         <v>910000463</v>
       </c>
       <c r="C435" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E435">
+        <v>246790</v>
+      </c>
+      <c r="F435" t="s">
         <v>1060</v>
-      </c>
-      <c r="E435">
-        <v>246790</v>
-      </c>
-      <c r="F435" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -14759,16 +15391,16 @@
         <v>910000465</v>
       </c>
       <c r="B436" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D436" t="s">
         <v>1063</v>
       </c>
-      <c r="C436" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D436" t="s">
+      <c r="F436" t="s">
         <v>1064</v>
-      </c>
-      <c r="F436" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -14776,16 +15408,16 @@
         <v>910000466</v>
       </c>
       <c r="B437" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C437" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E437">
+        <v>246790</v>
+      </c>
+      <c r="F437" t="s">
         <v>1066</v>
-      </c>
-      <c r="E437">
-        <v>246790</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -14793,16 +15425,16 @@
         <v>910000467</v>
       </c>
       <c r="B438" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D438" t="s">
         <v>1063</v>
       </c>
-      <c r="C438" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1064</v>
-      </c>
       <c r="F438" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -14810,16 +15442,16 @@
         <v>910000468</v>
       </c>
       <c r="B439" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C439" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F439" t="s">
         <v>1070</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F439" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -14827,16 +15459,16 @@
         <v>910000469</v>
       </c>
       <c r="B440" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C440" t="s">
         <v>1072</v>
       </c>
-      <c r="C440" t="s">
+      <c r="D440" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F440" t="s">
         <v>1073</v>
-      </c>
-      <c r="D440" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F440" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -14844,16 +15476,16 @@
         <v>910000450</v>
       </c>
       <c r="B441" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C441" t="s">
         <v>1075</v>
       </c>
-      <c r="C441" t="s">
+      <c r="D441" t="s">
         <v>1076</v>
       </c>
-      <c r="D441" t="s">
+      <c r="F441" t="s">
         <v>1077</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -14861,13 +15493,13 @@
         <v>910000451</v>
       </c>
       <c r="C442" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F442" t="s">
         <v>1079</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F442" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -14875,13 +15507,13 @@
         <v>910000452</v>
       </c>
       <c r="C443" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F443" t="s">
         <v>1081</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F443" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -14889,13 +15521,13 @@
         <v>910000470</v>
       </c>
       <c r="C444" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D444" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F444" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -14903,19 +15535,19 @@
         <v>910000471</v>
       </c>
       <c r="B445" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C445" t="s">
         <v>1084</v>
       </c>
-      <c r="C445" t="s">
+      <c r="D445" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F445" t="s">
         <v>1085</v>
       </c>
-      <c r="D445" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F445" t="s">
-        <v>1086</v>
-      </c>
       <c r="G445" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -14923,19 +15555,19 @@
         <v>910000472</v>
       </c>
       <c r="B446" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C446" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D446" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E446" s="2">
         <v>36892</v>
       </c>
       <c r="F446" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -14943,25 +15575,25 @@
         <v>910000473</v>
       </c>
       <c r="B447" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C447" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D447" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E447" s="2">
         <v>36892</v>
       </c>
       <c r="F447" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G447" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I447" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -14969,25 +15601,25 @@
         <v>910000474</v>
       </c>
       <c r="B448" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C448" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D448" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E448" s="2">
         <v>36892</v>
       </c>
       <c r="F448" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G448" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I448" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -14995,22 +15627,22 @@
         <v>910000475</v>
       </c>
       <c r="B449" s="49" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C449" s="49" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D449" s="49" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E449" s="50">
         <v>36892</v>
       </c>
       <c r="F449" s="49" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G449" s="49" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -15018,19 +15650,19 @@
         <v>910000476</v>
       </c>
       <c r="B450" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C450" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D450" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E450" s="2">
         <v>36892</v>
       </c>
       <c r="F450" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -15038,19 +15670,19 @@
         <v>910000477</v>
       </c>
       <c r="B451" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C451" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D451" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E451" s="2">
         <v>36892</v>
       </c>
       <c r="F451" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -15058,22 +15690,22 @@
         <v>910000478</v>
       </c>
       <c r="B452" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C452" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D452" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E452" s="2">
         <v>36892</v>
       </c>
       <c r="F452" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G452" t="s">
         <v>1105</v>
-      </c>
-      <c r="G452" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -15081,22 +15713,22 @@
         <v>910000479</v>
       </c>
       <c r="B453" s="51" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C453" s="51" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D453" s="51" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E453" s="52">
         <v>36892</v>
       </c>
       <c r="F453" s="51" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G453" s="51" t="s">
         <v>1109</v>
-      </c>
-      <c r="G453" s="51" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -15104,19 +15736,19 @@
         <v>910000480</v>
       </c>
       <c r="B454" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C454" s="53" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D454" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E454" s="2">
         <v>36892</v>
       </c>
       <c r="F454" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -15124,13 +15756,13 @@
         <v>910000481</v>
       </c>
       <c r="B455" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C455" s="53" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D455" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E455" s="2">
         <v>36892</v>
@@ -15141,22 +15773,22 @@
         <v>910000482</v>
       </c>
       <c r="B456" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C456" s="53" t="s">
         <v>1115</v>
       </c>
-      <c r="C456" s="53" t="s">
-        <v>1116</v>
-      </c>
       <c r="D456" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E456" s="2">
         <v>36892</v>
       </c>
       <c r="F456" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G456" t="s">
         <v>1117</v>
-      </c>
-      <c r="G456" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -15164,25 +15796,25 @@
         <v>910000483</v>
       </c>
       <c r="B457" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C457" s="53" t="s">
         <v>1119</v>
       </c>
-      <c r="C457" s="53" t="s">
-        <v>1120</v>
-      </c>
       <c r="D457" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E457" s="2">
         <v>36892</v>
       </c>
       <c r="F457" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G457" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H457" t="s">
-        <v>1142</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -15190,79 +15822,88 @@
         <v>910000484</v>
       </c>
       <c r="C458" s="53" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D458" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E458" s="2">
         <v>36892</v>
       </c>
       <c r="F458" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="9">
+        <v>910000485</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C459" s="9" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A459">
-        <v>910000485</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C459" s="53" t="s">
+      <c r="D459" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E459" s="57">
+        <v>36892</v>
+      </c>
+      <c r="F459" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H459" s="9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="9">
+        <v>910000486</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C460" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="D459" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E459" s="2">
+      <c r="D460" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E460" s="57">
         <v>36892</v>
       </c>
-      <c r="F459" t="s">
+      <c r="F460" s="9" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A460">
-        <v>910000486</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C460" s="53" t="s">
+      <c r="H460" s="9" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="9">
+        <v>910000487</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C461" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="D460" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E460" s="2">
+      <c r="D461" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E461" s="57">
         <v>36892</v>
       </c>
-      <c r="F460" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>910000487</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C461" s="53" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E461" s="2">
-        <v>36892</v>
-      </c>
-      <c r="F461" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G461" t="s">
-        <v>1143</v>
+      <c r="F461" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G461" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H461" s="9" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -15270,19 +15911,19 @@
         <v>910000489</v>
       </c>
       <c r="B462" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C462" s="53" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D462" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E462" s="2">
         <v>36892</v>
       </c>
       <c r="F462" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -15290,19 +15931,19 @@
         <v>910000491</v>
       </c>
       <c r="B463" t="s">
-        <v>1136</v>
+        <v>1178</v>
       </c>
       <c r="C463" s="53" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D463" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E463" s="2">
         <v>36892</v>
       </c>
       <c r="F463" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -15310,65 +15951,1419 @@
         <v>910000492</v>
       </c>
       <c r="B464" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C464" s="53" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D464" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E464" s="2">
         <v>36892</v>
       </c>
       <c r="F464" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>910000493</v>
       </c>
       <c r="B465" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C465" s="53" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D465" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E465" s="2">
         <v>36892</v>
       </c>
       <c r="F465" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="G465" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>910000494</v>
       </c>
       <c r="B466" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C466" s="53" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D466" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E466" s="2">
         <v>36892</v>
       </c>
       <c r="F466" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>910000495</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C467" s="53" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E467" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F467" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>910000496</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C468" s="53" t="s">
         <v>1149</v>
       </c>
-      <c r="G466" t="s">
+      <c r="D468" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E468" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>910000498</v>
+      </c>
+      <c r="B469" t="s">
         <v>1148</v>
+      </c>
+      <c r="C469" s="53" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E469" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>910000500</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C470" s="53" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E470" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F470" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>910000501</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C471" s="53" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E471" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>910000502</v>
+      </c>
+      <c r="C472" s="53" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E472" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F472" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>910000503</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C473" s="53" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E473" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F473" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>910000510</v>
+      </c>
+      <c r="C474" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E474" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>910000511</v>
+      </c>
+      <c r="C475" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E475" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G475" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>910000512</v>
+      </c>
+      <c r="C476" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E476" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G476" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>910000513</v>
+      </c>
+      <c r="C477" s="53" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E477" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G477" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>910000514</v>
+      </c>
+      <c r="C478" s="53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E478" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>910000515</v>
+      </c>
+      <c r="C479" s="53" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E479" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G479" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>910000516</v>
+      </c>
+      <c r="C480" s="53" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E480" s="2">
+        <v>36892</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H480" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I480" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>910000517</v>
+      </c>
+      <c r="C481" s="53" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E481" s="2">
+        <v>36892</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H481" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I481" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>910000518</v>
+      </c>
+      <c r="C482" s="53" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E482" s="2">
+        <v>36892</v>
+      </c>
+      <c r="H482" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I482" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>910000519</v>
+      </c>
+      <c r="C483" s="53" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E483" s="2">
+        <v>36892</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G483" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I483" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A484" s="54">
+        <v>910000520</v>
+      </c>
+      <c r="B484" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C484" s="55" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D484" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E484" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F484" s="54" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A485" s="54">
+        <v>910000521</v>
+      </c>
+      <c r="B485" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C485" s="55" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D485" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E485" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F485" s="54" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A486" s="54">
+        <v>910000522</v>
+      </c>
+      <c r="B486" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C486" s="55" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D486" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E486" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F486" s="54" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A487" s="54">
+        <v>910000523</v>
+      </c>
+      <c r="B487" s="59"/>
+      <c r="C487" s="55" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D487" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E487" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F487" s="54"/>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A488" s="54">
+        <v>910000524</v>
+      </c>
+      <c r="B488" s="59" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C488" s="55" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D488" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E488" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F488" s="54" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A489" s="54">
+        <v>910000525</v>
+      </c>
+      <c r="B489" s="54"/>
+      <c r="C489" s="55" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D489" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E489" s="56">
+        <v>39448</v>
+      </c>
+      <c r="F489" s="54" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G489" s="54" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A490" s="54">
+        <v>910000526</v>
+      </c>
+      <c r="B490" s="54"/>
+      <c r="C490" s="55" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D490" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E490" s="56">
+        <v>39448</v>
+      </c>
+      <c r="F490" s="54" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G490" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H490" s="58" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I490" s="54"/>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A491" s="54">
+        <v>910000527</v>
+      </c>
+      <c r="B491" s="54"/>
+      <c r="C491" s="55" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D491" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E491" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F491" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G491" s="54" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H491" s="60"/>
+      <c r="I491" s="54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A492" s="54">
+        <v>910000528</v>
+      </c>
+      <c r="C492" s="55" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D492" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E492" s="56">
+        <v>39448</v>
+      </c>
+      <c r="F492" s="61" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G492" s="54" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A493" s="54">
+        <v>910000529</v>
+      </c>
+      <c r="C493" s="55" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D493" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E493" s="56">
+        <v>39448</v>
+      </c>
+      <c r="F493" s="61" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G493" s="54" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A494" s="54">
+        <v>910000530</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C494" s="55" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D494" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E494" s="56">
+        <v>39448</v>
+      </c>
+      <c r="F494" s="61" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A495" s="54">
+        <v>910000531</v>
+      </c>
+      <c r="C495" s="55" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D495" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E495" s="56">
+        <v>39448</v>
+      </c>
+      <c r="F495" s="61" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G495" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H495" s="61" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A496" s="54">
+        <v>910000532</v>
+      </c>
+      <c r="C496" s="55" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D496" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E496" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F496" s="61" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" s="54">
+        <v>910000533</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C497" s="55" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D497" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E497" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F497" s="61" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H497" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" s="54">
+        <v>910000534</v>
+      </c>
+      <c r="C498" s="55" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D498" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E498" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F498" s="61" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" s="54">
+        <v>910000535</v>
+      </c>
+      <c r="C499" s="55" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D499" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E499" s="56">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" s="54">
+        <v>910000536</v>
+      </c>
+      <c r="C500" s="55" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D500" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E500" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F500" s="61" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" s="54">
+        <v>910000534</v>
+      </c>
+      <c r="C501" s="55" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D501" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E501" s="56">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" s="54">
+        <v>910000537</v>
+      </c>
+      <c r="C502" s="55" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D502" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E502" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503" s="54">
+        <v>910000538</v>
+      </c>
+      <c r="C503" s="55" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" s="54">
+        <v>910000539</v>
+      </c>
+      <c r="C504" s="55" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D504" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E504" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" s="54">
+        <v>910000540</v>
+      </c>
+      <c r="C505" s="55" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D505" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E505" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" s="54">
+        <v>910000541</v>
+      </c>
+      <c r="C506" s="55" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D506" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E506" s="56">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" s="54">
+        <v>910000542</v>
+      </c>
+      <c r="C507" s="55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D507" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E507" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" s="54">
+        <v>910000543</v>
+      </c>
+      <c r="C508" s="55" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D508" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E508" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" s="54">
+        <v>910000544</v>
+      </c>
+      <c r="C509" s="55" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D509" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E509" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" s="54">
+        <v>910000545</v>
+      </c>
+      <c r="C510" s="55" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D510" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E510" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511" s="54">
+        <v>910000546</v>
+      </c>
+      <c r="C511" s="55" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D511" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E511" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" s="54">
+        <v>910000547</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C512" s="55" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D512" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E512" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A513" s="54">
+        <v>910000548</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C513" s="55" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D513" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E513" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A514" s="54">
+        <v>910000549</v>
+      </c>
+      <c r="C514" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D514" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E514" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A515" s="54">
+        <v>910000550</v>
+      </c>
+      <c r="C515" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D515" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E515" s="56">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A516" s="61">
+        <v>910000551</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C516" s="55" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D516" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E516" s="56">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A517" s="61">
+        <v>910000552</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C517" s="55" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D517" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E517" s="56">
+        <v>36892</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A518" s="61">
+        <v>910000553</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C518" s="55" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D518" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A519" s="61">
+        <v>910000554</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C519" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D519" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A520" s="61">
+        <v>910000555</v>
+      </c>
+      <c r="C520" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D520" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A521" s="61">
+        <v>910000556</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C521" s="55" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D521" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A522" s="61">
+        <v>910000557</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C522" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D522" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A523" s="61">
+        <v>910000558</v>
+      </c>
+      <c r="C523" s="55" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D523" s="54" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A524" s="61">
+        <v>910000559</v>
+      </c>
+      <c r="C524" s="55" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D524" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A525" s="61">
+        <v>910000560</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C525" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D525" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E525" s="2">
+        <v>39814</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A526" s="61">
+        <v>910000561</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C526" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D526" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E526" s="2">
+        <v>39814</v>
+      </c>
+      <c r="F526" s="62" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A527" s="61">
+        <v>910000562</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C527" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D527" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E527" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F527" s="62" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A528" s="61">
+        <v>910000563</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C528" s="55" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D528" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E528" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F528" s="63" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A529" s="61">
+        <v>910000564</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C529" s="55" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D529" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E529" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F529" s="63" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G529" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A530" s="61">
+        <v>910000565</v>
+      </c>
+      <c r="C530" s="55" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D530" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E530" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A531" s="61">
+        <v>910000566</v>
+      </c>
+      <c r="C531" s="55" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D531" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E531" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A532" s="61">
+        <v>910000567</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C532" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D532" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E532" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A533" s="61">
+        <v>910000568</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C533" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D533" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E533" s="2">
+        <v>39814</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A534" s="61">
+        <v>910000569</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C534" s="55" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D534" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E534" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F534" s="62" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A535" s="61">
+        <v>910000570</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C535" s="55" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D535" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E535" s="2">
+        <v>10816</v>
+      </c>
+      <c r="F535" s="63" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A536" s="61">
+        <v>910000571</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C536" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D536" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E536" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F536" s="62" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A537" s="61">
+        <v>910000572</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C537" s="55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D537" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E537" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F537" s="62" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A538" s="61">
+        <v>910000573</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C538" s="55" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D538" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F538" s="63" t="s">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -15393,12 +17388,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -15412,8 +17407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -15518,44 +17513,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -15580,107 +17575,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="65" t="s">
         <v>863</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
       <c r="X2" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="66" t="s">
         <v>865</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
       <c r="AB2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AC2" s="57" t="s">
+      <c r="AC2" s="67" t="s">
         <v>867</v>
       </c>
-      <c r="AD2" s="57"/>
+      <c r="AD2" s="67"/>
       <c r="AE2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="66" t="s">
         <v>868</v>
       </c>
-      <c r="AG2" s="56"/>
+      <c r="AG2" s="66"/>
       <c r="AH2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AI2" s="57" t="s">
+      <c r="AI2" s="67" t="s">
         <v>869</v>
       </c>
-      <c r="AJ2" s="57"/>
+      <c r="AJ2" s="67"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="94" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="98" t="s">
         <v>871</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="90">
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="100">
         <f ca="1">YEAR(NOW())</f>
         <v>2024</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="58" t="s">
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="68" t="s">
         <v>872</v>
       </c>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="92">
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="102">
         <f ca="1">MONTH(NOW())</f>
-        <v>5</v>
-      </c>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="68" t="s">
         <v>873</v>
       </c>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60">
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="70">
         <f ca="1">DAY(NOW())</f>
-        <v>31</v>
-      </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="68" t="s">
         <v>874</v>
       </c>
-      <c r="AJ3" s="61"/>
+      <c r="AJ3" s="71"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="72" t="s">
         <v>875</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="17" t="s">
         <v>876</v>
       </c>
@@ -15744,11 +17739,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="21" t="s">
         <v>876</v>
       </c>
@@ -15807,28 +17802,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>877</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="84" t="s">
         <v>878</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
       <c r="Q6" s="18" t="s">
         <v>876</v>
       </c>
@@ -15840,43 +17835,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="75" t="s">
+      <c r="X6" s="85" t="s">
         <v>880</v>
       </c>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="93" t="s">
         <v>881</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
       <c r="Q7" s="23" t="s">
         <v>876</v>
       </c>
@@ -15888,72 +17883,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="93" t="s">
         <v>883</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
       <c r="Q8" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="93" t="s">
         <v>884</v>
       </c>
-      <c r="S8" s="83"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="32" t="s">
         <v>876</v>
       </c>
@@ -15966,70 +17961,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="109" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="112" t="s">
         <v>887</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="K10" s="102" t="s">
+      <c r="K10" s="112" t="s">
         <v>888</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
       <c r="Q10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="R10" s="102" t="s">
+      <c r="R10" s="112" t="s">
         <v>889</v>
       </c>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
       <c r="X10" s="35" t="s">
         <v>866</v>
       </c>
@@ -16042,1021 +18037,1021 @@
       <c r="AC10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="AD10" s="102" t="s">
+      <c r="AD10" s="112" t="s">
         <v>891</v>
       </c>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="103"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="113"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="72" t="s">
         <v>870</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="114" t="s">
         <v>892</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
       <c r="K11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="114" t="s">
         <v>893</v>
       </c>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
       <c r="P11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="Q11" s="104" t="s">
+      <c r="Q11" s="114" t="s">
         <v>894</v>
       </c>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
       <c r="U11" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="V11" s="104" t="s">
+      <c r="V11" s="114" t="s">
         <v>895</v>
       </c>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="105" t="s">
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="115" t="s">
         <v>876</v>
       </c>
-      <c r="AA11" s="107" t="s">
+      <c r="AA11" s="117" t="s">
         <v>884</v>
       </c>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="107"/>
-      <c r="AJ11" s="108"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="117"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="118"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="121" t="s">
         <v>896</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="L12" s="111" t="s">
+      <c r="L12" s="121" t="s">
         <v>897</v>
       </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
       <c r="P12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="Q12" s="111" t="s">
+      <c r="Q12" s="121" t="s">
         <v>898</v>
       </c>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
       <c r="U12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="V12" s="111" t="s">
+      <c r="V12" s="121" t="s">
         <v>899</v>
       </c>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="110"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="120"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="122" t="s">
         <v>900</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="G13" s="118" t="s">
+      <c r="G13" s="128" t="s">
         <v>901</v>
       </c>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="K13" s="118" t="s">
+      <c r="K13" s="128" t="s">
         <v>902</v>
       </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
       <c r="N13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="O13" s="118" t="s">
+      <c r="O13" s="128" t="s">
         <v>903</v>
       </c>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
       <c r="R13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="S13" s="118" t="s">
+      <c r="S13" s="128" t="s">
         <v>884</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="119"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="128"/>
+      <c r="AJ13" s="129"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="G14" s="111" t="s">
+      <c r="G14" s="121" t="s">
         <v>904</v>
       </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="K14" s="111" t="s">
+      <c r="K14" s="121" t="s">
         <v>905</v>
       </c>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
       <c r="N14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="O14" s="111" t="s">
+      <c r="O14" s="121" t="s">
         <v>906</v>
       </c>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
       <c r="R14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="S14" s="111" t="s">
+      <c r="S14" s="121" t="s">
         <v>907</v>
       </c>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
       <c r="V14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="W14" s="111" t="s">
+      <c r="W14" s="121" t="s">
         <v>884</v>
       </c>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
+      <c r="AJ14" s="131"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="72" t="s">
         <v>908</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="122" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="132" t="s">
         <v>909</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123" t="s">
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133" t="s">
         <v>910</v>
       </c>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="124"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="133"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="133"/>
+      <c r="AJ15" s="134"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="125" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="135" t="s">
         <v>911</v>
       </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="127"/>
-      <c r="AJ16" s="128"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="138"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="130"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="130"/>
-      <c r="AJ17" s="131"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="140"/>
+      <c r="AJ17" s="141"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="130"/>
-      <c r="AC18" s="130"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="130"/>
-      <c r="AI18" s="130"/>
-      <c r="AJ18" s="131"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="140"/>
+      <c r="AJ18" s="141"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="130"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="130"/>
-      <c r="AI19" s="130"/>
-      <c r="AJ19" s="131"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="141"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="133"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="116"/>
+      <c r="AJ20" s="143"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="144" t="s">
         <v>912</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="145"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="154"/>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="154"/>
+      <c r="AJ21" s="155"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="137"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="147"/>
-      <c r="AF22" s="147"/>
-      <c r="AG22" s="147"/>
-      <c r="AH22" s="147"/>
-      <c r="AI22" s="147"/>
-      <c r="AJ22" s="148"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="157"/>
+      <c r="AB22" s="157"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="157"/>
+      <c r="AH22" s="157"/>
+      <c r="AI22" s="157"/>
+      <c r="AJ22" s="158"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="140"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="150"/>
-      <c r="X23" s="150"/>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="150"/>
-      <c r="AD23" s="150"/>
-      <c r="AE23" s="150"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="150"/>
-      <c r="AH23" s="150"/>
-      <c r="AI23" s="150"/>
-      <c r="AJ23" s="151"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="161"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="162" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="158" t="s">
+      <c r="B24" s="163"/>
+      <c r="C24" s="168" t="s">
         <v>913</v>
       </c>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="160" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="170" t="s">
         <v>914</v>
       </c>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="159"/>
-      <c r="Y24" s="160" t="s">
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="169"/>
+      <c r="Y24" s="170" t="s">
         <v>915</v>
       </c>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="159"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="168"/>
+      <c r="AF24" s="168"/>
+      <c r="AG24" s="168"/>
+      <c r="AH24" s="168"/>
+      <c r="AI24" s="168"/>
+      <c r="AJ24" s="169"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="172"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="172"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="172"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="172"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="163"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="174"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="164"/>
-      <c r="AH26" s="164"/>
-      <c r="AI26" s="164"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="174"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="174"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="174"/>
+      <c r="AH26" s="174"/>
+      <c r="AI26" s="174"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="162" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="168" t="s">
+      <c r="B27" s="175"/>
+      <c r="C27" s="178" t="s">
         <v>917</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="168" t="s">
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="178" t="s">
         <v>918</v>
       </c>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="168"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="168"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168" t="s">
+      <c r="O27" s="178"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178" t="s">
         <v>919</v>
       </c>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168"/>
-      <c r="AF27" s="168"/>
-      <c r="AG27" s="168"/>
-      <c r="AH27" s="168"/>
-      <c r="AI27" s="168"/>
-      <c r="AJ27" s="168"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="178"/>
+      <c r="AF27" s="178"/>
+      <c r="AG27" s="178"/>
+      <c r="AH27" s="178"/>
+      <c r="AI27" s="178"/>
+      <c r="AJ27" s="178"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="154"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="172"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="161"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="172"/>
+      <c r="AB28" s="172"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="172"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="154"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="170"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="171"/>
-      <c r="W29" s="171"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="171"/>
-      <c r="AA29" s="171"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="171"/>
-      <c r="AD29" s="171"/>
-      <c r="AE29" s="171"/>
-      <c r="AF29" s="171"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="171"/>
-      <c r="AI29" s="171"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="181"/>
+      <c r="AB29" s="181"/>
+      <c r="AC29" s="181"/>
+      <c r="AD29" s="181"/>
+      <c r="AE29" s="181"/>
+      <c r="AF29" s="181"/>
+      <c r="AG29" s="181"/>
+      <c r="AH29" s="181"/>
+      <c r="AI29" s="181"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="156"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="172" t="s">
+      <c r="A30" s="166"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="182" t="s">
         <v>920</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="173" t="s">
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="183" t="s">
         <v>921</v>
       </c>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="173"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
-      <c r="AI30" s="173"/>
-      <c r="AJ30" s="173"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="183"/>
+      <c r="AF30" s="183"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="183"/>
+      <c r="AI30" s="183"/>
+      <c r="AJ30" s="183"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="185" t="s">
         <v>922</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="170" t="s">
+      <c r="B31" s="185"/>
+      <c r="C31" s="180" t="s">
         <v>913</v>
       </c>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="170" t="s">
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="180" t="s">
         <v>914</v>
       </c>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="170" t="s">
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="180" t="s">
         <v>915</v>
       </c>
-      <c r="Z31" s="171"/>
-      <c r="AA31" s="171"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="171"/>
-      <c r="AD31" s="171"/>
-      <c r="AE31" s="171"/>
-      <c r="AF31" s="171"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="171"/>
-      <c r="AI31" s="171"/>
-      <c r="AJ31" s="177"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="181"/>
+      <c r="AB31" s="181"/>
+      <c r="AC31" s="181"/>
+      <c r="AD31" s="181"/>
+      <c r="AE31" s="181"/>
+      <c r="AF31" s="181"/>
+      <c r="AG31" s="181"/>
+      <c r="AH31" s="181"/>
+      <c r="AI31" s="181"/>
+      <c r="AJ31" s="187"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="176"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="172"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="172"/>
+      <c r="U32" s="172"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="172"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="172"/>
+      <c r="AA32" s="172"/>
+      <c r="AB32" s="172"/>
+      <c r="AC32" s="172"/>
+      <c r="AD32" s="172"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="172"/>
+      <c r="AG32" s="172"/>
+      <c r="AH32" s="172"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="176"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="170"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="171"/>
-      <c r="T33" s="171"/>
-      <c r="U33" s="171"/>
-      <c r="V33" s="171"/>
-      <c r="W33" s="171"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="171"/>
-      <c r="AA33" s="171"/>
-      <c r="AB33" s="171"/>
-      <c r="AC33" s="171"/>
-      <c r="AD33" s="171"/>
-      <c r="AE33" s="171"/>
-      <c r="AF33" s="171"/>
-      <c r="AG33" s="171"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="178">
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="181"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="181"/>
+      <c r="AE33" s="181"/>
+      <c r="AF33" s="181"/>
+      <c r="AG33" s="181"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="188">
         <v>10</v>
       </c>
-      <c r="AJ33" s="179"/>
+      <c r="AJ33" s="189"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -17133,13 +19128,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="174" t="str">
+      <c r="AG35" s="184" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="174"/>
-      <c r="AI35" s="174"/>
-      <c r="AJ35" s="174"/>
+      <c r="AH35" s="184"/>
+      <c r="AI35" s="184"/>
+      <c r="AJ35" s="184"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1325">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4926,6 +4926,35 @@
   </si>
   <si>
     <t>B184203389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655474</t>
+  </si>
+  <si>
+    <t>L106855465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655475</t>
+  </si>
+  <si>
+    <t>B125314178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>審核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655476</t>
+  </si>
+  <si>
+    <t>D118415911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qaz2wsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6458,10 +6487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L538"/>
+  <dimension ref="A1:L541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F539" sqref="F539"/>
+    <sheetView tabSelected="1" topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A466" sqref="A466:XFD466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -15633,7 +15662,7 @@
         <v>1093</v>
       </c>
       <c r="D449" s="49" t="s">
-        <v>1063</v>
+        <v>1324</v>
       </c>
       <c r="E449" s="50">
         <v>36892</v>
@@ -17364,6 +17393,72 @@
       </c>
       <c r="F538" s="63" t="s">
         <v>1316</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A539" s="61">
+        <v>910000574</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C539" s="55" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D539" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E539" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F539" s="63" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A540" s="61">
+        <v>910000575</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C540" s="55" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D540" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E540" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F540" s="62" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G540" s="62" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A541" s="61">
+        <v>910000576</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C541" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D541" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E541" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F541" s="62" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G541" s="62" t="s">
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -17651,7 +17746,7 @@
       <c r="AB3" s="101"/>
       <c r="AC3" s="102">
         <f ca="1">MONTH(NOW())</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD3" s="103"/>
       <c r="AE3" s="68" t="s">
@@ -17660,7 +17755,7 @@
       <c r="AF3" s="69"/>
       <c r="AG3" s="70">
         <f ca="1">DAY(NOW())</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AH3" s="70"/>
       <c r="AI3" s="68" t="s">

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1356">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4956,6 +4956,121 @@
   <si>
     <t>1qaz2wsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 測試註冊_外國人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655477</t>
+  </si>
+  <si>
+    <t>A836209903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655478</t>
+  </si>
+  <si>
+    <t>Aa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A826455082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 測試註冊_單一法代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655479</t>
+  </si>
+  <si>
+    <t>B124290544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 測試註冊_單一法代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655481</t>
+  </si>
+  <si>
+    <t>B114153212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655482</t>
+  </si>
+  <si>
+    <t>E169697637</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655483</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+B129881367
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 測試註冊_非父母雙法代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa123457</t>
+  </si>
+  <si>
+    <t>jeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655485</t>
+  </si>
+  <si>
+    <t>D161336510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT註冊測試ok+op也可登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655486</t>
+  </si>
+  <si>
+    <t>B114840069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 註冊+p55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655487</t>
+  </si>
+  <si>
+    <t>X101991965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655488</t>
   </si>
 </sst>
 </file>
@@ -5479,7 +5594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5624,245 +5739,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
@@ -5918,19 +5856,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5945,62 +5874,251 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6487,10 +6605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L541"/>
+  <dimension ref="A1:L553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A466" sqref="A466:XFD466"/>
+    <sheetView tabSelected="1" topLeftCell="A532" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E555" sqref="E555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6501,7 +6619,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
     <col min="8" max="8" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="28.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
@@ -17010,6 +17128,9 @@
       <c r="F517" t="s">
         <v>1264</v>
       </c>
+      <c r="G517" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="61">
@@ -17459,6 +17580,234 @@
       </c>
       <c r="G541" s="62" t="s">
         <v>1321</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A542" s="61">
+        <v>910000577</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C542" s="55" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D542" s="54" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F542" s="63" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G542" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A543" s="61">
+        <v>910000578</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C543" s="55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D543" s="54" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E543" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F543" s="62" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G543" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A544" s="61">
+        <v>910000579</v>
+      </c>
+      <c r="C544" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D544" s="54" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A545" s="61">
+        <v>910000580</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C545" s="55" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D545" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E545" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A546" s="61">
+        <v>910000581</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C546" s="55" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D546" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E546" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F546" s="62" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A547" s="61">
+        <v>910000582</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C547" s="55" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D547" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E547" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F547" s="62" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A548" s="61">
+        <v>910000583</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C548" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D548" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E548" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F548" s="64" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A549" s="61">
+        <v>910000584</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C549" s="55" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D549" s="54" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E549" s="2">
+        <v>39448</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A550" s="61">
+        <v>910000585</v>
+      </c>
+      <c r="C550" s="55" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D550" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E550" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A551" s="61">
+        <v>910000586</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C551" s="55" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D551" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E551" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A552" s="61">
+        <v>910000587</v>
+      </c>
+      <c r="C552" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D552" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E552" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" s="61">
+        <v>910000588</v>
+      </c>
+      <c r="C553" s="55" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D553" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E553" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -17608,44 +17957,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="187" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="187"/>
+      <c r="AB1" s="187"/>
+      <c r="AC1" s="187"/>
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="187"/>
+      <c r="AH1" s="187"/>
+      <c r="AI1" s="187"/>
+      <c r="AJ1" s="187"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -17670,107 +18019,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="65" t="s">
+      <c r="T2" s="188" t="s">
         <v>863</v>
       </c>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
       <c r="X2" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="189" t="s">
         <v>865</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
       <c r="AB2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AC2" s="67" t="s">
+      <c r="AC2" s="190" t="s">
         <v>867</v>
       </c>
-      <c r="AD2" s="67"/>
+      <c r="AD2" s="190"/>
       <c r="AE2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AF2" s="189" t="s">
         <v>868</v>
       </c>
-      <c r="AG2" s="66"/>
+      <c r="AG2" s="189"/>
       <c r="AH2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AI2" s="67" t="s">
+      <c r="AI2" s="190" t="s">
         <v>869</v>
       </c>
-      <c r="AJ2" s="67"/>
+      <c r="AJ2" s="190"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="177" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="98" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="181" t="s">
         <v>871</v>
       </c>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100">
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="183">
         <f ca="1">YEAR(NOW())</f>
         <v>2024</v>
       </c>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="68" t="s">
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="161" t="s">
         <v>872</v>
       </c>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="102">
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="185">
         <f ca="1">MONTH(NOW())</f>
-        <v>10</v>
-      </c>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="161" t="s">
         <v>873</v>
       </c>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="70">
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="163">
         <f ca="1">DAY(NOW())</f>
-        <v>28</v>
-      </c>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="161" t="s">
         <v>874</v>
       </c>
-      <c r="AJ3" s="71"/>
+      <c r="AJ3" s="164"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="111" t="s">
         <v>875</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="17" t="s">
         <v>876</v>
       </c>
@@ -17834,11 +18183,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="21" t="s">
         <v>876</v>
       </c>
@@ -17897,28 +18246,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="111" t="s">
         <v>877</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="168" t="s">
         <v>878</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
       <c r="Q6" s="18" t="s">
         <v>876</v>
       </c>
@@ -17930,43 +18279,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="85" t="s">
+      <c r="X6" s="169" t="s">
         <v>880</v>
       </c>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="169"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="172"/>
+      <c r="AF6" s="172"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="172"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="152" t="s">
         <v>881</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
       <c r="Q7" s="23" t="s">
         <v>876</v>
       </c>
@@ -17978,72 +18327,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="152" t="s">
         <v>883</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
       <c r="Q8" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="R8" s="152" t="s">
         <v>884</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="174"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="32" t="s">
         <v>876</v>
       </c>
@@ -18056,70 +18405,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="176"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="176"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="158" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
       <c r="F10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="144" t="s">
         <v>887</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
       <c r="J10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="K10" s="112" t="s">
+      <c r="K10" s="144" t="s">
         <v>888</v>
       </c>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
       <c r="Q10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="R10" s="112" t="s">
+      <c r="R10" s="144" t="s">
         <v>889</v>
       </c>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
       <c r="X10" s="35" t="s">
         <v>866</v>
       </c>
@@ -18132,1021 +18481,1021 @@
       <c r="AC10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="AD10" s="112" t="s">
+      <c r="AD10" s="144" t="s">
         <v>891</v>
       </c>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
-      <c r="AJ10" s="113"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="145"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="111" t="s">
         <v>870</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="146" t="s">
         <v>892</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
       <c r="K11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="L11" s="114" t="s">
+      <c r="L11" s="146" t="s">
         <v>893</v>
       </c>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
       <c r="P11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="Q11" s="114" t="s">
+      <c r="Q11" s="146" t="s">
         <v>894</v>
       </c>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
       <c r="U11" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="V11" s="114" t="s">
+      <c r="V11" s="146" t="s">
         <v>895</v>
       </c>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="115" t="s">
+      <c r="W11" s="146"/>
+      <c r="X11" s="146"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="147" t="s">
         <v>876</v>
       </c>
-      <c r="AA11" s="117" t="s">
+      <c r="AA11" s="148" t="s">
         <v>884</v>
       </c>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="118"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="149"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="135" t="s">
         <v>896</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
       <c r="K12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="L12" s="121" t="s">
+      <c r="L12" s="135" t="s">
         <v>897</v>
       </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
       <c r="P12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="Q12" s="121" t="s">
+      <c r="Q12" s="135" t="s">
         <v>898</v>
       </c>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
       <c r="U12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="V12" s="121" t="s">
+      <c r="V12" s="135" t="s">
         <v>899</v>
       </c>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="119"/>
-      <c r="AH12" s="119"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="120"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="150"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="150"/>
+      <c r="AH12" s="150"/>
+      <c r="AI12" s="150"/>
+      <c r="AJ12" s="151"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="138" t="s">
         <v>900</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="133" t="s">
         <v>901</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
       <c r="J13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="K13" s="128" t="s">
+      <c r="K13" s="133" t="s">
         <v>902</v>
       </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="N13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="O13" s="128" t="s">
+      <c r="O13" s="133" t="s">
         <v>903</v>
       </c>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
       <c r="R13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="S13" s="128" t="s">
+      <c r="S13" s="133" t="s">
         <v>884</v>
       </c>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="129"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
+      <c r="AB13" s="133"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="133"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="133"/>
+      <c r="AG13" s="133"/>
+      <c r="AH13" s="133"/>
+      <c r="AI13" s="133"/>
+      <c r="AJ13" s="134"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="143"/>
       <c r="F14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="135" t="s">
         <v>904</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="K14" s="121" t="s">
+      <c r="K14" s="135" t="s">
         <v>905</v>
       </c>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="N14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="O14" s="121" t="s">
+      <c r="O14" s="135" t="s">
         <v>906</v>
       </c>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
       <c r="R14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="S14" s="121" t="s">
+      <c r="S14" s="135" t="s">
         <v>907</v>
       </c>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
       <c r="V14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="W14" s="121" t="s">
+      <c r="W14" s="135" t="s">
         <v>884</v>
       </c>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="130"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="130"/>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="130"/>
-      <c r="AJ14" s="131"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="136"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="137"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="111" t="s">
         <v>908</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="132" t="s">
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="120" t="s">
         <v>909</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133" t="s">
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121" t="s">
         <v>910</v>
       </c>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-      <c r="W15" s="133"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="133"/>
-      <c r="Z15" s="133"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="133"/>
-      <c r="AC15" s="133"/>
-      <c r="AD15" s="133"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="133"/>
-      <c r="AG15" s="133"/>
-      <c r="AH15" s="133"/>
-      <c r="AI15" s="133"/>
-      <c r="AJ15" s="134"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="122"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="135" t="s">
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="123" t="s">
         <v>911</v>
       </c>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="137"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="137"/>
-      <c r="AJ16" s="138"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="126"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="140"/>
-      <c r="U17" s="140"/>
-      <c r="V17" s="140"/>
-      <c r="W17" s="140"/>
-      <c r="X17" s="140"/>
-      <c r="Y17" s="140"/>
-      <c r="Z17" s="140"/>
-      <c r="AA17" s="140"/>
-      <c r="AB17" s="140"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="140"/>
-      <c r="AH17" s="140"/>
-      <c r="AI17" s="140"/>
-      <c r="AJ17" s="141"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="129"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="140"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="140"/>
-      <c r="X18" s="140"/>
-      <c r="Y18" s="140"/>
-      <c r="Z18" s="140"/>
-      <c r="AA18" s="140"/>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="140"/>
-      <c r="AH18" s="140"/>
-      <c r="AI18" s="140"/>
-      <c r="AJ18" s="141"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="129"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="140"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="141"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="129"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="116"/>
-      <c r="AJ20" s="143"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="131"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="131"/>
+      <c r="AJ20" s="132"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="85" t="s">
         <v>912</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="154"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="154"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="154"/>
-      <c r="AG21" s="154"/>
-      <c r="AH21" s="154"/>
-      <c r="AI21" s="154"/>
-      <c r="AJ21" s="155"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="96"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="157"/>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="157"/>
-      <c r="AI22" s="157"/>
-      <c r="AJ22" s="158"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="99"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="150"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="161"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="101"/>
+      <c r="AJ23" s="102"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="75" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="168" t="s">
+      <c r="B24" s="103"/>
+      <c r="C24" s="106" t="s">
         <v>913</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="170" t="s">
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108" t="s">
         <v>914</v>
       </c>
-      <c r="O24" s="168"/>
-      <c r="P24" s="168"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="169"/>
-      <c r="Y24" s="170" t="s">
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="108" t="s">
         <v>915</v>
       </c>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="168"/>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="168"/>
-      <c r="AF24" s="168"/>
-      <c r="AG24" s="168"/>
-      <c r="AH24" s="168"/>
-      <c r="AI24" s="168"/>
-      <c r="AJ24" s="169"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="107"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="164"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="171"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="172"/>
-      <c r="AF25" s="172"/>
-      <c r="AG25" s="172"/>
-      <c r="AH25" s="172"/>
-      <c r="AI25" s="172"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="166"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="173"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="174"/>
-      <c r="AI26" s="174"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="110"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="75" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="175"/>
-      <c r="C27" s="178" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="81" t="s">
         <v>917</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="178" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="81" t="s">
         <v>918</v>
       </c>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178" t="s">
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81" t="s">
         <v>919</v>
       </c>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="178"/>
-      <c r="AB27" s="178"/>
-      <c r="AC27" s="178"/>
-      <c r="AD27" s="178"/>
-      <c r="AE27" s="178"/>
-      <c r="AF27" s="178"/>
-      <c r="AG27" s="178"/>
-      <c r="AH27" s="178"/>
-      <c r="AI27" s="178"/>
-      <c r="AJ27" s="178"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="164"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="171"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="172"/>
-      <c r="AF28" s="172"/>
-      <c r="AG28" s="172"/>
-      <c r="AH28" s="172"/>
-      <c r="AI28" s="172"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="180"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="181"/>
-      <c r="S29" s="181"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="181"/>
-      <c r="V29" s="181"/>
-      <c r="W29" s="181"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="180"/>
-      <c r="Z29" s="181"/>
-      <c r="AA29" s="181"/>
-      <c r="AB29" s="181"/>
-      <c r="AC29" s="181"/>
-      <c r="AD29" s="181"/>
-      <c r="AE29" s="181"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="181"/>
-      <c r="AH29" s="181"/>
-      <c r="AI29" s="181"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="166"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="182" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="83" t="s">
         <v>920</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="183" t="s">
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84" t="s">
         <v>921</v>
       </c>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="183"/>
-      <c r="AF30" s="183"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="183"/>
-      <c r="AJ30" s="183"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="84"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="AJ30" s="84"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="66" t="s">
         <v>922</v>
       </c>
-      <c r="B31" s="185"/>
-      <c r="C31" s="180" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="68" t="s">
         <v>913</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="180" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="68" t="s">
         <v>914</v>
       </c>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="180" t="s">
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="Z31" s="181"/>
-      <c r="AA31" s="181"/>
-      <c r="AB31" s="181"/>
-      <c r="AC31" s="181"/>
-      <c r="AD31" s="181"/>
-      <c r="AE31" s="181"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="181"/>
-      <c r="AH31" s="181"/>
-      <c r="AI31" s="181"/>
-      <c r="AJ31" s="187"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="70"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="186"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="171"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="172"/>
-      <c r="AB32" s="172"/>
-      <c r="AC32" s="172"/>
-      <c r="AD32" s="172"/>
-      <c r="AE32" s="172"/>
-      <c r="AF32" s="172"/>
-      <c r="AG32" s="172"/>
-      <c r="AH32" s="172"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="186"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="180"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="181"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="180"/>
-      <c r="Z33" s="181"/>
-      <c r="AA33" s="181"/>
-      <c r="AB33" s="181"/>
-      <c r="AC33" s="181"/>
-      <c r="AD33" s="181"/>
-      <c r="AE33" s="181"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="181"/>
-      <c r="AH33" s="181"/>
-      <c r="AI33" s="188">
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="73">
         <v>10</v>
       </c>
-      <c r="AJ33" s="189"/>
+      <c r="AJ33" s="74"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -19223,13 +19572,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="184" t="str">
+      <c r="AG35" s="65" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="184"/>
-      <c r="AI35" s="184"/>
-      <c r="AJ35" s="184"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -19239,72 +19588,12 @@
     <protectedRange sqref="F4:F5 N4:N5 R4:R5 J4:K5 P4:P5 U4:U5 Z4:Z5 AE4:AE5" name="權限審查_1_1"/>
   </protectedRanges>
   <mergeCells count="88">
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="C32:L33"/>
-    <mergeCell ref="N32:W33"/>
-    <mergeCell ref="Y32:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="C28:L29"/>
-    <mergeCell ref="N28:W29"/>
-    <mergeCell ref="Y28:AI29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:AJ30"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="F21:AJ23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="N25:W26"/>
-    <mergeCell ref="Y25:AI26"/>
-    <mergeCell ref="A15:E20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:AJ16"/>
-    <mergeCell ref="F17:AJ20"/>
-    <mergeCell ref="V13:AJ13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AJ14"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AJ12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
@@ -19321,12 +19610,72 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AJ12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AJ13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AJ14"/>
+    <mergeCell ref="A15:E20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:AJ16"/>
+    <mergeCell ref="F17:AJ20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="F21:AJ23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="N25:W26"/>
+    <mergeCell ref="Y25:AI26"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="C28:L29"/>
+    <mergeCell ref="N28:W29"/>
+    <mergeCell ref="Y28:AI29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:AJ30"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="N32:W33"/>
+    <mergeCell ref="Y32:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1360">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4298,11 +4298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 
-H101447185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icp10655396</t>
   </si>
   <si>
@@ -5071,6 +5066,26 @@
   </si>
   <si>
     <t>icp10655488</t>
+  </si>
+  <si>
+    <t>icp10655489</t>
+  </si>
+  <si>
+    <t>Android 測試註冊_外國人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA44244296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910000494--&gt;更改此手機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+H101447185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6605,10 +6620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L553"/>
+  <dimension ref="A1:L556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E555" sqref="E555"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B470" sqref="B470:B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -15177,7 +15192,7 @@
         <v>1016</v>
       </c>
       <c r="C413" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E413">
         <v>246790</v>
@@ -15780,7 +15795,7 @@
         <v>1093</v>
       </c>
       <c r="D449" s="49" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E449" s="50">
         <v>36892</v>
@@ -15961,7 +15976,7 @@
         <v>1138</v>
       </c>
       <c r="H457" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -15998,10 +16013,10 @@
         <v>36892</v>
       </c>
       <c r="F459" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H459" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="460" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16024,7 +16039,7 @@
         <v>1125</v>
       </c>
       <c r="H460" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="461" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16044,13 +16059,13 @@
         <v>36892</v>
       </c>
       <c r="F461" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G461" s="9" t="s">
         <v>1139</v>
       </c>
       <c r="H461" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -16078,7 +16093,7 @@
         <v>910000491</v>
       </c>
       <c r="B463" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C463" s="53" t="s">
         <v>1132</v>
@@ -16153,7 +16168,7 @@
         <v>36892</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>1145</v>
+        <v>1359</v>
       </c>
       <c r="G466" t="s">
         <v>1144</v>
@@ -16167,7 +16182,7 @@
         <v>1135</v>
       </c>
       <c r="C467" s="53" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D467" t="s">
         <v>1063</v>
@@ -16176,7 +16191,7 @@
         <v>36892</v>
       </c>
       <c r="F467" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -16184,10 +16199,10 @@
         <v>910000496</v>
       </c>
       <c r="B468" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C468" s="53" t="s">
         <v>1148</v>
-      </c>
-      <c r="C468" s="53" t="s">
-        <v>1149</v>
       </c>
       <c r="D468" t="s">
         <v>1063</v>
@@ -16196,7 +16211,7 @@
         <v>36892</v>
       </c>
       <c r="F468" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -16204,10 +16219,10 @@
         <v>910000498</v>
       </c>
       <c r="B469" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C469" s="53" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D469" t="s">
         <v>1063</v>
@@ -16216,18 +16231,15 @@
         <v>36892</v>
       </c>
       <c r="F469" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>910000500</v>
       </c>
-      <c r="B470" t="s">
-        <v>1148</v>
-      </c>
       <c r="C470" s="53" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D470" t="s">
         <v>1063</v>
@@ -16236,7 +16248,7 @@
         <v>36892</v>
       </c>
       <c r="F470" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -16247,7 +16259,7 @@
         <v>1133</v>
       </c>
       <c r="C471" s="53" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D471" t="s">
         <v>1063</v>
@@ -16256,7 +16268,7 @@
         <v>36892</v>
       </c>
       <c r="F471" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -16264,7 +16276,7 @@
         <v>910000502</v>
       </c>
       <c r="C472" s="53" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D472" t="s">
         <v>1063</v>
@@ -16273,7 +16285,7 @@
         <v>36892</v>
       </c>
       <c r="F472" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -16281,10 +16293,10 @@
         <v>910000503</v>
       </c>
       <c r="B473" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C473" s="53" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D473" t="s">
         <v>1063</v>
@@ -16293,7 +16305,7 @@
         <v>36892</v>
       </c>
       <c r="F473" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -16301,7 +16313,7 @@
         <v>910000510</v>
       </c>
       <c r="C474" s="53" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D474" t="s">
         <v>1063</v>
@@ -16310,10 +16322,10 @@
         <v>36892</v>
       </c>
       <c r="F474" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G474" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -16321,7 +16333,7 @@
         <v>910000511</v>
       </c>
       <c r="C475" s="53" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D475" t="s">
         <v>1063</v>
@@ -16330,10 +16342,10 @@
         <v>36892</v>
       </c>
       <c r="F475" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G475" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -16341,7 +16353,7 @@
         <v>910000512</v>
       </c>
       <c r="C476" s="53" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D476" t="s">
         <v>1063</v>
@@ -16350,10 +16362,10 @@
         <v>39448</v>
       </c>
       <c r="F476" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G476" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -16361,7 +16373,7 @@
         <v>910000513</v>
       </c>
       <c r="C477" s="53" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D477" t="s">
         <v>1063</v>
@@ -16370,10 +16382,10 @@
         <v>39448</v>
       </c>
       <c r="F477" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G477" t="s">
         <v>1171</v>
-      </c>
-      <c r="G477" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -16381,7 +16393,7 @@
         <v>910000514</v>
       </c>
       <c r="C478" s="53" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D478" t="s">
         <v>1063</v>
@@ -16390,10 +16402,10 @@
         <v>39448</v>
       </c>
       <c r="F478" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G478" t="s">
         <v>1174</v>
-      </c>
-      <c r="G478" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -16401,7 +16413,7 @@
         <v>910000515</v>
       </c>
       <c r="C479" s="53" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D479" t="s">
         <v>1063</v>
@@ -16410,10 +16422,10 @@
         <v>39448</v>
       </c>
       <c r="F479" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G479" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -16421,7 +16433,7 @@
         <v>910000516</v>
       </c>
       <c r="C480" s="53" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D480" t="s">
         <v>1063</v>
@@ -16430,10 +16442,10 @@
         <v>36892</v>
       </c>
       <c r="G480" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H480" t="s">
         <v>1185</v>
-      </c>
-      <c r="H480" t="s">
-        <v>1186</v>
       </c>
       <c r="I480" t="s">
         <v>426</v>
@@ -16444,7 +16456,7 @@
         <v>910000517</v>
       </c>
       <c r="C481" s="53" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D481" t="s">
         <v>1063</v>
@@ -16453,10 +16465,10 @@
         <v>36892</v>
       </c>
       <c r="G481" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H481" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I481" t="s">
         <v>426</v>
@@ -16467,7 +16479,7 @@
         <v>910000518</v>
       </c>
       <c r="C482" s="53" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D482" t="s">
         <v>1063</v>
@@ -16476,7 +16488,7 @@
         <v>36892</v>
       </c>
       <c r="H482" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I482" t="s">
         <v>426</v>
@@ -16487,7 +16499,7 @@
         <v>910000519</v>
       </c>
       <c r="C483" s="53" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D483" t="s">
         <v>1063</v>
@@ -16496,10 +16508,10 @@
         <v>36892</v>
       </c>
       <c r="F483" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G483" t="s">
         <v>1192</v>
-      </c>
-      <c r="G483" t="s">
-        <v>1193</v>
       </c>
       <c r="I483" t="s">
         <v>426</v>
@@ -16510,10 +16522,10 @@
         <v>910000520</v>
       </c>
       <c r="B484" s="54" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C484" s="55" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D484" s="54" t="s">
         <v>1063</v>
@@ -16522,7 +16534,7 @@
         <v>36892</v>
       </c>
       <c r="F484" s="54" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -16530,10 +16542,10 @@
         <v>910000521</v>
       </c>
       <c r="B485" s="54" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C485" s="55" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D485" s="54" t="s">
         <v>1063</v>
@@ -16542,7 +16554,7 @@
         <v>36892</v>
       </c>
       <c r="F485" s="54" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -16550,10 +16562,10 @@
         <v>910000522</v>
       </c>
       <c r="B486" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C486" s="55" t="s">
         <v>1201</v>
-      </c>
-      <c r="C486" s="55" t="s">
-        <v>1202</v>
       </c>
       <c r="D486" s="54" t="s">
         <v>1063</v>
@@ -16562,7 +16574,7 @@
         <v>36892</v>
       </c>
       <c r="F486" s="54" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
@@ -16571,7 +16583,7 @@
       </c>
       <c r="B487" s="59"/>
       <c r="C487" s="55" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D487" s="54" t="s">
         <v>1063</v>
@@ -16586,10 +16598,10 @@
         <v>910000524</v>
       </c>
       <c r="B488" s="59" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C488" s="55" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D488" s="54" t="s">
         <v>1063</v>
@@ -16598,7 +16610,7 @@
         <v>36892</v>
       </c>
       <c r="F488" s="54" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
@@ -16607,7 +16619,7 @@
       </c>
       <c r="B489" s="54"/>
       <c r="C489" s="55" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D489" s="54" t="s">
         <v>1063</v>
@@ -16616,10 +16628,10 @@
         <v>39448</v>
       </c>
       <c r="F489" s="54" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G489" s="54" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
@@ -16628,7 +16640,7 @@
       </c>
       <c r="B490" s="54"/>
       <c r="C490" s="55" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D490" s="54" t="s">
         <v>1063</v>
@@ -16637,13 +16649,13 @@
         <v>39448</v>
       </c>
       <c r="F490" s="54" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G490" s="54" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H490" s="58" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I490" s="54"/>
     </row>
@@ -16653,7 +16665,7 @@
       </c>
       <c r="B491" s="54"/>
       <c r="C491" s="55" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D491" s="54" t="s">
         <v>1063</v>
@@ -16662,10 +16674,10 @@
         <v>36892</v>
       </c>
       <c r="F491" s="54" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G491" s="54" t="s">
         <v>1212</v>
-      </c>
-      <c r="G491" s="54" t="s">
-        <v>1213</v>
       </c>
       <c r="H491" s="60"/>
       <c r="I491" s="54" t="s">
@@ -16677,7 +16689,7 @@
         <v>910000528</v>
       </c>
       <c r="C492" s="55" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D492" s="54" t="s">
         <v>1063</v>
@@ -16686,10 +16698,10 @@
         <v>39448</v>
       </c>
       <c r="F492" s="61" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G492" s="54" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.3">
@@ -16697,7 +16709,7 @@
         <v>910000529</v>
       </c>
       <c r="C493" s="55" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D493" s="54" t="s">
         <v>1063</v>
@@ -16706,10 +16718,10 @@
         <v>39448</v>
       </c>
       <c r="F493" s="61" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G493" s="54" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.3">
@@ -16720,7 +16732,7 @@
         <v>1053</v>
       </c>
       <c r="C494" s="55" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D494" s="54" t="s">
         <v>1063</v>
@@ -16729,7 +16741,7 @@
         <v>39448</v>
       </c>
       <c r="F494" s="61" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.3">
@@ -16737,7 +16749,7 @@
         <v>910000531</v>
       </c>
       <c r="C495" s="55" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D495" s="54" t="s">
         <v>1063</v>
@@ -16746,13 +16758,13 @@
         <v>39448</v>
       </c>
       <c r="F495" s="61" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G495" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H495" s="61" t="s">
         <v>1221</v>
-      </c>
-      <c r="G495" s="54" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H495" s="61" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.3">
@@ -16760,7 +16772,7 @@
         <v>910000532</v>
       </c>
       <c r="C496" s="55" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D496" s="54" t="s">
         <v>1063</v>
@@ -16769,10 +16781,10 @@
         <v>36892</v>
       </c>
       <c r="F496" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H496" t="s">
         <v>1225</v>
-      </c>
-      <c r="H496" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -16780,10 +16792,10 @@
         <v>910000533</v>
       </c>
       <c r="B497" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C497" s="55" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D497" s="54" t="s">
         <v>1063</v>
@@ -16792,10 +16804,10 @@
         <v>36892</v>
       </c>
       <c r="F497" s="61" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H497" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
@@ -16803,7 +16815,7 @@
         <v>910000534</v>
       </c>
       <c r="C498" s="55" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D498" s="54" t="s">
         <v>1063</v>
@@ -16812,7 +16824,7 @@
         <v>36892</v>
       </c>
       <c r="F498" s="61" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
@@ -16820,7 +16832,7 @@
         <v>910000535</v>
       </c>
       <c r="C499" s="55" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D499" s="54" t="s">
         <v>1063</v>
@@ -16834,7 +16846,7 @@
         <v>910000536</v>
       </c>
       <c r="C500" s="55" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D500" s="54" t="s">
         <v>1063</v>
@@ -16843,7 +16855,7 @@
         <v>36892</v>
       </c>
       <c r="F500" s="61" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
@@ -16851,7 +16863,7 @@
         <v>910000534</v>
       </c>
       <c r="C501" s="55" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D501" s="54" t="s">
         <v>1063</v>
@@ -16865,7 +16877,7 @@
         <v>910000537</v>
       </c>
       <c r="C502" s="55" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D502" s="54" t="s">
         <v>1063</v>
@@ -16874,7 +16886,7 @@
         <v>36892</v>
       </c>
       <c r="F502" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
@@ -16882,10 +16894,10 @@
         <v>910000538</v>
       </c>
       <c r="C503" s="55" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F503" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
@@ -16893,7 +16905,7 @@
         <v>910000539</v>
       </c>
       <c r="C504" s="55" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D504" s="54" t="s">
         <v>1063</v>
@@ -16902,7 +16914,7 @@
         <v>36892</v>
       </c>
       <c r="F504" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
@@ -16910,7 +16922,7 @@
         <v>910000540</v>
       </c>
       <c r="C505" s="55" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D505" s="54" t="s">
         <v>1063</v>
@@ -16919,7 +16931,7 @@
         <v>36892</v>
       </c>
       <c r="F505" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
@@ -16927,7 +16939,7 @@
         <v>910000541</v>
       </c>
       <c r="C506" s="55" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D506" s="54" t="s">
         <v>1063</v>
@@ -16941,7 +16953,7 @@
         <v>910000542</v>
       </c>
       <c r="C507" s="55" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D507" s="54" t="s">
         <v>1063</v>
@@ -16950,7 +16962,7 @@
         <v>36892</v>
       </c>
       <c r="F507" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
@@ -16958,7 +16970,7 @@
         <v>910000543</v>
       </c>
       <c r="C508" s="55" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D508" s="54" t="s">
         <v>1063</v>
@@ -16967,7 +16979,7 @@
         <v>36892</v>
       </c>
       <c r="F508" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -16975,7 +16987,7 @@
         <v>910000544</v>
       </c>
       <c r="C509" s="55" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D509" s="54" t="s">
         <v>1063</v>
@@ -16984,7 +16996,7 @@
         <v>36892</v>
       </c>
       <c r="F509" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -16992,7 +17004,7 @@
         <v>910000545</v>
       </c>
       <c r="C510" s="55" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D510" s="54" t="s">
         <v>1063</v>
@@ -17001,7 +17013,7 @@
         <v>36892</v>
       </c>
       <c r="F510" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
@@ -17009,7 +17021,7 @@
         <v>910000546</v>
       </c>
       <c r="C511" s="55" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D511" s="54" t="s">
         <v>1063</v>
@@ -17018,7 +17030,7 @@
         <v>36892</v>
       </c>
       <c r="F511" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
@@ -17026,10 +17038,10 @@
         <v>910000547</v>
       </c>
       <c r="B512" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C512" s="55" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D512" s="54" t="s">
         <v>1063</v>
@@ -17038,7 +17050,7 @@
         <v>36892</v>
       </c>
       <c r="F512" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.3">
@@ -17046,10 +17058,10 @@
         <v>910000548</v>
       </c>
       <c r="B513" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C513" s="55" t="s">
         <v>1256</v>
-      </c>
-      <c r="C513" s="55" t="s">
-        <v>1257</v>
       </c>
       <c r="D513" s="54" t="s">
         <v>1063</v>
@@ -17058,7 +17070,7 @@
         <v>36892</v>
       </c>
       <c r="F513" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.3">
@@ -17066,7 +17078,7 @@
         <v>910000549</v>
       </c>
       <c r="C514" s="55" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D514" s="54" t="s">
         <v>1063</v>
@@ -17075,7 +17087,7 @@
         <v>36892</v>
       </c>
       <c r="F514" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.3">
@@ -17083,7 +17095,7 @@
         <v>910000550</v>
       </c>
       <c r="C515" s="55" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D515" s="54" t="s">
         <v>1063</v>
@@ -17097,10 +17109,10 @@
         <v>910000551</v>
       </c>
       <c r="B516" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C516" s="55" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D516" s="54" t="s">
         <v>1063</v>
@@ -17114,10 +17126,10 @@
         <v>910000552</v>
       </c>
       <c r="B517" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C517" s="55" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D517" s="54" t="s">
         <v>1063</v>
@@ -17126,10 +17138,10 @@
         <v>36892</v>
       </c>
       <c r="F517" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G517" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
@@ -17137,16 +17149,16 @@
         <v>910000553</v>
       </c>
       <c r="B518" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C518" s="55" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D518" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F518" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
@@ -17154,16 +17166,16 @@
         <v>910000554</v>
       </c>
       <c r="B519" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C519" s="55" t="s">
         <v>1269</v>
-      </c>
-      <c r="C519" s="55" t="s">
-        <v>1270</v>
       </c>
       <c r="D519" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F519" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
@@ -17171,13 +17183,13 @@
         <v>910000555</v>
       </c>
       <c r="C520" s="55" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D520" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F520" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
@@ -17185,16 +17197,16 @@
         <v>910000556</v>
       </c>
       <c r="B521" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C521" s="55" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D521" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F521" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.3">
@@ -17202,16 +17214,16 @@
         <v>910000557</v>
       </c>
       <c r="B522" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C522" s="55" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D522" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F522" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.3">
@@ -17219,7 +17231,7 @@
         <v>910000558</v>
       </c>
       <c r="C523" s="55" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D523" s="54" t="s">
         <v>1063</v>
@@ -17230,13 +17242,13 @@
         <v>910000559</v>
       </c>
       <c r="C524" s="55" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D524" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F524" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.3">
@@ -17244,10 +17256,10 @@
         <v>910000560</v>
       </c>
       <c r="B525" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C525" s="55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D525" s="54" t="s">
         <v>1063</v>
@@ -17256,7 +17268,7 @@
         <v>39814</v>
       </c>
       <c r="F525" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.3">
@@ -17264,10 +17276,10 @@
         <v>910000561</v>
       </c>
       <c r="B526" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C526" s="55" t="s">
         <v>1284</v>
-      </c>
-      <c r="C526" s="55" t="s">
-        <v>1285</v>
       </c>
       <c r="D526" s="54" t="s">
         <v>1063</v>
@@ -17276,7 +17288,7 @@
         <v>39814</v>
       </c>
       <c r="F526" s="62" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
@@ -17284,10 +17296,10 @@
         <v>910000562</v>
       </c>
       <c r="B527" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C527" s="55" t="s">
         <v>1287</v>
-      </c>
-      <c r="C527" s="55" t="s">
-        <v>1288</v>
       </c>
       <c r="D527" s="54" t="s">
         <v>1063</v>
@@ -17296,10 +17308,10 @@
         <v>36526</v>
       </c>
       <c r="F527" s="62" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G527" t="s">
         <v>1289</v>
-      </c>
-      <c r="G527" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.3">
@@ -17307,10 +17319,10 @@
         <v>910000563</v>
       </c>
       <c r="B528" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C528" s="55" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D528" s="54" t="s">
         <v>1063</v>
@@ -17319,7 +17331,7 @@
         <v>36526</v>
       </c>
       <c r="F528" s="63" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.3">
@@ -17327,10 +17339,10 @@
         <v>910000564</v>
       </c>
       <c r="B529" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C529" s="55" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D529" s="54" t="s">
         <v>1063</v>
@@ -17339,7 +17351,7 @@
         <v>36526</v>
       </c>
       <c r="F529" s="63" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G529" t="s">
         <v>426</v>
@@ -17350,7 +17362,7 @@
         <v>910000565</v>
       </c>
       <c r="C530" s="55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D530" s="54" t="s">
         <v>1063</v>
@@ -17359,7 +17371,7 @@
         <v>36526</v>
       </c>
       <c r="F530" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.3">
@@ -17367,7 +17379,7 @@
         <v>910000566</v>
       </c>
       <c r="C531" s="55" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D531" s="54" t="s">
         <v>1063</v>
@@ -17376,7 +17388,7 @@
         <v>36526</v>
       </c>
       <c r="F531" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.3">
@@ -17384,10 +17396,10 @@
         <v>910000567</v>
       </c>
       <c r="B532" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C532" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D532" s="54" t="s">
         <v>1063</v>
@@ -17396,7 +17408,7 @@
         <v>36526</v>
       </c>
       <c r="F532" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.3">
@@ -17404,10 +17416,10 @@
         <v>910000568</v>
       </c>
       <c r="B533" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C533" s="55" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D533" s="54" t="s">
         <v>1063</v>
@@ -17416,7 +17428,7 @@
         <v>39814</v>
       </c>
       <c r="F533" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.3">
@@ -17424,10 +17436,10 @@
         <v>910000569</v>
       </c>
       <c r="B534" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C534" s="55" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D534" s="54" t="s">
         <v>1063</v>
@@ -17436,7 +17448,7 @@
         <v>36526</v>
       </c>
       <c r="F534" s="62" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.3">
@@ -17444,10 +17456,10 @@
         <v>910000570</v>
       </c>
       <c r="B535" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C535" s="55" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D535" s="54" t="s">
         <v>1063</v>
@@ -17456,7 +17468,7 @@
         <v>10816</v>
       </c>
       <c r="F535" s="63" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.3">
@@ -17464,10 +17476,10 @@
         <v>910000571</v>
       </c>
       <c r="B536" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C536" s="55" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D536" s="54" t="s">
         <v>1063</v>
@@ -17476,7 +17488,7 @@
         <v>36526</v>
       </c>
       <c r="F536" s="62" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.3">
@@ -17484,10 +17496,10 @@
         <v>910000572</v>
       </c>
       <c r="B537" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C537" s="55" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D537" s="54" t="s">
         <v>1063</v>
@@ -17496,7 +17508,7 @@
         <v>36526</v>
       </c>
       <c r="F537" s="62" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.3">
@@ -17504,16 +17516,16 @@
         <v>910000573</v>
       </c>
       <c r="B538" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C538" s="55" t="s">
         <v>1314</v>
-      </c>
-      <c r="C538" s="55" t="s">
-        <v>1315</v>
       </c>
       <c r="D538" s="54" t="s">
         <v>1063</v>
       </c>
       <c r="F538" s="63" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.3">
@@ -17521,10 +17533,10 @@
         <v>910000574</v>
       </c>
       <c r="B539" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C539" s="55" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D539" s="54" t="s">
         <v>1063</v>
@@ -17533,7 +17545,7 @@
         <v>36526</v>
       </c>
       <c r="F539" s="63" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.3">
@@ -17541,10 +17553,10 @@
         <v>910000575</v>
       </c>
       <c r="B540" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C540" s="55" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D540" s="54" t="s">
         <v>1063</v>
@@ -17553,10 +17565,10 @@
         <v>36526</v>
       </c>
       <c r="F540" s="62" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G540" s="62" t="s">
         <v>1320</v>
-      </c>
-      <c r="G540" s="62" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.3">
@@ -17564,10 +17576,10 @@
         <v>910000576</v>
       </c>
       <c r="B541" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C541" s="55" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D541" s="54" t="s">
         <v>1063</v>
@@ -17576,10 +17588,10 @@
         <v>36526</v>
       </c>
       <c r="F541" s="62" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G541" s="62" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.3">
@@ -17587,16 +17599,16 @@
         <v>910000577</v>
       </c>
       <c r="B542" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C542" s="55" t="s">
         <v>1325</v>
       </c>
-      <c r="C542" s="55" t="s">
+      <c r="D542" s="54" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F542" s="63" t="s">
         <v>1326</v>
-      </c>
-      <c r="D542" s="54" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F542" s="63" t="s">
-        <v>1327</v>
       </c>
       <c r="G542" t="s">
         <v>426</v>
@@ -17607,19 +17619,19 @@
         <v>910000578</v>
       </c>
       <c r="B543" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C543" s="55" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D543" s="54" t="s">
         <v>1328</v>
-      </c>
-      <c r="D543" s="54" t="s">
-        <v>1329</v>
       </c>
       <c r="E543" s="2">
         <v>36526</v>
       </c>
       <c r="F543" s="62" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G543" t="s">
         <v>426</v>
@@ -17630,7 +17642,7 @@
         <v>910000579</v>
       </c>
       <c r="C544" s="55" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D544" s="54" t="s">
         <v>1063</v>
@@ -17641,10 +17653,10 @@
         <v>910000580</v>
       </c>
       <c r="B545" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C545" s="55" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D545" s="54" t="s">
         <v>1063</v>
@@ -17653,7 +17665,7 @@
         <v>39448</v>
       </c>
       <c r="F545" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
@@ -17661,10 +17673,10 @@
         <v>910000581</v>
       </c>
       <c r="B546" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C546" s="55" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D546" s="54" t="s">
         <v>1063</v>
@@ -17673,7 +17685,7 @@
         <v>39448</v>
       </c>
       <c r="F546" s="62" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.3">
@@ -17681,10 +17693,10 @@
         <v>910000582</v>
       </c>
       <c r="B547" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C547" s="55" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D547" s="54" t="s">
         <v>1063</v>
@@ -17693,7 +17705,7 @@
         <v>39448</v>
       </c>
       <c r="F547" s="62" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.3">
@@ -17701,10 +17713,10 @@
         <v>910000583</v>
       </c>
       <c r="B548" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C548" s="55" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D548" s="54" t="s">
         <v>1063</v>
@@ -17713,7 +17725,7 @@
         <v>39448</v>
       </c>
       <c r="F548" s="64" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.3">
@@ -17721,19 +17733,19 @@
         <v>910000584</v>
       </c>
       <c r="B549" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C549" s="55" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D549" s="54" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E549" s="2">
         <v>39448</v>
       </c>
       <c r="G549" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.3">
@@ -17741,7 +17753,7 @@
         <v>910000585</v>
       </c>
       <c r="C550" s="55" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D550" s="54" t="s">
         <v>1063</v>
@@ -17750,10 +17762,10 @@
         <v>36526</v>
       </c>
       <c r="F550" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G550" t="s">
         <v>1348</v>
-      </c>
-      <c r="G550" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.3">
@@ -17761,10 +17773,10 @@
         <v>910000586</v>
       </c>
       <c r="B551" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C551" s="55" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D551" s="54" t="s">
         <v>1063</v>
@@ -17773,7 +17785,7 @@
         <v>36526</v>
       </c>
       <c r="F551" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.3">
@@ -17781,7 +17793,7 @@
         <v>910000587</v>
       </c>
       <c r="C552" s="55" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D552" s="54" t="s">
         <v>1063</v>
@@ -17790,7 +17802,7 @@
         <v>36526</v>
       </c>
       <c r="F552" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.3">
@@ -17798,7 +17810,7 @@
         <v>910000588</v>
       </c>
       <c r="C553" s="55" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D553" s="54" t="s">
         <v>1063</v>
@@ -17807,7 +17819,40 @@
         <v>36526</v>
       </c>
       <c r="F553" t="s">
-        <v>1354</v>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554" s="61">
+        <v>910000589</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C554" s="55" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D554" s="54" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E554" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A555" s="61">
+        <v>910000590</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" s="61">
+        <v>910000591</v>
       </c>
     </row>
   </sheetData>
@@ -18085,7 +18130,7 @@
       <c r="W3" s="182"/>
       <c r="X3" s="183">
         <f ca="1">YEAR(NOW())</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Y3" s="163"/>
       <c r="Z3" s="163"/>
@@ -18095,7 +18140,7 @@
       <c r="AB3" s="184"/>
       <c r="AC3" s="185">
         <f ca="1">MONTH(NOW())</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="186"/>
       <c r="AE3" s="161" t="s">
@@ -18104,7 +18149,7 @@
       <c r="AF3" s="162"/>
       <c r="AG3" s="163">
         <f ca="1">DAY(NOW())</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AH3" s="163"/>
       <c r="AI3" s="161" t="s">

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1364">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5085,6 +5085,22 @@
   <si>
     <t xml:space="preserve"> 
 H101447185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N123452402</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5757,65 +5773,245 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
@@ -5871,10 +6067,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5889,251 +6094,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6620,10 +6636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L556"/>
+  <dimension ref="A1:L557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B470" sqref="B470:B471"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G568" sqref="G568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -17833,7 +17849,7 @@
         <v>1355</v>
       </c>
       <c r="D554" s="54" t="s">
-        <v>1343</v>
+        <v>1362</v>
       </c>
       <c r="E554" s="2">
         <v>36526</v>
@@ -17853,6 +17869,23 @@
     <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="61">
         <v>910000591</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="61">
+        <v>910000592</v>
+      </c>
+      <c r="C557" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D557" s="54" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E557" s="2">
+        <v>39448</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -18002,44 +18035,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="65" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="187"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="187"/>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="187"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -18064,107 +18097,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="188" t="s">
+      <c r="T2" s="66" t="s">
         <v>863</v>
       </c>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
       <c r="X2" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="Y2" s="189" t="s">
+      <c r="Y2" s="67" t="s">
         <v>865</v>
       </c>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
       <c r="AB2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AC2" s="190" t="s">
+      <c r="AC2" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="AD2" s="190"/>
+      <c r="AD2" s="68"/>
       <c r="AE2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AF2" s="189" t="s">
+      <c r="AF2" s="67" t="s">
         <v>868</v>
       </c>
-      <c r="AG2" s="189"/>
+      <c r="AG2" s="67"/>
       <c r="AH2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AI2" s="190" t="s">
+      <c r="AI2" s="68" t="s">
         <v>869</v>
       </c>
-      <c r="AJ2" s="190"/>
+      <c r="AJ2" s="68"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="95" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="181" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99" t="s">
         <v>871</v>
       </c>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="183">
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="101">
         <f ca="1">YEAR(NOW())</f>
         <v>2025</v>
       </c>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="161" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="69" t="s">
         <v>872</v>
       </c>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="185">
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="103">
         <f ca="1">MONTH(NOW())</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="161" t="s">
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="69" t="s">
         <v>873</v>
       </c>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="163">
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="71">
         <f ca="1">DAY(NOW())</f>
-        <v>7</v>
-      </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="161" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="69" t="s">
         <v>874</v>
       </c>
-      <c r="AJ3" s="164"/>
+      <c r="AJ3" s="72"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="73" t="s">
         <v>875</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="17" t="s">
         <v>876</v>
       </c>
@@ -18228,11 +18261,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="21" t="s">
         <v>876</v>
       </c>
@@ -18291,28 +18324,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="73" t="s">
         <v>877</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="85" t="s">
         <v>878</v>
       </c>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="18" t="s">
         <v>876</v>
       </c>
@@ -18324,43 +18357,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="169" t="s">
+      <c r="X6" s="86" t="s">
         <v>880</v>
       </c>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="172"/>
-      <c r="AF6" s="172"/>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="172"/>
-      <c r="AI6" s="172"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="94" t="s">
         <v>881</v>
       </c>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
       <c r="Q7" s="23" t="s">
         <v>876</v>
       </c>
@@ -18372,72 +18405,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G8" s="152" t="s">
+      <c r="G8" s="94" t="s">
         <v>883</v>
       </c>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
       <c r="Q8" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="R8" s="152" t="s">
+      <c r="R8" s="94" t="s">
         <v>884</v>
       </c>
-      <c r="S8" s="152"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174"/>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="174"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="165"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="32" t="s">
         <v>876</v>
       </c>
@@ -18450,70 +18483,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="157"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="176"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="110" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="113" t="s">
         <v>887</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="K10" s="144" t="s">
+      <c r="K10" s="113" t="s">
         <v>888</v>
       </c>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
       <c r="Q10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="R10" s="144" t="s">
+      <c r="R10" s="113" t="s">
         <v>889</v>
       </c>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
       <c r="X10" s="35" t="s">
         <v>866</v>
       </c>
@@ -18526,1021 +18559,1021 @@
       <c r="AC10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="AD10" s="144" t="s">
+      <c r="AD10" s="113" t="s">
         <v>891</v>
       </c>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="144"/>
-      <c r="AJ10" s="145"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="114"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="73" t="s">
         <v>870</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="115" t="s">
         <v>892</v>
       </c>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
       <c r="K11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="L11" s="146" t="s">
+      <c r="L11" s="115" t="s">
         <v>893</v>
       </c>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="Q11" s="146" t="s">
+      <c r="Q11" s="115" t="s">
         <v>894</v>
       </c>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
       <c r="U11" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="V11" s="146" t="s">
+      <c r="V11" s="115" t="s">
         <v>895</v>
       </c>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="147" t="s">
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="116" t="s">
         <v>876</v>
       </c>
-      <c r="AA11" s="148" t="s">
+      <c r="AA11" s="118" t="s">
         <v>884</v>
       </c>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="148"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="148"/>
-      <c r="AJ11" s="149"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="119"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="122" t="s">
         <v>896</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
       <c r="K12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="L12" s="135" t="s">
+      <c r="L12" s="122" t="s">
         <v>897</v>
       </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="Q12" s="135" t="s">
+      <c r="Q12" s="122" t="s">
         <v>898</v>
       </c>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
       <c r="U12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="V12" s="135" t="s">
+      <c r="V12" s="122" t="s">
         <v>899</v>
       </c>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="151"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="121"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="123" t="s">
         <v>900</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="G13" s="133" t="s">
+      <c r="G13" s="129" t="s">
         <v>901</v>
       </c>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
       <c r="J13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="K13" s="133" t="s">
+      <c r="K13" s="129" t="s">
         <v>902</v>
       </c>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="O13" s="133" t="s">
+      <c r="O13" s="129" t="s">
         <v>903</v>
       </c>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
       <c r="R13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="S13" s="133" t="s">
+      <c r="S13" s="129" t="s">
         <v>884</v>
       </c>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="133"/>
-      <c r="AA13" s="133"/>
-      <c r="AB13" s="133"/>
-      <c r="AC13" s="133"/>
-      <c r="AD13" s="133"/>
-      <c r="AE13" s="133"/>
-      <c r="AF13" s="133"/>
-      <c r="AG13" s="133"/>
-      <c r="AH13" s="133"/>
-      <c r="AI13" s="133"/>
-      <c r="AJ13" s="134"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="129"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="129"/>
+      <c r="AJ13" s="130"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="141"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="G14" s="135" t="s">
+      <c r="G14" s="122" t="s">
         <v>904</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="122" t="s">
         <v>905</v>
       </c>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="O14" s="135" t="s">
+      <c r="O14" s="122" t="s">
         <v>906</v>
       </c>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
       <c r="R14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="S14" s="135" t="s">
+      <c r="S14" s="122" t="s">
         <v>907</v>
       </c>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="W14" s="135" t="s">
+      <c r="W14" s="122" t="s">
         <v>884</v>
       </c>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="136"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="137"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="131"/>
+      <c r="AJ14" s="132"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="73" t="s">
         <v>908</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="120" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="133" t="s">
         <v>909</v>
       </c>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121" t="s">
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134" t="s">
         <v>910</v>
       </c>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="122"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="134"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="135"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="123" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="138"/>
+      <c r="AJ16" s="139"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="129"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="141"/>
+      <c r="X17" s="141"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="141"/>
+      <c r="AA17" s="141"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="141"/>
+      <c r="AD17" s="141"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="141"/>
+      <c r="AG17" s="141"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="141"/>
+      <c r="AJ17" s="142"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="129"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="141"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="141"/>
+      <c r="Y18" s="141"/>
+      <c r="Z18" s="141"/>
+      <c r="AA18" s="141"/>
+      <c r="AB18" s="141"/>
+      <c r="AC18" s="141"/>
+      <c r="AD18" s="141"/>
+      <c r="AE18" s="141"/>
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="141"/>
+      <c r="AH18" s="141"/>
+      <c r="AI18" s="141"/>
+      <c r="AJ18" s="142"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="129"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="141"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="141"/>
+      <c r="AI19" s="141"/>
+      <c r="AJ19" s="142"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="132"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="144"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="145" t="s">
         <v>912</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="96"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="155"/>
+      <c r="AG21" s="155"/>
+      <c r="AH21" s="155"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="156"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="99"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
+      <c r="AB22" s="158"/>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="158"/>
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="158"/>
+      <c r="AJ22" s="159"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="102"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="161"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="161"/>
+      <c r="AJ23" s="162"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="163" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="106" t="s">
+      <c r="B24" s="164"/>
+      <c r="C24" s="169" t="s">
         <v>913</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="171" t="s">
         <v>914</v>
       </c>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="108" t="s">
+      <c r="O24" s="169"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="169"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="169"/>
+      <c r="T24" s="169"/>
+      <c r="U24" s="169"/>
+      <c r="V24" s="169"/>
+      <c r="W24" s="169"/>
+      <c r="X24" s="170"/>
+      <c r="Y24" s="171" t="s">
         <v>915</v>
       </c>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="107"/>
+      <c r="Z24" s="169"/>
+      <c r="AA24" s="169"/>
+      <c r="AB24" s="169"/>
+      <c r="AC24" s="169"/>
+      <c r="AD24" s="169"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="169"/>
+      <c r="AJ24" s="170"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
+      <c r="Y26" s="174"/>
+      <c r="Z26" s="175"/>
+      <c r="AA26" s="175"/>
+      <c r="AB26" s="175"/>
+      <c r="AC26" s="175"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="175"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="163" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="81" t="s">
+      <c r="B27" s="176"/>
+      <c r="C27" s="179" t="s">
         <v>917</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="81" t="s">
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="179" t="s">
         <v>918</v>
       </c>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81" t="s">
+      <c r="O27" s="179"/>
+      <c r="P27" s="179"/>
+      <c r="Q27" s="179"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="179"/>
+      <c r="T27" s="179"/>
+      <c r="U27" s="179"/>
+      <c r="V27" s="179"/>
+      <c r="W27" s="179"/>
+      <c r="X27" s="179"/>
+      <c r="Y27" s="179" t="s">
         <v>919</v>
       </c>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="179"/>
+      <c r="AC27" s="179"/>
+      <c r="AD27" s="179"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="179"/>
+      <c r="AG27" s="179"/>
+      <c r="AH27" s="179"/>
+      <c r="AI27" s="179"/>
+      <c r="AJ27" s="179"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
+      <c r="Y28" s="172"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="173"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="182"/>
+      <c r="AC29" s="182"/>
+      <c r="AD29" s="182"/>
+      <c r="AE29" s="182"/>
+      <c r="AF29" s="182"/>
+      <c r="AG29" s="182"/>
+      <c r="AH29" s="182"/>
+      <c r="AI29" s="182"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="83" t="s">
+      <c r="A30" s="167"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="183" t="s">
         <v>920</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84" t="s">
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="184" t="s">
         <v>921</v>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="184"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="184"/>
+      <c r="AD30" s="184"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="184"/>
+      <c r="AG30" s="184"/>
+      <c r="AH30" s="184"/>
+      <c r="AI30" s="184"/>
+      <c r="AJ30" s="184"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="186" t="s">
         <v>922</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="186"/>
+      <c r="C31" s="181" t="s">
         <v>913</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="68" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="181" t="s">
         <v>914</v>
       </c>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="68" t="s">
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="181" t="s">
         <v>915</v>
       </c>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="70"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="182"/>
+      <c r="AC31" s="182"/>
+      <c r="AD31" s="182"/>
+      <c r="AE31" s="182"/>
+      <c r="AF31" s="182"/>
+      <c r="AG31" s="182"/>
+      <c r="AH31" s="182"/>
+      <c r="AI31" s="182"/>
+      <c r="AJ31" s="188"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
+      <c r="Y32" s="172"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="68"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="73">
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="182"/>
+      <c r="AC33" s="182"/>
+      <c r="AD33" s="182"/>
+      <c r="AE33" s="182"/>
+      <c r="AF33" s="182"/>
+      <c r="AG33" s="182"/>
+      <c r="AH33" s="182"/>
+      <c r="AI33" s="189">
         <v>10</v>
       </c>
-      <c r="AJ33" s="74"/>
+      <c r="AJ33" s="190"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -19617,13 +19650,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="65" t="str">
+      <c r="AG35" s="185" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
+      <c r="AH35" s="185"/>
+      <c r="AI35" s="185"/>
+      <c r="AJ35" s="185"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -19633,12 +19666,72 @@
     <protectedRange sqref="F4:F5 N4:N5 R4:R5 J4:K5 P4:P5 U4:U5 Z4:Z5 AE4:AE5" name="權限審查_1_1"/>
   </protectedRanges>
   <mergeCells count="88">
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="N32:W33"/>
+    <mergeCell ref="Y32:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="C28:L29"/>
+    <mergeCell ref="N28:W29"/>
+    <mergeCell ref="Y28:AI29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:AJ30"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="F21:AJ23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="N25:W26"/>
+    <mergeCell ref="Y25:AI26"/>
+    <mergeCell ref="A15:E20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:AJ16"/>
+    <mergeCell ref="F17:AJ20"/>
+    <mergeCell ref="V13:AJ13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AJ14"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AJ12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="R10:W10"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
@@ -19655,72 +19748,12 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AJ12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AJ13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AJ14"/>
-    <mergeCell ref="A15:E20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:AJ16"/>
-    <mergeCell ref="F17:AJ20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="F21:AJ23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="N25:W26"/>
-    <mergeCell ref="Y25:AI26"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="C28:L29"/>
-    <mergeCell ref="N28:W29"/>
-    <mergeCell ref="Y28:AI29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:AJ30"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="C32:L33"/>
-    <mergeCell ref="N32:W33"/>
-    <mergeCell ref="Y32:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1368">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5101,6 +5101,22 @@
   </si>
   <si>
     <t>N123452402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外國人OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年-iOS OK 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年-iOS_OK_17歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試刪除GID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5625,7 +5641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5764,7 +5780,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5773,6 +5788,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6638,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G568" sqref="G568"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G463" sqref="G463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13764,7 +13782,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>910000343</v>
       </c>
@@ -15968,6 +15986,9 @@
       <c r="G456" t="s">
         <v>1117</v>
       </c>
+      <c r="H456" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457">
@@ -16424,24 +16445,24 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A479">
+    <row r="479" spans="1:9" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="9">
         <v>910000515</v>
       </c>
-      <c r="C479" s="53" t="s">
+      <c r="C479" s="9" t="s">
         <v>1180</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="E479" s="2">
+      <c r="E479" s="57">
         <v>39448</v>
       </c>
-      <c r="F479" t="s">
+      <c r="F479" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="G479" t="s">
-        <v>1171</v>
+      <c r="G479" s="9" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -16597,7 +16618,7 @@
       <c r="A487" s="54">
         <v>910000523</v>
       </c>
-      <c r="B487" s="59"/>
+      <c r="B487" s="58"/>
       <c r="C487" s="55" t="s">
         <v>1202</v>
       </c>
@@ -16613,7 +16634,7 @@
       <c r="A488" s="54">
         <v>910000524</v>
       </c>
-      <c r="B488" s="59" t="s">
+      <c r="B488" s="58" t="s">
         <v>1205</v>
       </c>
       <c r="C488" s="55" t="s">
@@ -16650,30 +16671,30 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A490" s="54">
+    <row r="490" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="64">
         <v>910000526</v>
       </c>
-      <c r="B490" s="54"/>
-      <c r="C490" s="55" t="s">
+      <c r="B490" s="64"/>
+      <c r="C490" s="64" t="s">
         <v>1208</v>
       </c>
-      <c r="D490" s="54" t="s">
+      <c r="D490" s="64" t="s">
         <v>1063</v>
       </c>
-      <c r="E490" s="56">
-        <v>39448</v>
-      </c>
-      <c r="F490" s="54" t="s">
+      <c r="E490" s="65">
+        <v>39814</v>
+      </c>
+      <c r="F490" s="64" t="s">
         <v>1209</v>
       </c>
-      <c r="G490" s="54" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H490" s="58" t="s">
+      <c r="G490" s="64" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H490" s="66" t="s">
         <v>1229</v>
       </c>
-      <c r="I490" s="54"/>
+      <c r="I490" s="64"/>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="54">
@@ -16695,7 +16716,9 @@
       <c r="G491" s="54" t="s">
         <v>1212</v>
       </c>
-      <c r="H491" s="60"/>
+      <c r="H491" s="59" t="s">
+        <v>1364</v>
+      </c>
       <c r="I491" s="54" t="s">
         <v>426</v>
       </c>
@@ -16713,7 +16736,7 @@
       <c r="E492" s="56">
         <v>39448</v>
       </c>
-      <c r="F492" s="61" t="s">
+      <c r="F492" s="60" t="s">
         <v>1214</v>
       </c>
       <c r="G492" s="54" t="s">
@@ -16733,7 +16756,7 @@
       <c r="E493" s="56">
         <v>39448</v>
       </c>
-      <c r="F493" s="61" t="s">
+      <c r="F493" s="60" t="s">
         <v>1216</v>
       </c>
       <c r="G493" s="54" t="s">
@@ -16756,7 +16779,7 @@
       <c r="E494" s="56">
         <v>39448</v>
       </c>
-      <c r="F494" s="61" t="s">
+      <c r="F494" s="60" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -16773,13 +16796,13 @@
       <c r="E495" s="56">
         <v>39448</v>
       </c>
-      <c r="F495" s="61" t="s">
+      <c r="F495" s="60" t="s">
         <v>1220</v>
       </c>
       <c r="G495" s="54" t="s">
         <v>1171</v>
       </c>
-      <c r="H495" s="61" t="s">
+      <c r="H495" s="60" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -16796,7 +16819,7 @@
       <c r="E496" s="56">
         <v>36892</v>
       </c>
-      <c r="F496" s="61" t="s">
+      <c r="F496" s="60" t="s">
         <v>1224</v>
       </c>
       <c r="H496" t="s">
@@ -16819,7 +16842,7 @@
       <c r="E497" s="56">
         <v>36892</v>
       </c>
-      <c r="F497" s="61" t="s">
+      <c r="F497" s="60" t="s">
         <v>1227</v>
       </c>
       <c r="H497" t="s">
@@ -16839,7 +16862,7 @@
       <c r="E498" s="56">
         <v>36892</v>
       </c>
-      <c r="F498" s="61" t="s">
+      <c r="F498" s="60" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -16870,7 +16893,7 @@
       <c r="E500" s="56">
         <v>36892</v>
       </c>
-      <c r="F500" s="61" t="s">
+      <c r="F500" s="60" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -17121,7 +17144,7 @@
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A516" s="61">
+      <c r="A516" s="60">
         <v>910000551</v>
       </c>
       <c r="B516" t="s">
@@ -17138,7 +17161,7 @@
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A517" s="61">
+      <c r="A517" s="60">
         <v>910000552</v>
       </c>
       <c r="B517" t="s">
@@ -17161,7 +17184,7 @@
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A518" s="61">
+      <c r="A518" s="60">
         <v>910000553</v>
       </c>
       <c r="B518" t="s">
@@ -17178,7 +17201,7 @@
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A519" s="61">
+      <c r="A519" s="60">
         <v>910000554</v>
       </c>
       <c r="B519" t="s">
@@ -17195,7 +17218,7 @@
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A520" s="61">
+      <c r="A520" s="60">
         <v>910000555</v>
       </c>
       <c r="C520" s="55" t="s">
@@ -17209,7 +17232,7 @@
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A521" s="61">
+      <c r="A521" s="60">
         <v>910000556</v>
       </c>
       <c r="B521" t="s">
@@ -17226,7 +17249,7 @@
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A522" s="61">
+      <c r="A522" s="60">
         <v>910000557</v>
       </c>
       <c r="B522" t="s">
@@ -17243,7 +17266,7 @@
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A523" s="61">
+      <c r="A523" s="60">
         <v>910000558</v>
       </c>
       <c r="C523" s="55" t="s">
@@ -17254,7 +17277,7 @@
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A524" s="61">
+      <c r="A524" s="60">
         <v>910000559</v>
       </c>
       <c r="C524" s="55" t="s">
@@ -17268,7 +17291,7 @@
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A525" s="61">
+      <c r="A525" s="60">
         <v>910000560</v>
       </c>
       <c r="B525" t="s">
@@ -17288,7 +17311,7 @@
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A526" s="61">
+      <c r="A526" s="60">
         <v>910000561</v>
       </c>
       <c r="B526" t="s">
@@ -17303,12 +17326,12 @@
       <c r="E526" s="2">
         <v>39814</v>
       </c>
-      <c r="F526" s="62" t="s">
+      <c r="F526" s="61" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A527" s="61">
+      <c r="A527" s="60">
         <v>910000562</v>
       </c>
       <c r="B527" t="s">
@@ -17323,7 +17346,7 @@
       <c r="E527" s="2">
         <v>36526</v>
       </c>
-      <c r="F527" s="62" t="s">
+      <c r="F527" s="61" t="s">
         <v>1288</v>
       </c>
       <c r="G527" t="s">
@@ -17331,7 +17354,7 @@
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A528" s="61">
+      <c r="A528" s="60">
         <v>910000563</v>
       </c>
       <c r="B528" t="s">
@@ -17346,12 +17369,12 @@
       <c r="E528" s="2">
         <v>36526</v>
       </c>
-      <c r="F528" s="63" t="s">
+      <c r="F528" s="62" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A529" s="61">
+      <c r="A529" s="60">
         <v>910000564</v>
       </c>
       <c r="B529" t="s">
@@ -17366,7 +17389,7 @@
       <c r="E529" s="2">
         <v>36526</v>
       </c>
-      <c r="F529" s="63" t="s">
+      <c r="F529" s="62" t="s">
         <v>1293</v>
       </c>
       <c r="G529" t="s">
@@ -17374,7 +17397,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A530" s="61">
+      <c r="A530" s="60">
         <v>910000565</v>
       </c>
       <c r="C530" s="55" t="s">
@@ -17391,7 +17414,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A531" s="61">
+      <c r="A531" s="60">
         <v>910000566</v>
       </c>
       <c r="C531" s="55" t="s">
@@ -17408,7 +17431,7 @@
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A532" s="61">
+      <c r="A532" s="60">
         <v>910000567</v>
       </c>
       <c r="B532" t="s">
@@ -17428,7 +17451,7 @@
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A533" s="61">
+      <c r="A533" s="60">
         <v>910000568</v>
       </c>
       <c r="B533" t="s">
@@ -17448,7 +17471,7 @@
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A534" s="61">
+      <c r="A534" s="60">
         <v>910000569</v>
       </c>
       <c r="B534" t="s">
@@ -17463,12 +17486,12 @@
       <c r="E534" s="2">
         <v>36526</v>
       </c>
-      <c r="F534" s="62" t="s">
+      <c r="F534" s="61" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A535" s="61">
+      <c r="A535" s="60">
         <v>910000570</v>
       </c>
       <c r="B535" t="s">
@@ -17483,12 +17506,12 @@
       <c r="E535" s="2">
         <v>10816</v>
       </c>
-      <c r="F535" s="63" t="s">
+      <c r="F535" s="62" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A536" s="61">
+      <c r="A536" s="60">
         <v>910000571</v>
       </c>
       <c r="B536" t="s">
@@ -17503,12 +17526,12 @@
       <c r="E536" s="2">
         <v>36526</v>
       </c>
-      <c r="F536" s="62" t="s">
+      <c r="F536" s="61" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A537" s="61">
+      <c r="A537" s="60">
         <v>910000572</v>
       </c>
       <c r="B537" t="s">
@@ -17523,12 +17546,12 @@
       <c r="E537" s="2">
         <v>36526</v>
       </c>
-      <c r="F537" s="62" t="s">
+      <c r="F537" s="61" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A538" s="61">
+      <c r="A538" s="60">
         <v>910000573</v>
       </c>
       <c r="B538" t="s">
@@ -17540,12 +17563,12 @@
       <c r="D538" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="F538" s="63" t="s">
+      <c r="F538" s="62" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A539" s="61">
+      <c r="A539" s="60">
         <v>910000574</v>
       </c>
       <c r="B539" t="s">
@@ -17560,12 +17583,12 @@
       <c r="E539" s="2">
         <v>36526</v>
       </c>
-      <c r="F539" s="63" t="s">
+      <c r="F539" s="62" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A540" s="61">
+      <c r="A540" s="60">
         <v>910000575</v>
       </c>
       <c r="B540" t="s">
@@ -17580,15 +17603,15 @@
       <c r="E540" s="2">
         <v>36526</v>
       </c>
-      <c r="F540" s="62" t="s">
+      <c r="F540" s="61" t="s">
         <v>1319</v>
       </c>
-      <c r="G540" s="62" t="s">
+      <c r="G540" s="61" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A541" s="61">
+      <c r="A541" s="60">
         <v>910000576</v>
       </c>
       <c r="B541" t="s">
@@ -17603,15 +17626,15 @@
       <c r="E541" s="2">
         <v>36526</v>
       </c>
-      <c r="F541" s="62" t="s">
+      <c r="F541" s="61" t="s">
         <v>1322</v>
       </c>
-      <c r="G541" s="62" t="s">
+      <c r="G541" s="61" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A542" s="61">
+      <c r="A542" s="60">
         <v>910000577</v>
       </c>
       <c r="B542" t="s">
@@ -17623,7 +17646,7 @@
       <c r="D542" s="54" t="s">
         <v>1328</v>
       </c>
-      <c r="F542" s="63" t="s">
+      <c r="F542" s="62" t="s">
         <v>1326</v>
       </c>
       <c r="G542" t="s">
@@ -17631,7 +17654,7 @@
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A543" s="61">
+      <c r="A543" s="60">
         <v>910000578</v>
       </c>
       <c r="B543" t="s">
@@ -17646,7 +17669,7 @@
       <c r="E543" s="2">
         <v>36526</v>
       </c>
-      <c r="F543" s="62" t="s">
+      <c r="F543" s="61" t="s">
         <v>1329</v>
       </c>
       <c r="G543" t="s">
@@ -17654,7 +17677,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A544" s="61">
+      <c r="A544" s="60">
         <v>910000579</v>
       </c>
       <c r="C544" s="55" t="s">
@@ -17665,7 +17688,7 @@
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A545" s="61">
+      <c r="A545" s="60">
         <v>910000580</v>
       </c>
       <c r="B545" t="s">
@@ -17685,7 +17708,7 @@
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A546" s="61">
+      <c r="A546" s="60">
         <v>910000581</v>
       </c>
       <c r="B546" t="s">
@@ -17700,12 +17723,12 @@
       <c r="E546" s="2">
         <v>39448</v>
       </c>
-      <c r="F546" s="62" t="s">
+      <c r="F546" s="61" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A547" s="61">
+      <c r="A547" s="60">
         <v>910000582</v>
       </c>
       <c r="B547" t="s">
@@ -17720,12 +17743,12 @@
       <c r="E547" s="2">
         <v>39448</v>
       </c>
-      <c r="F547" s="62" t="s">
+      <c r="F547" s="61" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A548" s="61">
+      <c r="A548" s="60">
         <v>910000583</v>
       </c>
       <c r="B548" t="s">
@@ -17740,12 +17763,12 @@
       <c r="E548" s="2">
         <v>39448</v>
       </c>
-      <c r="F548" s="64" t="s">
+      <c r="F548" s="63" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A549" s="61">
+      <c r="A549" s="60">
         <v>910000584</v>
       </c>
       <c r="B549" t="s">
@@ -17765,7 +17788,7 @@
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A550" s="61">
+      <c r="A550" s="60">
         <v>910000585</v>
       </c>
       <c r="C550" s="55" t="s">
@@ -17785,7 +17808,7 @@
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A551" s="61">
+      <c r="A551" s="60">
         <v>910000586</v>
       </c>
       <c r="B551" t="s">
@@ -17805,7 +17828,7 @@
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A552" s="61">
+      <c r="A552" s="60">
         <v>910000587</v>
       </c>
       <c r="C552" s="55" t="s">
@@ -17822,7 +17845,7 @@
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A553" s="61">
+      <c r="A553" s="60">
         <v>910000588</v>
       </c>
       <c r="C553" s="55" t="s">
@@ -17839,7 +17862,7 @@
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A554" s="61">
+      <c r="A554" s="60">
         <v>910000589</v>
       </c>
       <c r="B554" t="s">
@@ -17859,7 +17882,7 @@
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A555" s="61">
+      <c r="A555" s="60">
         <v>910000590</v>
       </c>
       <c r="B555" t="s">
@@ -17867,12 +17890,12 @@
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A556" s="61">
+      <c r="A556" s="60">
         <v>910000591</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A557" s="61">
+      <c r="A557" s="60">
         <v>910000592</v>
       </c>
       <c r="C557" s="55" t="s">
@@ -18035,44 +18058,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -18097,107 +18120,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="68" t="s">
         <v>863</v>
       </c>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
       <c r="X2" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="Y2" s="67" t="s">
+      <c r="Y2" s="69" t="s">
         <v>865</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
       <c r="AB2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AC2" s="68" t="s">
+      <c r="AC2" s="70" t="s">
         <v>867</v>
       </c>
-      <c r="AD2" s="68"/>
+      <c r="AD2" s="70"/>
       <c r="AE2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AF2" s="67" t="s">
+      <c r="AF2" s="69" t="s">
         <v>868</v>
       </c>
-      <c r="AG2" s="67"/>
+      <c r="AG2" s="69"/>
       <c r="AH2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AI2" s="68" t="s">
+      <c r="AI2" s="70" t="s">
         <v>869</v>
       </c>
-      <c r="AJ2" s="68"/>
+      <c r="AJ2" s="70"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="101" t="s">
         <v>871</v>
       </c>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="101">
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103">
         <f ca="1">YEAR(NOW())</f>
         <v>2025</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="69" t="s">
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="71" t="s">
         <v>872</v>
       </c>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="103">
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="105">
         <f ca="1">MONTH(NOW())</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="69" t="s">
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="71" t="s">
         <v>873</v>
       </c>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="71">
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="73">
         <f ca="1">DAY(NOW())</f>
-        <v>8</v>
-      </c>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="71" t="s">
         <v>874</v>
       </c>
-      <c r="AJ3" s="72"/>
+      <c r="AJ3" s="74"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>875</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="17" t="s">
         <v>876</v>
       </c>
@@ -18261,11 +18284,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="21" t="s">
         <v>876</v>
       </c>
@@ -18324,28 +18347,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>877</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="87" t="s">
         <v>878</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
       <c r="Q6" s="18" t="s">
         <v>876</v>
       </c>
@@ -18357,43 +18380,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="86" t="s">
+      <c r="X6" s="88" t="s">
         <v>880</v>
       </c>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="96" t="s">
         <v>881</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
       <c r="Q7" s="23" t="s">
         <v>876</v>
       </c>
@@ -18405,72 +18428,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="96" t="s">
         <v>883</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
       <c r="Q8" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="R8" s="94" t="s">
+      <c r="R8" s="96" t="s">
         <v>884</v>
       </c>
-      <c r="S8" s="94"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="32" t="s">
         <v>876</v>
       </c>
@@ -18483,70 +18506,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="95"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="112" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="115" t="s">
         <v>887</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="K10" s="113" t="s">
+      <c r="K10" s="115" t="s">
         <v>888</v>
       </c>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
       <c r="Q10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="R10" s="113" t="s">
+      <c r="R10" s="115" t="s">
         <v>889</v>
       </c>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
       <c r="X10" s="35" t="s">
         <v>866</v>
       </c>
@@ -18559,1021 +18582,1021 @@
       <c r="AC10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="AD10" s="113" t="s">
+      <c r="AD10" s="115" t="s">
         <v>891</v>
       </c>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="114"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="116"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>870</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="117" t="s">
         <v>892</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="117" t="s">
         <v>893</v>
       </c>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
       <c r="P11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="Q11" s="115" t="s">
+      <c r="Q11" s="117" t="s">
         <v>894</v>
       </c>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
       <c r="U11" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="V11" s="115" t="s">
+      <c r="V11" s="117" t="s">
         <v>895</v>
       </c>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="116" t="s">
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118" t="s">
         <v>876</v>
       </c>
-      <c r="AA11" s="118" t="s">
+      <c r="AA11" s="120" t="s">
         <v>884</v>
       </c>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="119"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="121"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="124" t="s">
         <v>896</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="124" t="s">
         <v>897</v>
       </c>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
       <c r="P12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="Q12" s="122" t="s">
+      <c r="Q12" s="124" t="s">
         <v>898</v>
       </c>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
       <c r="U12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="124" t="s">
         <v>899</v>
       </c>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="123"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="125" t="s">
         <v>900</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="131" t="s">
         <v>901</v>
       </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="K13" s="129" t="s">
+      <c r="K13" s="131" t="s">
         <v>902</v>
       </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="O13" s="129" t="s">
+      <c r="O13" s="131" t="s">
         <v>903</v>
       </c>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
       <c r="R13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="S13" s="129" t="s">
+      <c r="S13" s="131" t="s">
         <v>884</v>
       </c>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="130"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="131"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="132"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="124" t="s">
         <v>904</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="K14" s="122" t="s">
+      <c r="K14" s="124" t="s">
         <v>905</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="O14" s="122" t="s">
+      <c r="O14" s="124" t="s">
         <v>906</v>
       </c>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
       <c r="R14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="S14" s="122" t="s">
+      <c r="S14" s="124" t="s">
         <v>907</v>
       </c>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
       <c r="V14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="W14" s="122" t="s">
+      <c r="W14" s="124" t="s">
         <v>884</v>
       </c>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="131"/>
-      <c r="AJ14" s="132"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="134"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="75" t="s">
         <v>908</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="133" t="s">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="135" t="s">
         <v>909</v>
       </c>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134" t="s">
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136" t="s">
         <v>910</v>
       </c>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="134"/>
-      <c r="AD15" s="134"/>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="134"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="134"/>
-      <c r="AJ15" s="135"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="137"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="136" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="138" t="s">
         <v>911</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="138"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="141"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="141"/>
-      <c r="AJ17" s="142"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="143"/>
+      <c r="AJ17" s="144"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="141"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="141"/>
-      <c r="AF18" s="141"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="141"/>
-      <c r="AJ18" s="142"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AJ18" s="144"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="141"/>
-      <c r="AJ19" s="142"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="143"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="143"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="143"/>
+      <c r="AD19" s="143"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="143"/>
+      <c r="AJ19" s="144"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="144"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="119"/>
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="119"/>
+      <c r="AJ20" s="146"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="147" t="s">
         <v>912</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="155"/>
-      <c r="AG21" s="155"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="155"/>
-      <c r="AJ21" s="156"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="157"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="157"/>
+      <c r="Z21" s="157"/>
+      <c r="AA21" s="157"/>
+      <c r="AB21" s="157"/>
+      <c r="AC21" s="157"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="157"/>
+      <c r="AH21" s="157"/>
+      <c r="AI21" s="157"/>
+      <c r="AJ21" s="158"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="159"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="160"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="161"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="151"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="161"/>
-      <c r="AC23" s="161"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="161"/>
-      <c r="AF23" s="161"/>
-      <c r="AG23" s="161"/>
-      <c r="AH23" s="161"/>
-      <c r="AI23" s="161"/>
-      <c r="AJ23" s="162"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
+      <c r="S23" s="163"/>
+      <c r="T23" s="163"/>
+      <c r="U23" s="163"/>
+      <c r="V23" s="163"/>
+      <c r="W23" s="163"/>
+      <c r="X23" s="163"/>
+      <c r="Y23" s="163"/>
+      <c r="Z23" s="163"/>
+      <c r="AA23" s="163"/>
+      <c r="AB23" s="163"/>
+      <c r="AC23" s="163"/>
+      <c r="AD23" s="163"/>
+      <c r="AE23" s="163"/>
+      <c r="AF23" s="163"/>
+      <c r="AG23" s="163"/>
+      <c r="AH23" s="163"/>
+      <c r="AI23" s="163"/>
+      <c r="AJ23" s="164"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
+      <c r="A24" s="165" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="164"/>
-      <c r="C24" s="169" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="171" t="s">
         <v>913</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="171" t="s">
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="173" t="s">
         <v>914</v>
       </c>
-      <c r="O24" s="169"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
-      <c r="T24" s="169"/>
-      <c r="U24" s="169"/>
-      <c r="V24" s="169"/>
-      <c r="W24" s="169"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="171" t="s">
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="173" t="s">
         <v>915</v>
       </c>
-      <c r="Z24" s="169"/>
-      <c r="AA24" s="169"/>
-      <c r="AB24" s="169"/>
-      <c r="AC24" s="169"/>
-      <c r="AD24" s="169"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="169"/>
-      <c r="AG24" s="169"/>
-      <c r="AH24" s="169"/>
-      <c r="AI24" s="169"/>
-      <c r="AJ24" s="170"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="171"/>
+      <c r="AD24" s="171"/>
+      <c r="AE24" s="171"/>
+      <c r="AF24" s="171"/>
+      <c r="AG24" s="171"/>
+      <c r="AH24" s="171"/>
+      <c r="AI24" s="171"/>
+      <c r="AJ24" s="172"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="165"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="173"/>
-      <c r="W25" s="173"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
-      <c r="AI25" s="173"/>
+      <c r="Y25" s="174"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="175"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="175"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="175"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="175"/>
+      <c r="AI25" s="175"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="174"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="175"/>
-      <c r="U26" s="175"/>
-      <c r="V26" s="175"/>
-      <c r="W26" s="175"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="175"/>
-      <c r="AA26" s="175"/>
-      <c r="AB26" s="175"/>
-      <c r="AC26" s="175"/>
-      <c r="AD26" s="175"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="175"/>
-      <c r="AG26" s="175"/>
-      <c r="AH26" s="175"/>
-      <c r="AI26" s="175"/>
+      <c r="Y26" s="176"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="177"/>
+      <c r="AG26" s="177"/>
+      <c r="AH26" s="177"/>
+      <c r="AI26" s="177"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="165" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="176"/>
-      <c r="C27" s="179" t="s">
+      <c r="B27" s="178"/>
+      <c r="C27" s="181" t="s">
         <v>917</v>
       </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="179" t="s">
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="181" t="s">
         <v>918</v>
       </c>
-      <c r="O27" s="179"/>
-      <c r="P27" s="179"/>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="179"/>
-      <c r="T27" s="179"/>
-      <c r="U27" s="179"/>
-      <c r="V27" s="179"/>
-      <c r="W27" s="179"/>
-      <c r="X27" s="179"/>
-      <c r="Y27" s="179" t="s">
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181" t="s">
         <v>919</v>
       </c>
-      <c r="Z27" s="179"/>
-      <c r="AA27" s="179"/>
-      <c r="AB27" s="179"/>
-      <c r="AC27" s="179"/>
-      <c r="AD27" s="179"/>
-      <c r="AE27" s="179"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="179"/>
-      <c r="AJ27" s="179"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="181"/>
+      <c r="AD27" s="181"/>
+      <c r="AE27" s="181"/>
+      <c r="AF27" s="181"/>
+      <c r="AG27" s="181"/>
+      <c r="AH27" s="181"/>
+      <c r="AI27" s="181"/>
+      <c r="AJ27" s="181"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="165"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="175"/>
+      <c r="AE28" s="175"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="175"/>
+      <c r="AH28" s="175"/>
+      <c r="AI28" s="175"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="165"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="181"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
+      <c r="W29" s="184"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="181"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="182"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="182"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="184"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="184"/>
+      <c r="AE29" s="184"/>
+      <c r="AF29" s="184"/>
+      <c r="AG29" s="184"/>
+      <c r="AH29" s="184"/>
+      <c r="AI29" s="184"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="167"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="183" t="s">
+      <c r="A30" s="169"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="185" t="s">
         <v>920</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="184" t="s">
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="186" t="s">
         <v>921</v>
       </c>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="184"/>
-      <c r="AD30" s="184"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="184"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="184"/>
-      <c r="AJ30" s="184"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+      <c r="AB30" s="186"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="186"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="186"/>
+      <c r="AH30" s="186"/>
+      <c r="AI30" s="186"/>
+      <c r="AJ30" s="186"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="186" t="s">
+      <c r="A31" s="188" t="s">
         <v>922</v>
       </c>
-      <c r="B31" s="186"/>
-      <c r="C31" s="181" t="s">
+      <c r="B31" s="188"/>
+      <c r="C31" s="183" t="s">
         <v>913</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="181" t="s">
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="183" t="s">
         <v>914</v>
       </c>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="181" t="s">
+      <c r="O31" s="184"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="184"/>
+      <c r="V31" s="184"/>
+      <c r="W31" s="184"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="183" t="s">
         <v>915</v>
       </c>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="182"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="182"/>
-      <c r="AJ31" s="188"/>
+      <c r="Z31" s="184"/>
+      <c r="AA31" s="184"/>
+      <c r="AB31" s="184"/>
+      <c r="AC31" s="184"/>
+      <c r="AD31" s="184"/>
+      <c r="AE31" s="184"/>
+      <c r="AF31" s="184"/>
+      <c r="AG31" s="184"/>
+      <c r="AH31" s="184"/>
+      <c r="AI31" s="184"/>
+      <c r="AJ31" s="190"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="187"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="175"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
+      <c r="Y32" s="174"/>
+      <c r="Z32" s="175"/>
+      <c r="AA32" s="175"/>
+      <c r="AB32" s="175"/>
+      <c r="AC32" s="175"/>
+      <c r="AD32" s="175"/>
+      <c r="AE32" s="175"/>
+      <c r="AF32" s="175"/>
+      <c r="AG32" s="175"/>
+      <c r="AH32" s="175"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="187"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="181"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="184"/>
+      <c r="W33" s="184"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="181"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="182"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="189">
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+      <c r="AD33" s="184"/>
+      <c r="AE33" s="184"/>
+      <c r="AF33" s="184"/>
+      <c r="AG33" s="184"/>
+      <c r="AH33" s="184"/>
+      <c r="AI33" s="191">
         <v>10</v>
       </c>
-      <c r="AJ33" s="190"/>
+      <c r="AJ33" s="192"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -19650,13 +19673,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="185" t="str">
+      <c r="AG35" s="187" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="185"/>
-      <c r="AI35" s="185"/>
-      <c r="AJ35" s="185"/>
+      <c r="AH35" s="187"/>
+      <c r="AI35" s="187"/>
+      <c r="AJ35" s="187"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1378">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5117,6 +5117,46 @@
   </si>
   <si>
     <t>測試刪除GID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK 用CK4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID:10536998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C187502693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B190580986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB塞資料聯邦信用卡出現此信卡尚未支援統一超商支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C138701524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655493</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6654,10 +6694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L557"/>
+  <dimension ref="A1:L560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G463" sqref="G463"/>
+    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C560" sqref="C560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -16230,6 +16270,12 @@
       <c r="F467" t="s">
         <v>1146</v>
       </c>
+      <c r="G467" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H467" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
@@ -17489,6 +17535,9 @@
       <c r="F534" s="61" t="s">
         <v>1305</v>
       </c>
+      <c r="G534" s="61" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="60">
@@ -17909,6 +17958,60 @@
       </c>
       <c r="F557" t="s">
         <v>1363</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A558" s="60">
+        <v>910000593</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C558" s="55" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D558" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E558" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A559" s="60">
+        <v>910000594</v>
+      </c>
+      <c r="C559" s="55" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D559" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E559" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A560" s="60">
+        <v>900000001</v>
+      </c>
+      <c r="C560" s="55" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D560" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E560" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -17922,7 +18025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -18196,7 +18299,7 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105">
         <f ca="1">MONTH(NOW())</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="106"/>
       <c r="AE3" s="71" t="s">
@@ -18205,7 +18308,7 @@
       <c r="AF3" s="72"/>
       <c r="AG3" s="73">
         <f ca="1">DAY(NOW())</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="73"/>
       <c r="AI3" s="71" t="s">

--- a/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
+++ b/ICP.Project/src/ICP.Host.ApiTest/大改版SIT使用門號.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="1381">
   <si>
     <t>Phonenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5157,6 +5157,17 @@
   </si>
   <si>
     <t>icp10655493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID 10537585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icp10655494</t>
+  </si>
+  <si>
+    <t>E102152057</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5831,245 +5842,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
@@ -6125,19 +5956,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6152,62 +5974,251 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6694,10 +6705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L560"/>
+  <dimension ref="A1:L561"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F561" sqref="F561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -17539,7 +17550,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="60">
         <v>910000570</v>
       </c>
@@ -17979,6 +17990,9 @@
       <c r="F558" t="s">
         <v>1371</v>
       </c>
+      <c r="G558" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="60">
@@ -18012,6 +18026,23 @@
       </c>
       <c r="F560" t="s">
         <v>1376</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" s="60">
+        <v>910000595</v>
+      </c>
+      <c r="C561" s="55" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D561" s="54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E561" s="2">
+        <v>36526</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -18025,7 +18056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -18161,44 +18192,44 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="189" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="str">
@@ -18223,107 +18254,107 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="68" t="s">
+      <c r="T2" s="190" t="s">
         <v>863</v>
       </c>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
       <c r="X2" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="191" t="s">
         <v>865</v>
       </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="191"/>
       <c r="AB2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AC2" s="70" t="s">
+      <c r="AC2" s="192" t="s">
         <v>867</v>
       </c>
-      <c r="AD2" s="70"/>
+      <c r="AD2" s="192"/>
       <c r="AE2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AF2" s="69" t="s">
+      <c r="AF2" s="191" t="s">
         <v>868</v>
       </c>
-      <c r="AG2" s="69"/>
+      <c r="AG2" s="191"/>
       <c r="AH2" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="AI2" s="70" t="s">
+      <c r="AI2" s="192" t="s">
         <v>869</v>
       </c>
-      <c r="AJ2" s="70"/>
+      <c r="AJ2" s="192"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="179" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="101" t="s">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183" t="s">
         <v>871</v>
       </c>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="103">
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="185">
         <f ca="1">YEAR(NOW())</f>
         <v>2025</v>
       </c>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="71" t="s">
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="163" t="s">
         <v>872</v>
       </c>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="105">
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="187">
         <f ca="1">MONTH(NOW())</f>
         <v>2</v>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="71" t="s">
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="163" t="s">
         <v>873</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="73">
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="165">
         <f ca="1">DAY(NOW())</f>
-        <v>5</v>
-      </c>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="163" t="s">
         <v>874</v>
       </c>
-      <c r="AJ3" s="74"/>
+      <c r="AJ3" s="166"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="113" t="s">
         <v>875</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="17" t="s">
         <v>876</v>
       </c>
@@ -18387,11 +18418,11 @@
       <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121"/>
       <c r="F5" s="21" t="s">
         <v>876</v>
       </c>
@@ -18450,28 +18481,28 @@
       <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="113" t="s">
         <v>877</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="170" t="s">
         <v>878</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
       <c r="Q6" s="18" t="s">
         <v>876</v>
       </c>
@@ -18483,43 +18514,43 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="88" t="s">
+      <c r="X6" s="171" t="s">
         <v>880</v>
       </c>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="91"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="91"/>
-      <c r="AI6" s="91"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="171"/>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="173"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="174"/>
       <c r="AJ6" s="28"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="154" t="s">
         <v>881</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
       <c r="Q7" s="23" t="s">
         <v>876</v>
       </c>
@@ -18531,72 +18562,72 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="172"/>
+      <c r="AB7" s="172"/>
+      <c r="AC7" s="175"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="176"/>
+      <c r="AF7" s="176"/>
+      <c r="AG7" s="176"/>
+      <c r="AH7" s="176"/>
+      <c r="AI7" s="176"/>
       <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="154" t="s">
         <v>883</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
       <c r="Q8" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="R8" s="96" t="s">
+      <c r="R8" s="154" t="s">
         <v>884</v>
       </c>
-      <c r="S8" s="96"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="155"/>
+      <c r="U8" s="155"/>
+      <c r="V8" s="155"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="176"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="176"/>
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="32" t="s">
         <v>876</v>
       </c>
@@ -18609,70 +18640,70 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="95"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="172"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="178"/>
+      <c r="AF9" s="178"/>
+      <c r="AG9" s="178"/>
+      <c r="AH9" s="178"/>
+      <c r="AI9" s="178"/>
       <c r="AJ9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="160" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
       <c r="F10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="146" t="s">
         <v>887</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="146" t="s">
         <v>888</v>
       </c>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
       <c r="Q10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="R10" s="115" t="s">
+      <c r="R10" s="146" t="s">
         <v>889</v>
       </c>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="146"/>
       <c r="X10" s="35" t="s">
         <v>866</v>
       </c>
@@ -18685,1021 +18716,1021 @@
       <c r="AC10" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="AD10" s="115" t="s">
+      <c r="AD10" s="146" t="s">
         <v>891</v>
       </c>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="116"/>
+      <c r="AE10" s="146"/>
+      <c r="AF10" s="146"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="146"/>
+      <c r="AI10" s="146"/>
+      <c r="AJ10" s="147"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="113" t="s">
         <v>870</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="148" t="s">
         <v>892</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="L11" s="117" t="s">
+      <c r="L11" s="148" t="s">
         <v>893</v>
       </c>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
       <c r="P11" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="Q11" s="117" t="s">
+      <c r="Q11" s="148" t="s">
         <v>894</v>
       </c>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
       <c r="U11" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="V11" s="117" t="s">
+      <c r="V11" s="148" t="s">
         <v>895</v>
       </c>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="118" t="s">
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="149" t="s">
         <v>876</v>
       </c>
-      <c r="AA11" s="120" t="s">
+      <c r="AA11" s="150" t="s">
         <v>884</v>
       </c>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="121"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="150"/>
+      <c r="AD11" s="150"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="150"/>
+      <c r="AI11" s="150"/>
+      <c r="AJ11" s="151"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="G12" s="124" t="s">
+      <c r="G12" s="137" t="s">
         <v>896</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
       <c r="K12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="L12" s="124" t="s">
+      <c r="L12" s="137" t="s">
         <v>897</v>
       </c>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
       <c r="P12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="Q12" s="124" t="s">
+      <c r="Q12" s="137" t="s">
         <v>898</v>
       </c>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
       <c r="U12" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="V12" s="124" t="s">
+      <c r="V12" s="137" t="s">
         <v>899</v>
       </c>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="123"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="153"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="140" t="s">
         <v>900</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="135" t="s">
         <v>901</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
       <c r="J13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="K13" s="131" t="s">
+      <c r="K13" s="135" t="s">
         <v>902</v>
       </c>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="N13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="O13" s="131" t="s">
+      <c r="O13" s="135" t="s">
         <v>903</v>
       </c>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
       <c r="R13" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="S13" s="131" t="s">
+      <c r="S13" s="135" t="s">
         <v>884</v>
       </c>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="132"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="136"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
       <c r="F14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="G14" s="124" t="s">
+      <c r="G14" s="137" t="s">
         <v>904</v>
       </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
       <c r="J14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="K14" s="124" t="s">
+      <c r="K14" s="137" t="s">
         <v>905</v>
       </c>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="O14" s="124" t="s">
+      <c r="O14" s="137" t="s">
         <v>906</v>
       </c>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
       <c r="R14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="S14" s="124" t="s">
+      <c r="S14" s="137" t="s">
         <v>907</v>
       </c>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
       <c r="V14" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="W14" s="124" t="s">
+      <c r="W14" s="137" t="s">
         <v>884</v>
       </c>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="133"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="133"/>
-      <c r="AC14" s="133"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="133"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="133"/>
-      <c r="AI14" s="133"/>
-      <c r="AJ14" s="134"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="138"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="138"/>
+      <c r="AJ14" s="139"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="113" t="s">
         <v>908</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="135" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="122" t="s">
         <v>909</v>
       </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136" t="s">
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123" t="s">
         <v>910</v>
       </c>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="137"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="124"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="138" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="125" t="s">
         <v>911</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="141"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="128"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="143"/>
-      <c r="AF17" s="143"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="143"/>
-      <c r="AI17" s="143"/>
-      <c r="AJ17" s="144"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="131"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="143"/>
-      <c r="AI18" s="143"/>
-      <c r="AJ18" s="144"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="130"/>
+      <c r="AC18" s="130"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="130"/>
+      <c r="AI18" s="130"/>
+      <c r="AJ18" s="131"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="143"/>
-      <c r="W19" s="143"/>
-      <c r="X19" s="143"/>
-      <c r="Y19" s="143"/>
-      <c r="Z19" s="143"/>
-      <c r="AA19" s="143"/>
-      <c r="AB19" s="143"/>
-      <c r="AC19" s="143"/>
-      <c r="AD19" s="143"/>
-      <c r="AE19" s="143"/>
-      <c r="AF19" s="143"/>
-      <c r="AG19" s="143"/>
-      <c r="AH19" s="143"/>
-      <c r="AI19" s="143"/>
-      <c r="AJ19" s="144"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="130"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="130"/>
+      <c r="AC19" s="130"/>
+      <c r="AD19" s="130"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="130"/>
+      <c r="AJ19" s="131"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="119"/>
-      <c r="AH20" s="119"/>
-      <c r="AI20" s="119"/>
-      <c r="AJ20" s="146"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="133"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="133"/>
+      <c r="AC20" s="133"/>
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="133"/>
+      <c r="AG20" s="133"/>
+      <c r="AH20" s="133"/>
+      <c r="AI20" s="133"/>
+      <c r="AJ20" s="134"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="147" t="s">
+      <c r="A21" s="87" t="s">
         <v>912</v>
       </c>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="157"/>
-      <c r="S21" s="157"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="157"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="157"/>
-      <c r="AJ21" s="158"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="97"/>
+      <c r="AJ21" s="98"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="161"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="101"/>
     </row>
     <row r="23" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="163"/>
-      <c r="Z23" s="163"/>
-      <c r="AA23" s="163"/>
-      <c r="AB23" s="163"/>
-      <c r="AC23" s="163"/>
-      <c r="AD23" s="163"/>
-      <c r="AE23" s="163"/>
-      <c r="AF23" s="163"/>
-      <c r="AG23" s="163"/>
-      <c r="AH23" s="163"/>
-      <c r="AI23" s="163"/>
-      <c r="AJ23" s="164"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="103"/>
+      <c r="Y23" s="103"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="103"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="104"/>
     </row>
     <row r="24" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="77" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="171" t="s">
+      <c r="B24" s="105"/>
+      <c r="C24" s="108" t="s">
         <v>913</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="173" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="110" t="s">
         <v>914</v>
       </c>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="171"/>
-      <c r="T24" s="171"/>
-      <c r="U24" s="171"/>
-      <c r="V24" s="171"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="173" t="s">
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="110" t="s">
         <v>915</v>
       </c>
-      <c r="Z24" s="171"/>
-      <c r="AA24" s="171"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="171"/>
-      <c r="AD24" s="171"/>
-      <c r="AE24" s="171"/>
-      <c r="AF24" s="171"/>
-      <c r="AG24" s="171"/>
-      <c r="AH24" s="171"/>
-      <c r="AI24" s="171"/>
-      <c r="AJ24" s="172"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="109"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="175"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="175"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
-      <c r="AD25" s="175"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="175"/>
-      <c r="AG25" s="175"/>
-      <c r="AH25" s="175"/>
-      <c r="AI25" s="175"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
       <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="169"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
       <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="176"/>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
       <c r="X26" s="44">
         <v>3</v>
       </c>
-      <c r="Y26" s="176"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="177"/>
-      <c r="AC26" s="177"/>
-      <c r="AD26" s="177"/>
-      <c r="AE26" s="177"/>
-      <c r="AF26" s="177"/>
-      <c r="AG26" s="177"/>
-      <c r="AH26" s="177"/>
-      <c r="AI26" s="177"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
       <c r="AJ26" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="77" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="178"/>
-      <c r="C27" s="181" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="83" t="s">
         <v>917</v>
       </c>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="181" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="83" t="s">
         <v>918</v>
       </c>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="181"/>
-      <c r="Y27" s="181" t="s">
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83" t="s">
         <v>919</v>
       </c>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="181"/>
-      <c r="AC27" s="181"/>
-      <c r="AD27" s="181"/>
-      <c r="AE27" s="181"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="181"/>
-      <c r="AH27" s="181"/>
-      <c r="AI27" s="181"/>
-      <c r="AJ27" s="181"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="167"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="175"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="175"/>
-      <c r="AA28" s="175"/>
-      <c r="AB28" s="175"/>
-      <c r="AC28" s="175"/>
-      <c r="AD28" s="175"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="175"/>
-      <c r="AG28" s="175"/>
-      <c r="AH28" s="175"/>
-      <c r="AI28" s="175"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
       <c r="AJ28" s="43"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="167"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="45">
         <v>5</v>
       </c>
-      <c r="N29" s="183"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="184"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="184"/>
-      <c r="V29" s="184"/>
-      <c r="W29" s="184"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
       <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="184"/>
-      <c r="AA29" s="184"/>
-      <c r="AB29" s="184"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="184"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="184"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="184"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
       <c r="AJ29" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="169"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="185" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85" t="s">
         <v>920</v>
       </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="186" t="s">
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86" t="s">
         <v>921</v>
       </c>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="186"/>
-      <c r="L30" s="186"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="186"/>
-      <c r="AH30" s="186"/>
-      <c r="AI30" s="186"/>
-      <c r="AJ30" s="186"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="86"/>
     </row>
     <row r="31" spans="1:36" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="68" t="s">
         <v>922</v>
       </c>
-      <c r="B31" s="188"/>
-      <c r="C31" s="183" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="70" t="s">
         <v>913</v>
       </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="183" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="70" t="s">
         <v>914</v>
       </c>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="184"/>
-      <c r="V31" s="184"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="190"/>
-      <c r="Y31" s="183" t="s">
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="70" t="s">
         <v>915</v>
       </c>
-      <c r="Z31" s="184"/>
-      <c r="AA31" s="184"/>
-      <c r="AB31" s="184"/>
-      <c r="AC31" s="184"/>
-      <c r="AD31" s="184"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="184"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="184"/>
-      <c r="AJ31" s="190"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="72"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="189"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="175"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="175"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="175"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
       <c r="X32" s="43"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="175"/>
-      <c r="AA32" s="175"/>
-      <c r="AB32" s="175"/>
-      <c r="AC32" s="175"/>
-      <c r="AD32" s="175"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="175"/>
-      <c r="AG32" s="175"/>
-      <c r="AH32" s="175"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
       <c r="AI32" s="46"/>
       <c r="AJ32" s="43"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="189"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
       <c r="M33" s="45">
         <v>8</v>
       </c>
-      <c r="N33" s="183"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="184"/>
-      <c r="V33" s="184"/>
-      <c r="W33" s="184"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
       <c r="X33" s="45">
         <v>9</v>
       </c>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="184"/>
-      <c r="AA33" s="184"/>
-      <c r="AB33" s="184"/>
-      <c r="AC33" s="184"/>
-      <c r="AD33" s="184"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="184"/>
-      <c r="AG33" s="184"/>
-      <c r="AH33" s="184"/>
-      <c r="AI33" s="191">
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="75">
         <v>10</v>
       </c>
-      <c r="AJ33" s="192"/>
+      <c r="AJ33" s="76"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
@@ -19776,13 +19807,13 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="187" t="str">
+      <c r="AG35" s="67" t="str">
         <f>[1]首頁!N22</f>
         <v>v.23.4.21.1</v>
       </c>
-      <c r="AH35" s="187"/>
-      <c r="AI35" s="187"/>
-      <c r="AJ35" s="187"/>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="67"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -19792,72 +19823,12 @@
     <protectedRange sqref="F4:F5 N4:N5 R4:R5 J4:K5 P4:P5 U4:U5 Z4:Z5 AE4:AE5" name="權限審查_1_1"/>
   </protectedRanges>
   <mergeCells count="88">
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="C32:L33"/>
-    <mergeCell ref="N32:W33"/>
-    <mergeCell ref="Y32:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="C28:L29"/>
-    <mergeCell ref="N28:W29"/>
-    <mergeCell ref="Y28:AI29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:AJ30"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="F21:AJ23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="N25:W26"/>
-    <mergeCell ref="Y25:AI26"/>
-    <mergeCell ref="A15:E20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:AJ16"/>
-    <mergeCell ref="F17:AJ20"/>
-    <mergeCell ref="V13:AJ13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AJ14"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AJ12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
@@ -19874,12 +19845,72 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AJ12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AJ13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AJ14"/>
+    <mergeCell ref="A15:E20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:AJ16"/>
+    <mergeCell ref="F17:AJ20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="F21:AJ23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="N25:W26"/>
+    <mergeCell ref="Y25:AI26"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="C28:L29"/>
+    <mergeCell ref="N28:W29"/>
+    <mergeCell ref="Y28:AI29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:AJ30"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="N32:W33"/>
+    <mergeCell ref="Y32:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
